--- a/doc/Email_Template/Design Request Performance Report for BIP Viet Nam Company Limited.xlsx
+++ b/doc/Email_Template/Design Request Performance Report for BIP Viet Nam Company Limited.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="28590" windowHeight="12585"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Request" sheetId="3" r:id="rId1"/>
     <sheet name=" New Relic  June 1st performanc" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -1239,9 +1239,6 @@
     <t>3)</t>
   </si>
   <si>
-    <t>Vẽ biểu đò</t>
-  </si>
-  <si>
     <t>4)</t>
   </si>
   <si>
@@ -1428,6 +1425,9 @@
       <t>0.5</t>
     </r>
   </si>
+  <si>
+    <t>Vẽ biểu đồ</t>
+  </si>
 </sst>
 </file>
 
@@ -1436,19 +1436,19 @@
   <numFmts count="15">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="#,##0.0&quot;人月&quot;"/>
-    <numFmt numFmtId="170" formatCode="#,##0_ "/>
-    <numFmt numFmtId="171" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
-    <numFmt numFmtId="172" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
-    <numFmt numFmtId="173" formatCode="0_ ;[Red]\-0\ "/>
-    <numFmt numFmtId="174" formatCode="#,##0.0"/>
-    <numFmt numFmtId="175" formatCode="&quot;$&quot;#,##0;\-&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="176" formatCode="&quot;｣&quot;#,##0.00;\-&quot;｣&quot;#,##0.00"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="#,##0.00&quot;｣&quot;_);\(#,##0.00&quot;｣&quot;\)"/>
-    <numFmt numFmtId="179" formatCode="#,##0.00&quot;｣&quot;_);[Red]\(#,##0.00&quot;｣&quot;\)"/>
-    <numFmt numFmtId="181" formatCode="0.0%"/>
-    <numFmt numFmtId="184" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0&quot;人月&quot;"/>
+    <numFmt numFmtId="165" formatCode="#,##0_ "/>
+    <numFmt numFmtId="166" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
+    <numFmt numFmtId="167" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
+    <numFmt numFmtId="168" formatCode="0_ ;[Red]\-0\ "/>
+    <numFmt numFmtId="169" formatCode="#,##0.0"/>
+    <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0;\-&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="171" formatCode="&quot;｣&quot;#,##0.00;\-&quot;｣&quot;#,##0.00"/>
+    <numFmt numFmtId="172" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="173" formatCode="#,##0.00&quot;｣&quot;_);\(#,##0.00&quot;｣&quot;\)"/>
+    <numFmt numFmtId="174" formatCode="#,##0.00&quot;｣&quot;_);[Red]\(#,##0.00&quot;｣&quot;\)"/>
+    <numFmt numFmtId="175" formatCode="0.0%"/>
+    <numFmt numFmtId="176" formatCode="0.000"/>
   </numFmts>
   <fonts count="62">
     <font>
@@ -2470,7 +2470,7 @@
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="172" fontId="46" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="167" fontId="46" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
@@ -2515,15 +2515,15 @@
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="169" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="4" fontId="52" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="174" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="4" fontId="52" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="53" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="174" fontId="53" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="42" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="8" fontId="52" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="53" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="53" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="52" fillId="0" borderId="0"/>
+    <xf numFmtId="174" fontId="53" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="53" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="52" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="37" fillId="53" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
@@ -2532,14 +2532,14 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="10" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="175" fontId="54" fillId="0" borderId="0"/>
+    <xf numFmtId="170" fontId="54" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
@@ -2564,15 +2564,15 @@
     <xf numFmtId="49" fontId="46" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="168" fontId="41" fillId="0" borderId="0"/>
-    <xf numFmtId="173" fontId="42" fillId="0" borderId="0" applyFill="0" applyBorder="0"/>
-    <xf numFmtId="171" fontId="42" fillId="0" borderId="0" applyFill="0" applyBorder="0"/>
+    <xf numFmtId="164" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="42" fillId="0" borderId="0" applyFill="0" applyBorder="0"/>
+    <xf numFmtId="166" fontId="42" fillId="0" borderId="0" applyFill="0" applyBorder="0"/>
     <xf numFmtId="49" fontId="42" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
     <xf numFmtId="49" fontId="42" fillId="55" borderId="22">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="42" fillId="55" borderId="22">
+    <xf numFmtId="165" fontId="42" fillId="55" borderId="22">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="42" fillId="0" borderId="22"/>
@@ -2734,129 +2734,6 @@
     <xf numFmtId="0" fontId="23" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="42" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="23" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="23" fillId="35" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="23" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="23" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="50" borderId="0" xfId="42" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2900,14 +2777,137 @@
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="85" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="85" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="184" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="50" borderId="0" xfId="42" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="42" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="23" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="23" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="23" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="23" fillId="35" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="117">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3846,20 +3846,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="94"/>
-    <col min="3" max="3" width="13.6640625" style="106" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" style="53"/>
+    <col min="3" max="3" width="13.6640625" style="65" bestFit="1" customWidth="1"/>
     <col min="5" max="12" width="15.33203125" customWidth="1"/>
     <col min="13" max="13" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:2">
-      <c r="A5" s="94" t="s">
+      <c r="A5" s="53" t="s">
         <v>209</v>
       </c>
       <c r="B5" t="s">
@@ -3867,7 +3867,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="94" t="s">
+      <c r="A8" s="53" t="s">
         <v>210</v>
       </c>
       <c r="B8" t="s">
@@ -3875,72 +3875,72 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="94" t="s">
+      <c r="A11" s="53" t="s">
         <v>215</v>
       </c>
       <c r="B11" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="53" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="94" t="s">
+      <c r="B14" t="s">
         <v>217</v>
       </c>
-      <c r="B14" t="s">
-        <v>218</v>
-      </c>
     </row>
     <row r="16" spans="1:2" ht="12" thickBot="1"/>
-    <row r="17" spans="1:13" ht="17.25" thickTop="1">
-      <c r="C17" s="107"/>
+    <row r="17" spans="1:13" ht="14.25" thickTop="1">
+      <c r="C17" s="66"/>
       <c r="D17" s="39"/>
       <c r="E17" s="39" t="s">
+        <v>236</v>
+      </c>
+      <c r="F17" s="39" t="s">
         <v>237</v>
       </c>
-      <c r="F17" s="39" t="s">
+      <c r="G17" s="39" t="s">
         <v>238</v>
       </c>
-      <c r="G17" s="39" t="s">
+      <c r="H17" s="39" t="s">
         <v>239</v>
       </c>
-      <c r="H17" s="39" t="s">
+      <c r="I17" s="39" t="s">
         <v>240</v>
       </c>
-      <c r="I17" s="39" t="s">
+      <c r="J17" s="39" t="s">
         <v>241</v>
       </c>
-      <c r="J17" s="39" t="s">
+      <c r="K17" s="39" t="s">
         <v>242</v>
-      </c>
-      <c r="K17" s="39" t="s">
-        <v>243</v>
       </c>
       <c r="L17" s="39" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="20.25">
-      <c r="B18" s="104" t="s">
-        <v>230</v>
-      </c>
-      <c r="C18" s="108"/>
-      <c r="D18" s="101"/>
-      <c r="E18" s="101"/>
-      <c r="F18" s="101"/>
-      <c r="G18" s="101"/>
-      <c r="H18" s="101"/>
-      <c r="I18" s="101"/>
-      <c r="J18" s="101"/>
-      <c r="K18" s="101"/>
-      <c r="L18" s="101"/>
+      <c r="B18" s="63" t="s">
+        <v>229</v>
+      </c>
+      <c r="C18" s="67"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
     </row>
     <row r="19" spans="1:13" ht="20.25">
-      <c r="B19" s="102"/>
-      <c r="C19" s="109" t="s">
+      <c r="B19" s="61"/>
+      <c r="C19" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="95"/>
-      <c r="E19" s="71" t="s">
+      <c r="D19" s="54"/>
+      <c r="E19" s="78" t="s">
         <v>63</v>
       </c>
       <c r="F19" s="35" t="s">
@@ -3953,27 +3953,27 @@
         <v>64</v>
       </c>
       <c r="I19" s="35" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J19" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="K19" s="71" t="s">
+      <c r="K19" s="78" t="s">
         <v>63</v>
       </c>
       <c r="L19" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="M19" s="116">
+      <c r="M19" s="75">
         <f>AVERAGE(SUBSTITUTE(I19,"0.5", ""), SUBSTITUTE(J19,"0.5", ""), SUBSTITUTE(F19,"0.5", ""),SUBSTITUTE(G19,"0.5", ""), SUBSTITUTE(H19,"0.5", ""))</f>
         <v>0.82999999999999985</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="11.25" customHeight="1">
-      <c r="B20" s="102"/>
-      <c r="C20" s="109"/>
-      <c r="D20" s="95"/>
-      <c r="E20" s="71"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="78"/>
       <c r="F20" s="41" t="s">
         <v>61</v>
       </c>
@@ -3989,18 +3989,18 @@
       <c r="J20" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="K20" s="71"/>
+      <c r="K20" s="78"/>
       <c r="L20" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="M20" s="114"/>
+      <c r="M20" s="73"/>
     </row>
     <row r="21" spans="1:13" ht="16.5" customHeight="1">
-      <c r="B21" s="102"/>
-      <c r="C21" s="105" t="s">
-        <v>233</v>
-      </c>
-      <c r="D21" s="96"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="64" t="s">
+        <v>232</v>
+      </c>
+      <c r="D21" s="55"/>
       <c r="E21" s="37" t="s">
         <v>71</v>
       </c>
@@ -4025,17 +4025,17 @@
       <c r="L21" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="M21" s="118">
+      <c r="M21" s="77">
         <f>AVERAGE(SUBSTITUTE(I21,"ms", ""), SUBSTITUTE(J21,"ms", ""), SUBSTITUTE(K21,"ms", ""), SUBSTITUTE(E21,"ms", ""), SUBSTITUTE(F21,"ms", ""),SUBSTITUTE(G21,"ms", ""), SUBSTITUTE(H21,"ms", ""))</f>
         <v>540.28571428571433</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="16.5" customHeight="1">
-      <c r="B22" s="102"/>
-      <c r="C22" s="109" t="s">
+      <c r="B22" s="61"/>
+      <c r="C22" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="95"/>
+      <c r="D22" s="54"/>
       <c r="E22" s="35" t="s">
         <v>78</v>
       </c>
@@ -4060,17 +4060,17 @@
       <c r="L22" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="M22" s="115">
+      <c r="M22" s="74">
         <f>AVERAGE(SUBSTITUTE(I22,"rpm", ""), SUBSTITUTE(J22,"rpm", ""), SUBSTITUTE(K22,"rpm", ""), SUBSTITUTE(E22,"rpm", ""), SUBSTITUTE(F22,"rpm", ""),SUBSTITUTE(G22,"rpm", ""), SUBSTITUTE(H22,"rpm", ""))</f>
         <v>1.0715142857142856</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="16.5" customHeight="1">
-      <c r="B23" s="102"/>
-      <c r="C23" s="105" t="s">
+      <c r="B23" s="61"/>
+      <c r="C23" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="96"/>
+      <c r="D23" s="55"/>
       <c r="E23" s="38">
         <v>0</v>
       </c>
@@ -4095,17 +4095,17 @@
       <c r="L23" s="40">
         <v>9.7199999999999995E-3</v>
       </c>
-      <c r="M23" s="114">
+      <c r="M23" s="73">
         <f>AVERAGE(E23:K23)</f>
         <v>5.96E-3</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="16.5" customHeight="1">
-      <c r="B24" s="104" t="s">
-        <v>231</v>
-      </c>
-      <c r="C24" s="105"/>
-      <c r="D24" s="96"/>
+      <c r="B24" s="63" t="s">
+        <v>230</v>
+      </c>
+      <c r="C24" s="64"/>
+      <c r="D24" s="55"/>
       <c r="E24" s="38"/>
       <c r="F24" s="40"/>
       <c r="G24" s="38"/>
@@ -4114,14 +4114,14 @@
       <c r="J24" s="40"/>
       <c r="K24" s="38"/>
       <c r="L24" s="40"/>
-      <c r="M24" s="114"/>
+      <c r="M24" s="73"/>
     </row>
     <row r="25" spans="1:13" ht="16.5" customHeight="1">
-      <c r="B25" s="102"/>
-      <c r="C25" s="109" t="s">
+      <c r="B25" s="61"/>
+      <c r="C25" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="D25" s="95"/>
+      <c r="D25" s="54"/>
       <c r="E25" s="36">
         <v>0</v>
       </c>
@@ -4146,17 +4146,17 @@
       <c r="L25" s="36">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="M25" s="114">
+      <c r="M25" s="73">
         <f>AVERAGE(E25:K25)</f>
         <v>9.5714285714285727E-3</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="16.5" customHeight="1">
-      <c r="B26" s="104" t="s">
-        <v>232</v>
-      </c>
-      <c r="C26" s="109"/>
-      <c r="D26" s="95"/>
+      <c r="B26" s="63" t="s">
+        <v>231</v>
+      </c>
+      <c r="C26" s="68"/>
+      <c r="D26" s="54"/>
       <c r="E26" s="36"/>
       <c r="F26" s="36"/>
       <c r="G26" s="36"/>
@@ -4165,14 +4165,14 @@
       <c r="J26" s="36"/>
       <c r="K26" s="36"/>
       <c r="L26" s="36"/>
-      <c r="M26" s="114"/>
+      <c r="M26" s="73"/>
     </row>
     <row r="27" spans="1:13" ht="16.5" customHeight="1">
-      <c r="B27" s="102"/>
-      <c r="C27" s="109" t="s">
-        <v>221</v>
-      </c>
-      <c r="D27" s="95"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="68" t="s">
+        <v>220</v>
+      </c>
+      <c r="D27" s="54"/>
       <c r="E27" s="36">
         <v>0</v>
       </c>
@@ -4197,17 +4197,17 @@
       <c r="L27" s="36">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="M27" s="114">
+      <c r="M27" s="73">
         <f>AVERAGE(E27:K27)</f>
         <v>3.0000000000000005E-3</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="16.5" customHeight="1">
-      <c r="B28" s="102"/>
-      <c r="C28" s="109" t="s">
+      <c r="B28" s="61"/>
+      <c r="C28" s="68" t="s">
         <v>213</v>
       </c>
-      <c r="D28" s="95"/>
+      <c r="D28" s="54"/>
       <c r="E28" s="36">
         <v>0.1</v>
       </c>
@@ -4232,17 +4232,17 @@
       <c r="L28" s="36">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="M28" s="113">
+      <c r="M28" s="72">
         <f>AVERAGE(E27:L28)</f>
         <v>0.15231250000000002</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="16.5" customHeight="1">
-      <c r="B29" s="102"/>
-      <c r="C29" s="105" t="s">
-        <v>219</v>
-      </c>
-      <c r="D29" s="96"/>
+      <c r="B29" s="61"/>
+      <c r="C29" s="64" t="s">
+        <v>218</v>
+      </c>
+      <c r="D29" s="55"/>
       <c r="E29" s="37" t="s">
         <v>87</v>
       </c>
@@ -4267,18 +4267,18 @@
       <c r="L29" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="M29" s="118">
+      <c r="M29" s="77">
         <f>AVERAGE(SUBSTITUTE(I29,"MB", ""), SUBSTITUTE(J29,"MB", ""), SUBSTITUTE(K29,"MB", ""), SUBSTITUTE(E29,"MB", ""), SUBSTITUTE(F29,"MB", ""),SUBSTITUTE(G29,"MB", ""), SUBSTITUTE(H29,"MB", ""))</f>
         <v>333.28571428571428</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="98" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A30" s="97"/>
-      <c r="B30" s="103"/>
-      <c r="C30" s="110" t="s">
+    <row r="30" spans="1:13" s="57" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A30" s="56"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="69" t="s">
         <v>214</v>
       </c>
-      <c r="D30" s="99"/>
+      <c r="D30" s="58"/>
       <c r="E30" s="36">
         <v>0.4</v>
       </c>
@@ -4303,131 +4303,131 @@
       <c r="L30" s="36">
         <v>0.42480000000000001</v>
       </c>
-      <c r="M30" s="114">
+      <c r="M30" s="73">
         <f>AVERAGE(E30:K30)</f>
         <v>0.43</v>
       </c>
     </row>
-    <row r="31" spans="1:13" s="98" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A31" s="97"/>
-      <c r="B31" s="103"/>
-      <c r="C31" s="110" t="s">
-        <v>220</v>
-      </c>
-      <c r="D31" s="99"/>
-      <c r="E31" s="100">
+    <row r="31" spans="1:13" s="57" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A31" s="56"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="69" t="s">
+        <v>219</v>
+      </c>
+      <c r="D31" s="58"/>
+      <c r="E31" s="59">
         <f>E30*8</f>
         <v>3.2</v>
       </c>
-      <c r="F31" s="100">
+      <c r="F31" s="59">
         <f t="shared" ref="F31:L31" si="0">F30*8</f>
         <v>3.24</v>
       </c>
-      <c r="G31" s="100">
+      <c r="G31" s="59">
         <f t="shared" si="0"/>
         <v>3.552</v>
       </c>
-      <c r="H31" s="100">
+      <c r="H31" s="59">
         <f t="shared" si="0"/>
         <v>3.6</v>
       </c>
-      <c r="I31" s="100">
+      <c r="I31" s="59">
         <f t="shared" si="0"/>
         <v>3.7360000000000002</v>
       </c>
-      <c r="J31" s="100">
+      <c r="J31" s="59">
         <f t="shared" si="0"/>
         <v>3.552</v>
       </c>
-      <c r="K31" s="100">
+      <c r="K31" s="59">
         <f t="shared" si="0"/>
         <v>3.2</v>
       </c>
-      <c r="L31" s="117">
+      <c r="L31" s="76">
         <f t="shared" si="0"/>
         <v>3.3984000000000001</v>
       </c>
-      <c r="M31" s="116">
+      <c r="M31" s="75">
         <f>AVERAGE(E31:K31)</f>
         <v>3.44</v>
       </c>
     </row>
-    <row r="32" spans="1:13" s="98" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A32" s="97"/>
-      <c r="B32" s="103"/>
-      <c r="C32" s="110"/>
-      <c r="D32" s="99"/>
+    <row r="32" spans="1:13" s="57" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A32" s="56"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="58"/>
       <c r="E32" s="36"/>
       <c r="F32" s="36"/>
       <c r="G32" s="36"/>
-      <c r="H32" s="100"/>
-      <c r="I32" s="100"/>
-      <c r="J32" s="100"/>
-      <c r="K32" s="100"/>
-      <c r="L32" s="100"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="59"/>
+      <c r="K32" s="59"/>
+      <c r="L32" s="59"/>
     </row>
     <row r="33" spans="2:8" ht="20.25">
-      <c r="B33" s="102" t="s">
+      <c r="B33" s="61" t="s">
+        <v>233</v>
+      </c>
+      <c r="G33" t="s">
         <v>234</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>235</v>
       </c>
-      <c r="H33" t="s">
-        <v>236</v>
-      </c>
     </row>
     <row r="34" spans="2:8" ht="12.75">
-      <c r="C34" s="111" t="s">
+      <c r="C34" s="70" t="s">
+        <v>221</v>
+      </c>
+      <c r="G34" t="s">
+        <v>243</v>
+      </c>
+      <c r="H34" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="12.75">
+      <c r="C35" s="70" t="s">
         <v>222</v>
       </c>
-      <c r="G34" t="s">
-        <v>244</v>
-      </c>
-      <c r="H34" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" ht="12.75">
-      <c r="C35" s="111" t="s">
+    </row>
+    <row r="36" spans="2:8" ht="12.75">
+      <c r="C36" s="70" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="12.75">
+      <c r="C37" s="70" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="12.75">
+      <c r="C38" s="70" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="12.75">
+      <c r="C39" s="70" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" ht="12.75">
+      <c r="C40" s="70" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" ht="12.75">
+      <c r="C41" s="71" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="36" spans="2:8" ht="12.75">
-      <c r="C36" s="111" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" ht="12.75">
-      <c r="C37" s="111" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" ht="12.75">
-      <c r="C38" s="111" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" ht="12.75">
-      <c r="C39" s="111" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" ht="12.75">
-      <c r="C40" s="111" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" ht="12.75">
-      <c r="C41" s="112" t="s">
-        <v>224</v>
-      </c>
-    </row>
     <row r="42" spans="2:8" ht="12.75">
-      <c r="C42" s="111"/>
+      <c r="C42" s="70"/>
     </row>
     <row r="43" spans="2:8" ht="12.75">
-      <c r="C43" s="111"/>
+      <c r="C43" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4501,26 +4501,26 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="15" thickBot="1"/>
-    <row r="10" spans="1:19" ht="17.25" thickTop="1">
-      <c r="A10" s="85"/>
-      <c r="B10" s="85"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="85"/>
-      <c r="K10" s="85"/>
-      <c r="L10" s="85"/>
-      <c r="M10" s="85"/>
-      <c r="N10" s="85"/>
-      <c r="O10" s="85"/>
-      <c r="P10" s="85"/>
-      <c r="Q10" s="85"/>
-      <c r="R10" s="85"/>
-      <c r="S10" s="85"/>
+    <row r="10" spans="1:19" ht="15" thickTop="1">
+      <c r="A10" s="96"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="96"/>
+      <c r="J10" s="96"/>
+      <c r="K10" s="96"/>
+      <c r="L10" s="96"/>
+      <c r="M10" s="96"/>
+      <c r="N10" s="96"/>
+      <c r="O10" s="96"/>
+      <c r="P10" s="96"/>
+      <c r="Q10" s="96"/>
+      <c r="R10" s="96"/>
+      <c r="S10" s="96"/>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="80"/>
@@ -4544,27 +4544,27 @@
       <c r="S11" s="80"/>
     </row>
     <row r="12" spans="1:19" ht="33" customHeight="1">
-      <c r="A12" s="86" t="s">
+      <c r="A12" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="86"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="86"/>
-      <c r="I12" s="86"/>
-      <c r="J12" s="86"/>
-      <c r="K12" s="86"/>
-      <c r="L12" s="86"/>
-      <c r="M12" s="86"/>
-      <c r="N12" s="86"/>
-      <c r="O12" s="86"/>
-      <c r="P12" s="86"/>
-      <c r="Q12" s="86"/>
-      <c r="R12" s="86"/>
-      <c r="S12" s="86"/>
+      <c r="B12" s="97"/>
+      <c r="C12" s="97"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="97"/>
+      <c r="I12" s="97"/>
+      <c r="J12" s="97"/>
+      <c r="K12" s="97"/>
+      <c r="L12" s="97"/>
+      <c r="M12" s="97"/>
+      <c r="N12" s="97"/>
+      <c r="O12" s="97"/>
+      <c r="P12" s="97"/>
+      <c r="Q12" s="97"/>
+      <c r="R12" s="97"/>
+      <c r="S12" s="97"/>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="80"/>
@@ -4588,27 +4588,27 @@
       <c r="S13" s="80"/>
     </row>
     <row r="14" spans="1:19" ht="27" customHeight="1">
-      <c r="A14" s="60" t="s">
+      <c r="A14" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="60"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="60"/>
-      <c r="O14" s="60"/>
-      <c r="P14" s="60"/>
-      <c r="Q14" s="60"/>
-      <c r="R14" s="60"/>
-      <c r="S14" s="60"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="95"/>
+      <c r="J14" s="95"/>
+      <c r="K14" s="95"/>
+      <c r="L14" s="95"/>
+      <c r="M14" s="95"/>
+      <c r="N14" s="95"/>
+      <c r="O14" s="95"/>
+      <c r="P14" s="95"/>
+      <c r="Q14" s="95"/>
+      <c r="R14" s="95"/>
+      <c r="S14" s="95"/>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="80"/>
@@ -4632,27 +4632,27 @@
       <c r="S15" s="80"/>
     </row>
     <row r="16" spans="1:19" ht="20.25" customHeight="1">
-      <c r="A16" s="81" t="s">
+      <c r="A16" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="81"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="81"/>
-      <c r="L16" s="81"/>
-      <c r="M16" s="81"/>
-      <c r="N16" s="81"/>
-      <c r="O16" s="81"/>
-      <c r="P16" s="81"/>
-      <c r="Q16" s="81"/>
-      <c r="R16" s="81"/>
-      <c r="S16" s="81"/>
+      <c r="B16" s="86"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="86"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="86"/>
+      <c r="K16" s="86"/>
+      <c r="L16" s="86"/>
+      <c r="M16" s="86"/>
+      <c r="N16" s="86"/>
+      <c r="O16" s="86"/>
+      <c r="P16" s="86"/>
+      <c r="Q16" s="86"/>
+      <c r="R16" s="86"/>
+      <c r="S16" s="86"/>
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="80"/>
@@ -4676,40 +4676,40 @@
       <c r="S17" s="80"/>
     </row>
     <row r="18" spans="1:19">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="54"/>
-      <c r="O18" s="54"/>
-      <c r="P18" s="54"/>
-      <c r="Q18" s="54"/>
-      <c r="R18" s="54"/>
-      <c r="S18" s="54"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="85"/>
+      <c r="I18" s="85"/>
+      <c r="J18" s="85"/>
+      <c r="K18" s="85"/>
+      <c r="L18" s="85"/>
+      <c r="M18" s="85"/>
+      <c r="N18" s="85"/>
+      <c r="O18" s="85"/>
+      <c r="P18" s="85"/>
+      <c r="Q18" s="85"/>
+      <c r="R18" s="85"/>
+      <c r="S18" s="85"/>
     </row>
     <row r="19" spans="1:19">
-      <c r="A19" s="53" t="s">
+      <c r="A19" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="54" t="s">
+      <c r="B19" s="105"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="105"/>
+      <c r="G19" s="105"/>
+      <c r="H19" s="105"/>
+      <c r="I19" s="85" t="s">
         <v>11</v>
       </c>
       <c r="J19" s="4"/>
@@ -4724,15 +4724,15 @@
       <c r="S19" s="4"/>
     </row>
     <row r="20" spans="1:19">
-      <c r="A20" s="53"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="54"/>
+      <c r="A20" s="105"/>
+      <c r="B20" s="105"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="105"/>
+      <c r="F20" s="105"/>
+      <c r="G20" s="105"/>
+      <c r="H20" s="105"/>
+      <c r="I20" s="85"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
@@ -4745,83 +4745,83 @@
       <c r="S20" s="4"/>
     </row>
     <row r="21" spans="1:19" ht="27" customHeight="1">
-      <c r="A21" s="55" t="s">
+      <c r="A21" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="56"/>
+      <c r="B21" s="98"/>
+      <c r="C21" s="98"/>
+      <c r="D21" s="98"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="98"/>
+      <c r="G21" s="98"/>
+      <c r="H21" s="106"/>
       <c r="I21" s="8">
         <v>2180</v>
       </c>
-      <c r="J21" s="59">
+      <c r="J21" s="109">
         <v>0.97</v>
       </c>
-      <c r="K21" s="60"/>
-      <c r="L21" s="60"/>
-      <c r="M21" s="61"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="110"/>
       <c r="N21" s="10">
         <v>3.2499999999999999E-3</v>
       </c>
-      <c r="O21" s="65"/>
+      <c r="O21" s="84"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
     </row>
     <row r="22" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A22" s="57" t="s">
+      <c r="A22" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="57"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="58"/>
+      <c r="B22" s="107"/>
+      <c r="C22" s="107"/>
+      <c r="D22" s="107"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="108"/>
       <c r="I22" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J22" s="62" t="s">
+      <c r="J22" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="K22" s="63"/>
-      <c r="L22" s="63"/>
-      <c r="M22" s="64"/>
+      <c r="K22" s="112"/>
+      <c r="L22" s="112"/>
+      <c r="M22" s="113"/>
       <c r="N22" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="O22" s="65"/>
+      <c r="O22" s="84"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
     </row>
     <row r="23" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A23" s="66">
+      <c r="A23" s="114">
         <v>8.6400000000000005E-2</v>
       </c>
-      <c r="B23" s="66"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="67"/>
+      <c r="B23" s="114"/>
+      <c r="C23" s="114"/>
+      <c r="D23" s="114"/>
+      <c r="E23" s="114"/>
+      <c r="F23" s="114"/>
+      <c r="G23" s="114"/>
+      <c r="H23" s="115"/>
       <c r="I23" s="12">
         <v>4.4000000000000004</v>
       </c>
-      <c r="J23" s="68" t="s">
+      <c r="J23" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="70"/>
+      <c r="K23" s="117"/>
+      <c r="L23" s="117"/>
+      <c r="M23" s="118"/>
       <c r="N23" s="11">
         <v>0.54</v>
       </c>
@@ -4855,27 +4855,27 @@
       <c r="S24" s="80"/>
     </row>
     <row r="25" spans="1:19" ht="27" customHeight="1">
-      <c r="A25" s="60" t="s">
+      <c r="A25" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="60"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="60"/>
-      <c r="K25" s="60"/>
-      <c r="L25" s="60"/>
-      <c r="M25" s="60"/>
-      <c r="N25" s="60"/>
-      <c r="O25" s="60"/>
-      <c r="P25" s="60"/>
-      <c r="Q25" s="60"/>
-      <c r="R25" s="60"/>
-      <c r="S25" s="60"/>
+      <c r="B25" s="95"/>
+      <c r="C25" s="95"/>
+      <c r="D25" s="95"/>
+      <c r="E25" s="95"/>
+      <c r="F25" s="95"/>
+      <c r="G25" s="95"/>
+      <c r="H25" s="95"/>
+      <c r="I25" s="95"/>
+      <c r="J25" s="95"/>
+      <c r="K25" s="95"/>
+      <c r="L25" s="95"/>
+      <c r="M25" s="95"/>
+      <c r="N25" s="95"/>
+      <c r="O25" s="95"/>
+      <c r="P25" s="95"/>
+      <c r="Q25" s="95"/>
+      <c r="R25" s="95"/>
+      <c r="S25" s="95"/>
     </row>
     <row r="26" spans="1:19">
       <c r="A26" s="80"/>
@@ -4898,7 +4898,7 @@
       <c r="R26" s="80"/>
       <c r="S26" s="80"/>
     </row>
-    <row r="27" spans="1:19" ht="16.5">
+    <row r="27" spans="1:19">
       <c r="A27" s="43"/>
       <c r="B27" s="44" t="s">
         <v>20</v>
@@ -4921,12 +4921,12 @@
       <c r="H27" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="I27" s="65"/>
-      <c r="J27" s="71" t="s">
+      <c r="I27" s="84"/>
+      <c r="J27" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="K27" s="71"/>
-      <c r="L27" s="71"/>
+      <c r="K27" s="78"/>
+      <c r="L27" s="78"/>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
@@ -4935,7 +4935,7 @@
       <c r="R27" s="4"/>
       <c r="S27" s="4"/>
     </row>
-    <row r="28" spans="1:19" ht="17.25" thickBot="1">
+    <row r="28" spans="1:19" ht="15" thickBot="1">
       <c r="A28" s="14">
         <v>42856</v>
       </c>
@@ -4946,9 +4946,9 @@
       <c r="F28" s="45"/>
       <c r="G28" s="46"/>
       <c r="H28" s="47"/>
-      <c r="I28" s="65"/>
+      <c r="I28" s="84"/>
       <c r="J28" s="16"/>
-      <c r="K28" s="65"/>
+      <c r="K28" s="84"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
@@ -4958,7 +4958,7 @@
       <c r="R28" s="4"/>
       <c r="S28" s="4"/>
     </row>
-    <row r="29" spans="1:19" ht="18" thickTop="1" thickBot="1">
+    <row r="29" spans="1:19" ht="28.5" thickTop="1" thickBot="1">
       <c r="A29" s="43"/>
       <c r="B29" s="48"/>
       <c r="C29" s="49"/>
@@ -4967,9 +4967,9 @@
       <c r="F29" s="43"/>
       <c r="G29" s="43"/>
       <c r="H29" s="43"/>
-      <c r="I29" s="65"/>
+      <c r="I29" s="84"/>
       <c r="J29" s="17"/>
-      <c r="K29" s="65"/>
+      <c r="K29" s="84"/>
       <c r="L29" s="18"/>
       <c r="M29" s="5" t="s">
         <v>26</v>
@@ -4981,18 +4981,18 @@
       <c r="R29" s="4"/>
       <c r="S29" s="4"/>
     </row>
-    <row r="30" spans="1:19" ht="18" thickTop="1" thickBot="1">
-      <c r="A30" s="72"/>
-      <c r="B30" s="72"/>
-      <c r="C30" s="72"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="72"/>
-      <c r="F30" s="72"/>
-      <c r="G30" s="72"/>
-      <c r="H30" s="72"/>
-      <c r="I30" s="65"/>
+    <row r="30" spans="1:19" ht="15.75" thickTop="1" thickBot="1">
+      <c r="A30" s="104"/>
+      <c r="B30" s="104"/>
+      <c r="C30" s="104"/>
+      <c r="D30" s="104"/>
+      <c r="E30" s="104"/>
+      <c r="F30" s="104"/>
+      <c r="G30" s="104"/>
+      <c r="H30" s="104"/>
+      <c r="I30" s="84"/>
       <c r="J30" s="19"/>
-      <c r="K30" s="65"/>
+      <c r="K30" s="84"/>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
@@ -5002,18 +5002,18 @@
       <c r="R30" s="4"/>
       <c r="S30" s="4"/>
     </row>
-    <row r="31" spans="1:19" ht="18" thickTop="1" thickBot="1">
-      <c r="A31" s="72"/>
-      <c r="B31" s="72"/>
-      <c r="C31" s="72"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
-      <c r="I31" s="65"/>
+    <row r="31" spans="1:19" ht="15.75" thickTop="1" thickBot="1">
+      <c r="A31" s="104"/>
+      <c r="B31" s="104"/>
+      <c r="C31" s="104"/>
+      <c r="D31" s="104"/>
+      <c r="E31" s="104"/>
+      <c r="F31" s="104"/>
+      <c r="G31" s="104"/>
+      <c r="H31" s="104"/>
+      <c r="I31" s="84"/>
       <c r="J31" s="20"/>
-      <c r="K31" s="65"/>
+      <c r="K31" s="84"/>
       <c r="L31" s="21"/>
       <c r="M31" s="5" t="s">
         <v>27</v>
@@ -5025,18 +5025,18 @@
       <c r="R31" s="4"/>
       <c r="S31" s="4"/>
     </row>
-    <row r="32" spans="1:19" ht="18" thickTop="1" thickBot="1">
-      <c r="A32" s="72"/>
-      <c r="B32" s="72"/>
-      <c r="C32" s="72"/>
-      <c r="D32" s="72"/>
-      <c r="E32" s="72"/>
-      <c r="F32" s="72"/>
-      <c r="G32" s="72"/>
-      <c r="H32" s="72"/>
-      <c r="I32" s="65"/>
+    <row r="32" spans="1:19" ht="15.75" thickTop="1" thickBot="1">
+      <c r="A32" s="104"/>
+      <c r="B32" s="104"/>
+      <c r="C32" s="104"/>
+      <c r="D32" s="104"/>
+      <c r="E32" s="104"/>
+      <c r="F32" s="104"/>
+      <c r="G32" s="104"/>
+      <c r="H32" s="104"/>
+      <c r="I32" s="84"/>
       <c r="J32" s="22"/>
-      <c r="K32" s="65"/>
+      <c r="K32" s="84"/>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
@@ -5046,18 +5046,18 @@
       <c r="R32" s="4"/>
       <c r="S32" s="4"/>
     </row>
-    <row r="33" spans="1:19" ht="18" thickTop="1" thickBot="1">
-      <c r="A33" s="72"/>
-      <c r="B33" s="72"/>
-      <c r="C33" s="72"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="72"/>
-      <c r="F33" s="72"/>
-      <c r="G33" s="72"/>
-      <c r="H33" s="72"/>
-      <c r="I33" s="65"/>
+    <row r="33" spans="1:19" ht="15.75" thickTop="1" thickBot="1">
+      <c r="A33" s="104"/>
+      <c r="B33" s="104"/>
+      <c r="C33" s="104"/>
+      <c r="D33" s="104"/>
+      <c r="E33" s="104"/>
+      <c r="F33" s="104"/>
+      <c r="G33" s="104"/>
+      <c r="H33" s="104"/>
+      <c r="I33" s="84"/>
       <c r="J33" s="23"/>
-      <c r="K33" s="65"/>
+      <c r="K33" s="84"/>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
@@ -5067,18 +5067,18 @@
       <c r="R33" s="4"/>
       <c r="S33" s="4"/>
     </row>
-    <row r="34" spans="1:19" ht="18" thickTop="1" thickBot="1">
-      <c r="A34" s="72"/>
-      <c r="B34" s="72"/>
-      <c r="C34" s="72"/>
-      <c r="D34" s="72"/>
-      <c r="E34" s="72"/>
-      <c r="F34" s="72"/>
-      <c r="G34" s="72"/>
-      <c r="H34" s="72"/>
-      <c r="I34" s="65"/>
+    <row r="34" spans="1:19" ht="15.75" thickTop="1" thickBot="1">
+      <c r="A34" s="104"/>
+      <c r="B34" s="104"/>
+      <c r="C34" s="104"/>
+      <c r="D34" s="104"/>
+      <c r="E34" s="104"/>
+      <c r="F34" s="104"/>
+      <c r="G34" s="104"/>
+      <c r="H34" s="104"/>
+      <c r="I34" s="84"/>
       <c r="J34" s="24"/>
-      <c r="K34" s="65"/>
+      <c r="K34" s="84"/>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
@@ -5088,18 +5088,18 @@
       <c r="R34" s="4"/>
       <c r="S34" s="4"/>
     </row>
-    <row r="35" spans="1:19" ht="18" thickTop="1" thickBot="1">
-      <c r="A35" s="72"/>
-      <c r="B35" s="72"/>
-      <c r="C35" s="72"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="72"/>
-      <c r="I35" s="65"/>
+    <row r="35" spans="1:19" ht="15.75" thickTop="1" thickBot="1">
+      <c r="A35" s="104"/>
+      <c r="B35" s="104"/>
+      <c r="C35" s="104"/>
+      <c r="D35" s="104"/>
+      <c r="E35" s="104"/>
+      <c r="F35" s="104"/>
+      <c r="G35" s="104"/>
+      <c r="H35" s="104"/>
+      <c r="I35" s="84"/>
       <c r="J35" s="25"/>
-      <c r="K35" s="65"/>
+      <c r="K35" s="84"/>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
@@ -5109,18 +5109,18 @@
       <c r="R35" s="4"/>
       <c r="S35" s="4"/>
     </row>
-    <row r="36" spans="1:19" ht="18" thickTop="1" thickBot="1">
-      <c r="A36" s="72"/>
-      <c r="B36" s="72"/>
-      <c r="C36" s="72"/>
-      <c r="D36" s="72"/>
-      <c r="E36" s="72"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="72"/>
-      <c r="H36" s="72"/>
-      <c r="I36" s="65"/>
+    <row r="36" spans="1:19" ht="15.75" thickTop="1" thickBot="1">
+      <c r="A36" s="104"/>
+      <c r="B36" s="104"/>
+      <c r="C36" s="104"/>
+      <c r="D36" s="104"/>
+      <c r="E36" s="104"/>
+      <c r="F36" s="104"/>
+      <c r="G36" s="104"/>
+      <c r="H36" s="104"/>
+      <c r="I36" s="84"/>
       <c r="J36" s="26"/>
-      <c r="K36" s="65"/>
+      <c r="K36" s="84"/>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
@@ -5130,18 +5130,18 @@
       <c r="R36" s="4"/>
       <c r="S36" s="4"/>
     </row>
-    <row r="37" spans="1:19" ht="18" thickTop="1" thickBot="1">
-      <c r="A37" s="72"/>
-      <c r="B37" s="72"/>
-      <c r="C37" s="72"/>
-      <c r="D37" s="72"/>
-      <c r="E37" s="72"/>
-      <c r="F37" s="72"/>
-      <c r="G37" s="72"/>
-      <c r="H37" s="72"/>
-      <c r="I37" s="65"/>
+    <row r="37" spans="1:19" ht="15.75" thickTop="1" thickBot="1">
+      <c r="A37" s="104"/>
+      <c r="B37" s="104"/>
+      <c r="C37" s="104"/>
+      <c r="D37" s="104"/>
+      <c r="E37" s="104"/>
+      <c r="F37" s="104"/>
+      <c r="G37" s="104"/>
+      <c r="H37" s="104"/>
+      <c r="I37" s="84"/>
       <c r="J37" s="27"/>
-      <c r="K37" s="65"/>
+      <c r="K37" s="84"/>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
@@ -5151,18 +5151,18 @@
       <c r="R37" s="4"/>
       <c r="S37" s="4"/>
     </row>
-    <row r="38" spans="1:19" ht="18" thickTop="1" thickBot="1">
-      <c r="A38" s="72"/>
-      <c r="B38" s="72"/>
-      <c r="C38" s="72"/>
-      <c r="D38" s="72"/>
-      <c r="E38" s="72"/>
-      <c r="F38" s="72"/>
-      <c r="G38" s="72"/>
-      <c r="H38" s="72"/>
-      <c r="I38" s="65"/>
+    <row r="38" spans="1:19" ht="15.75" thickTop="1" thickBot="1">
+      <c r="A38" s="104"/>
+      <c r="B38" s="104"/>
+      <c r="C38" s="104"/>
+      <c r="D38" s="104"/>
+      <c r="E38" s="104"/>
+      <c r="F38" s="104"/>
+      <c r="G38" s="104"/>
+      <c r="H38" s="104"/>
+      <c r="I38" s="84"/>
       <c r="J38" s="28"/>
-      <c r="K38" s="65"/>
+      <c r="K38" s="84"/>
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
@@ -5172,21 +5172,21 @@
       <c r="R38" s="4"/>
       <c r="S38" s="4"/>
     </row>
-    <row r="39" spans="1:19" ht="17.25" thickTop="1">
-      <c r="A39" s="72"/>
-      <c r="B39" s="72"/>
-      <c r="C39" s="72"/>
-      <c r="D39" s="72"/>
-      <c r="E39" s="72"/>
-      <c r="F39" s="72"/>
-      <c r="G39" s="72"/>
-      <c r="H39" s="72"/>
-      <c r="I39" s="65"/>
-      <c r="J39" s="71" t="s">
+    <row r="39" spans="1:19" ht="15" thickTop="1">
+      <c r="A39" s="104"/>
+      <c r="B39" s="104"/>
+      <c r="C39" s="104"/>
+      <c r="D39" s="104"/>
+      <c r="E39" s="104"/>
+      <c r="F39" s="104"/>
+      <c r="G39" s="104"/>
+      <c r="H39" s="104"/>
+      <c r="I39" s="84"/>
+      <c r="J39" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="K39" s="71"/>
-      <c r="L39" s="71"/>
+      <c r="K39" s="78"/>
+      <c r="L39" s="78"/>
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
@@ -5196,17 +5196,17 @@
       <c r="S39" s="4"/>
     </row>
     <row r="40" spans="1:19" ht="68.25" customHeight="1">
-      <c r="A40" s="55" t="s">
+      <c r="A40" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="B40" s="55"/>
-      <c r="C40" s="55"/>
-      <c r="D40" s="55"/>
-      <c r="E40" s="55"/>
-      <c r="F40" s="55"/>
-      <c r="G40" s="55"/>
-      <c r="H40" s="55"/>
-      <c r="I40" s="77" t="s">
+      <c r="B40" s="98"/>
+      <c r="C40" s="98"/>
+      <c r="D40" s="98"/>
+      <c r="E40" s="98"/>
+      <c r="F40" s="98"/>
+      <c r="G40" s="98"/>
+      <c r="H40" s="98"/>
+      <c r="I40" s="103" t="s">
         <v>30</v>
       </c>
       <c r="J40" s="4"/>
@@ -5221,15 +5221,15 @@
       <c r="S40" s="4"/>
     </row>
     <row r="41" spans="1:19">
-      <c r="A41" s="55"/>
-      <c r="B41" s="55"/>
-      <c r="C41" s="55"/>
-      <c r="D41" s="55"/>
-      <c r="E41" s="55"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="55"/>
-      <c r="H41" s="55"/>
-      <c r="I41" s="77"/>
+      <c r="A41" s="98"/>
+      <c r="B41" s="98"/>
+      <c r="C41" s="98"/>
+      <c r="D41" s="98"/>
+      <c r="E41" s="98"/>
+      <c r="F41" s="98"/>
+      <c r="G41" s="98"/>
+      <c r="H41" s="98"/>
+      <c r="I41" s="103"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
@@ -5263,27 +5263,27 @@
       <c r="S42" s="80"/>
     </row>
     <row r="43" spans="1:19" ht="20.25" customHeight="1">
-      <c r="A43" s="81" t="s">
+      <c r="A43" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="B43" s="81"/>
-      <c r="C43" s="81"/>
-      <c r="D43" s="81"/>
-      <c r="E43" s="81"/>
-      <c r="F43" s="81"/>
-      <c r="G43" s="81"/>
-      <c r="H43" s="81"/>
-      <c r="I43" s="81"/>
-      <c r="J43" s="81"/>
-      <c r="K43" s="81"/>
-      <c r="L43" s="81"/>
-      <c r="M43" s="81"/>
-      <c r="N43" s="81"/>
-      <c r="O43" s="81"/>
-      <c r="P43" s="81"/>
-      <c r="Q43" s="81"/>
-      <c r="R43" s="81"/>
-      <c r="S43" s="81"/>
+      <c r="B43" s="86"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="86"/>
+      <c r="H43" s="86"/>
+      <c r="I43" s="86"/>
+      <c r="J43" s="86"/>
+      <c r="K43" s="86"/>
+      <c r="L43" s="86"/>
+      <c r="M43" s="86"/>
+      <c r="N43" s="86"/>
+      <c r="O43" s="86"/>
+      <c r="P43" s="86"/>
+      <c r="Q43" s="86"/>
+      <c r="R43" s="86"/>
+      <c r="S43" s="86"/>
     </row>
     <row r="44" spans="1:19">
       <c r="A44" s="80"/>
@@ -5307,90 +5307,90 @@
       <c r="S44" s="80"/>
     </row>
     <row r="45" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A45" s="65" t="s">
+      <c r="A45" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="B45" s="65"/>
-      <c r="C45" s="65"/>
-      <c r="D45" s="65"/>
-      <c r="E45" s="65"/>
-      <c r="F45" s="65"/>
-      <c r="G45" s="65"/>
-      <c r="H45" s="65"/>
-      <c r="I45" s="65"/>
-      <c r="J45" s="65"/>
-      <c r="K45" s="65"/>
-      <c r="L45" s="65"/>
-      <c r="M45" s="65"/>
-      <c r="N45" s="65"/>
-      <c r="O45" s="65"/>
-      <c r="P45" s="65"/>
-      <c r="Q45" s="65"/>
-      <c r="R45" s="65"/>
-      <c r="S45" s="65"/>
+      <c r="B45" s="84"/>
+      <c r="C45" s="84"/>
+      <c r="D45" s="84"/>
+      <c r="E45" s="84"/>
+      <c r="F45" s="84"/>
+      <c r="G45" s="84"/>
+      <c r="H45" s="84"/>
+      <c r="I45" s="84"/>
+      <c r="J45" s="84"/>
+      <c r="K45" s="84"/>
+      <c r="L45" s="84"/>
+      <c r="M45" s="84"/>
+      <c r="N45" s="84"/>
+      <c r="O45" s="84"/>
+      <c r="P45" s="84"/>
+      <c r="Q45" s="84"/>
+      <c r="R45" s="84"/>
+      <c r="S45" s="84"/>
     </row>
     <row r="46" spans="1:19">
-      <c r="A46" s="54" t="s">
+      <c r="A46" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="B46" s="54"/>
-      <c r="C46" s="54"/>
-      <c r="D46" s="54"/>
-      <c r="E46" s="54"/>
-      <c r="F46" s="54"/>
-      <c r="G46" s="54"/>
-      <c r="H46" s="54"/>
-      <c r="I46" s="54"/>
-      <c r="J46" s="54"/>
-      <c r="K46" s="54"/>
-      <c r="L46" s="54"/>
-      <c r="M46" s="54"/>
-      <c r="N46" s="54"/>
-      <c r="O46" s="54"/>
-      <c r="P46" s="54"/>
-      <c r="Q46" s="54"/>
-      <c r="R46" s="54"/>
-      <c r="S46" s="54"/>
-    </row>
-    <row r="47" spans="1:19" ht="17.25" thickBot="1">
-      <c r="A47" s="65"/>
-      <c r="B47" s="65"/>
-      <c r="C47" s="65"/>
-      <c r="D47" s="65"/>
-      <c r="E47" s="65"/>
-      <c r="F47" s="65"/>
-      <c r="G47" s="65"/>
-      <c r="H47" s="65"/>
-      <c r="I47" s="65"/>
-      <c r="J47" s="65"/>
-      <c r="K47" s="65"/>
-      <c r="L47" s="65"/>
-      <c r="M47" s="65"/>
-      <c r="N47" s="65"/>
-      <c r="O47" s="65"/>
-      <c r="P47" s="65"/>
-      <c r="Q47" s="65"/>
-      <c r="R47" s="65"/>
-      <c r="S47" s="65"/>
-    </row>
-    <row r="48" spans="1:19" ht="17.25" thickTop="1">
-      <c r="A48" s="76"/>
-      <c r="B48" s="76"/>
-      <c r="C48" s="76"/>
-      <c r="D48" s="76"/>
-      <c r="E48" s="76"/>
-      <c r="F48" s="76"/>
-      <c r="G48" s="76"/>
-      <c r="H48" s="76"/>
+      <c r="B46" s="85"/>
+      <c r="C46" s="85"/>
+      <c r="D46" s="85"/>
+      <c r="E46" s="85"/>
+      <c r="F46" s="85"/>
+      <c r="G46" s="85"/>
+      <c r="H46" s="85"/>
+      <c r="I46" s="85"/>
+      <c r="J46" s="85"/>
+      <c r="K46" s="85"/>
+      <c r="L46" s="85"/>
+      <c r="M46" s="85"/>
+      <c r="N46" s="85"/>
+      <c r="O46" s="85"/>
+      <c r="P46" s="85"/>
+      <c r="Q46" s="85"/>
+      <c r="R46" s="85"/>
+      <c r="S46" s="85"/>
+    </row>
+    <row r="47" spans="1:19" ht="15" thickBot="1">
+      <c r="A47" s="84"/>
+      <c r="B47" s="84"/>
+      <c r="C47" s="84"/>
+      <c r="D47" s="84"/>
+      <c r="E47" s="84"/>
+      <c r="F47" s="84"/>
+      <c r="G47" s="84"/>
+      <c r="H47" s="84"/>
+      <c r="I47" s="84"/>
+      <c r="J47" s="84"/>
+      <c r="K47" s="84"/>
+      <c r="L47" s="84"/>
+      <c r="M47" s="84"/>
+      <c r="N47" s="84"/>
+      <c r="O47" s="84"/>
+      <c r="P47" s="84"/>
+      <c r="Q47" s="84"/>
+      <c r="R47" s="84"/>
+      <c r="S47" s="84"/>
+    </row>
+    <row r="48" spans="1:19" ht="15" thickTop="1">
+      <c r="A48" s="88"/>
+      <c r="B48" s="88"/>
+      <c r="C48" s="88"/>
+      <c r="D48" s="88"/>
+      <c r="E48" s="88"/>
+      <c r="F48" s="88"/>
+      <c r="G48" s="88"/>
+      <c r="H48" s="88"/>
       <c r="I48" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="J48" s="78" t="s">
+      <c r="J48" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="K48" s="78"/>
-      <c r="L48" s="78"/>
-      <c r="M48" s="78"/>
+      <c r="K48" s="102"/>
+      <c r="L48" s="102"/>
+      <c r="M48" s="102"/>
       <c r="N48" s="29" t="s">
         <v>35</v>
       </c>
@@ -5410,28 +5410,28 @@
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="16.5">
-      <c r="A49" s="76" t="s">
+    <row r="49" spans="1:19">
+      <c r="A49" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="B49" s="76"/>
-      <c r="C49" s="76"/>
-      <c r="D49" s="76"/>
-      <c r="E49" s="76"/>
-      <c r="F49" s="76"/>
-      <c r="G49" s="76"/>
-      <c r="H49" s="76"/>
+      <c r="B49" s="88"/>
+      <c r="C49" s="88"/>
+      <c r="D49" s="88"/>
+      <c r="E49" s="88"/>
+      <c r="F49" s="88"/>
+      <c r="G49" s="88"/>
+      <c r="H49" s="88"/>
       <c r="I49" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="J49" s="73" t="s">
+      <c r="J49" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="K49" s="73"/>
-      <c r="L49" s="73"/>
-      <c r="M49" s="73"/>
-      <c r="N49" s="73"/>
-      <c r="O49" s="73"/>
+      <c r="K49" s="89"/>
+      <c r="L49" s="89"/>
+      <c r="M49" s="89"/>
+      <c r="N49" s="89"/>
+      <c r="O49" s="89"/>
       <c r="P49" s="15" t="s">
         <v>43</v>
       </c>
@@ -5446,25 +5446,25 @@
       </c>
     </row>
     <row r="50" spans="1:19">
-      <c r="A50" s="76"/>
-      <c r="B50" s="76"/>
-      <c r="C50" s="76"/>
-      <c r="D50" s="76"/>
-      <c r="E50" s="76"/>
-      <c r="F50" s="76"/>
-      <c r="G50" s="76"/>
-      <c r="H50" s="76"/>
+      <c r="A50" s="88"/>
+      <c r="B50" s="88"/>
+      <c r="C50" s="88"/>
+      <c r="D50" s="88"/>
+      <c r="E50" s="88"/>
+      <c r="F50" s="88"/>
+      <c r="G50" s="88"/>
+      <c r="H50" s="88"/>
       <c r="I50" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="J50" s="79" t="s">
+      <c r="J50" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="K50" s="79"/>
-      <c r="L50" s="79"/>
-      <c r="M50" s="79"/>
-      <c r="N50" s="71"/>
-      <c r="O50" s="71"/>
+      <c r="K50" s="94"/>
+      <c r="L50" s="94"/>
+      <c r="M50" s="94"/>
+      <c r="N50" s="78"/>
+      <c r="O50" s="78"/>
       <c r="P50" s="30" t="s">
         <v>42</v>
       </c>
@@ -5479,25 +5479,25 @@
       </c>
     </row>
     <row r="51" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A51" s="74" t="s">
+      <c r="A51" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="B51" s="74"/>
-      <c r="C51" s="74"/>
-      <c r="D51" s="74"/>
-      <c r="E51" s="74"/>
-      <c r="F51" s="74"/>
-      <c r="G51" s="74"/>
-      <c r="H51" s="74"/>
+      <c r="B51" s="90"/>
+      <c r="C51" s="90"/>
+      <c r="D51" s="90"/>
+      <c r="E51" s="90"/>
+      <c r="F51" s="90"/>
+      <c r="G51" s="90"/>
+      <c r="H51" s="90"/>
       <c r="I51" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="J51" s="75" t="s">
+      <c r="J51" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="K51" s="75"/>
-      <c r="L51" s="75"/>
-      <c r="M51" s="75"/>
+      <c r="K51" s="91"/>
+      <c r="L51" s="91"/>
+      <c r="M51" s="91"/>
       <c r="N51" s="31" t="s">
         <v>48</v>
       </c>
@@ -5518,25 +5518,25 @@
       </c>
     </row>
     <row r="52" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A52" s="76" t="s">
+      <c r="A52" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="B52" s="76"/>
-      <c r="C52" s="76"/>
-      <c r="D52" s="76"/>
-      <c r="E52" s="76"/>
-      <c r="F52" s="76"/>
-      <c r="G52" s="76"/>
-      <c r="H52" s="76"/>
+      <c r="B52" s="88"/>
+      <c r="C52" s="88"/>
+      <c r="D52" s="88"/>
+      <c r="E52" s="88"/>
+      <c r="F52" s="88"/>
+      <c r="G52" s="88"/>
+      <c r="H52" s="88"/>
       <c r="I52" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="J52" s="71" t="s">
+      <c r="J52" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="K52" s="71"/>
-      <c r="L52" s="71"/>
-      <c r="M52" s="71"/>
+      <c r="K52" s="78"/>
+      <c r="L52" s="78"/>
+      <c r="M52" s="78"/>
       <c r="N52" s="15" t="s">
         <v>54</v>
       </c>
@@ -5557,52 +5557,52 @@
       </c>
     </row>
     <row r="53" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A53" s="83" t="s">
+      <c r="A53" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="B53" s="83"/>
-      <c r="C53" s="83"/>
-      <c r="D53" s="83"/>
-      <c r="E53" s="83"/>
-      <c r="F53" s="83"/>
-      <c r="G53" s="83"/>
-      <c r="H53" s="83"/>
-      <c r="I53" s="83"/>
-      <c r="J53" s="83"/>
-      <c r="K53" s="83"/>
-      <c r="L53" s="83"/>
-      <c r="M53" s="83"/>
-      <c r="N53" s="83"/>
-      <c r="O53" s="83"/>
-      <c r="P53" s="83"/>
-      <c r="Q53" s="83"/>
-      <c r="R53" s="83"/>
-      <c r="S53" s="83"/>
-    </row>
-    <row r="54" spans="1:19" ht="16.5">
-      <c r="A54" s="76" t="s">
+      <c r="B53" s="93"/>
+      <c r="C53" s="93"/>
+      <c r="D53" s="93"/>
+      <c r="E53" s="93"/>
+      <c r="F53" s="93"/>
+      <c r="G53" s="93"/>
+      <c r="H53" s="93"/>
+      <c r="I53" s="93"/>
+      <c r="J53" s="93"/>
+      <c r="K53" s="93"/>
+      <c r="L53" s="93"/>
+      <c r="M53" s="93"/>
+      <c r="N53" s="93"/>
+      <c r="O53" s="93"/>
+      <c r="P53" s="93"/>
+      <c r="Q53" s="93"/>
+      <c r="R53" s="93"/>
+      <c r="S53" s="93"/>
+    </row>
+    <row r="54" spans="1:19">
+      <c r="A54" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="B54" s="76"/>
-      <c r="C54" s="76"/>
-      <c r="D54" s="76"/>
-      <c r="E54" s="76"/>
-      <c r="F54" s="76"/>
-      <c r="G54" s="76"/>
-      <c r="H54" s="76"/>
+      <c r="B54" s="88"/>
+      <c r="C54" s="88"/>
+      <c r="D54" s="88"/>
+      <c r="E54" s="88"/>
+      <c r="F54" s="88"/>
+      <c r="G54" s="88"/>
+      <c r="H54" s="88"/>
       <c r="I54" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="J54" s="71" t="s">
+      <c r="J54" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="K54" s="71"/>
-      <c r="L54" s="71"/>
-      <c r="M54" s="71"/>
-      <c r="N54" s="71" t="s">
+      <c r="K54" s="78"/>
+      <c r="L54" s="78"/>
+      <c r="M54" s="78"/>
+      <c r="N54" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="O54" s="71" t="s">
+      <c r="O54" s="78" t="s">
         <v>63</v>
       </c>
       <c r="P54" s="15" t="s">
@@ -5619,25 +5619,25 @@
       </c>
     </row>
     <row r="55" spans="1:19">
-      <c r="A55" s="76"/>
-      <c r="B55" s="76"/>
-      <c r="C55" s="76"/>
-      <c r="D55" s="76"/>
-      <c r="E55" s="76"/>
-      <c r="F55" s="76"/>
-      <c r="G55" s="76"/>
-      <c r="H55" s="76"/>
+      <c r="A55" s="88"/>
+      <c r="B55" s="88"/>
+      <c r="C55" s="88"/>
+      <c r="D55" s="88"/>
+      <c r="E55" s="88"/>
+      <c r="F55" s="88"/>
+      <c r="G55" s="88"/>
+      <c r="H55" s="88"/>
       <c r="I55" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="J55" s="79" t="s">
+      <c r="J55" s="94" t="s">
         <v>61</v>
       </c>
-      <c r="K55" s="79"/>
-      <c r="L55" s="79"/>
-      <c r="M55" s="79"/>
-      <c r="N55" s="71"/>
-      <c r="O55" s="71"/>
+      <c r="K55" s="94"/>
+      <c r="L55" s="94"/>
+      <c r="M55" s="94"/>
+      <c r="N55" s="78"/>
+      <c r="O55" s="78"/>
       <c r="P55" s="30" t="s">
         <v>61</v>
       </c>
@@ -5652,25 +5652,25 @@
       </c>
     </row>
     <row r="56" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A56" s="74" t="s">
+      <c r="A56" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="B56" s="74"/>
-      <c r="C56" s="74"/>
-      <c r="D56" s="74"/>
-      <c r="E56" s="74"/>
-      <c r="F56" s="74"/>
-      <c r="G56" s="74"/>
-      <c r="H56" s="74"/>
+      <c r="B56" s="90"/>
+      <c r="C56" s="90"/>
+      <c r="D56" s="90"/>
+      <c r="E56" s="90"/>
+      <c r="F56" s="90"/>
+      <c r="G56" s="90"/>
+      <c r="H56" s="90"/>
       <c r="I56" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="J56" s="75" t="s">
+      <c r="J56" s="91" t="s">
         <v>70</v>
       </c>
-      <c r="K56" s="75"/>
-      <c r="L56" s="75"/>
-      <c r="M56" s="75"/>
+      <c r="K56" s="91"/>
+      <c r="L56" s="91"/>
+      <c r="M56" s="91"/>
       <c r="N56" s="31" t="s">
         <v>71</v>
       </c>
@@ -5691,25 +5691,25 @@
       </c>
     </row>
     <row r="57" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A57" s="76" t="s">
+      <c r="A57" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="B57" s="76"/>
-      <c r="C57" s="76"/>
-      <c r="D57" s="76"/>
-      <c r="E57" s="76"/>
-      <c r="F57" s="76"/>
-      <c r="G57" s="76"/>
-      <c r="H57" s="76"/>
+      <c r="B57" s="88"/>
+      <c r="C57" s="88"/>
+      <c r="D57" s="88"/>
+      <c r="E57" s="88"/>
+      <c r="F57" s="88"/>
+      <c r="G57" s="88"/>
+      <c r="H57" s="88"/>
       <c r="I57" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="J57" s="71" t="s">
+      <c r="J57" s="78" t="s">
         <v>77</v>
       </c>
-      <c r="K57" s="71"/>
-      <c r="L57" s="71"/>
-      <c r="M57" s="71"/>
+      <c r="K57" s="78"/>
+      <c r="L57" s="78"/>
+      <c r="M57" s="78"/>
       <c r="N57" s="15" t="s">
         <v>78</v>
       </c>
@@ -5730,25 +5730,25 @@
       </c>
     </row>
     <row r="58" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A58" s="74" t="s">
+      <c r="A58" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="B58" s="74"/>
-      <c r="C58" s="74"/>
-      <c r="D58" s="74"/>
-      <c r="E58" s="74"/>
-      <c r="F58" s="74"/>
-      <c r="G58" s="74"/>
-      <c r="H58" s="74"/>
+      <c r="B58" s="90"/>
+      <c r="C58" s="90"/>
+      <c r="D58" s="90"/>
+      <c r="E58" s="90"/>
+      <c r="F58" s="90"/>
+      <c r="G58" s="90"/>
+      <c r="H58" s="90"/>
       <c r="I58" s="32">
         <v>0</v>
       </c>
-      <c r="J58" s="84">
+      <c r="J58" s="92">
         <v>7.2199999999999999E-3</v>
       </c>
-      <c r="K58" s="84"/>
-      <c r="L58" s="84"/>
-      <c r="M58" s="84"/>
+      <c r="K58" s="92"/>
+      <c r="L58" s="92"/>
+      <c r="M58" s="92"/>
       <c r="N58" s="32">
         <v>0</v>
       </c>
@@ -5769,25 +5769,25 @@
       </c>
     </row>
     <row r="59" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A59" s="76" t="s">
+      <c r="A59" s="88" t="s">
         <v>83</v>
       </c>
-      <c r="B59" s="76"/>
-      <c r="C59" s="76"/>
-      <c r="D59" s="76"/>
-      <c r="E59" s="76"/>
-      <c r="F59" s="76"/>
-      <c r="G59" s="76"/>
-      <c r="H59" s="76"/>
+      <c r="B59" s="88"/>
+      <c r="C59" s="88"/>
+      <c r="D59" s="88"/>
+      <c r="E59" s="88"/>
+      <c r="F59" s="88"/>
+      <c r="G59" s="88"/>
+      <c r="H59" s="88"/>
       <c r="I59" s="34">
         <v>1E-3</v>
       </c>
-      <c r="J59" s="82">
+      <c r="J59" s="100">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="K59" s="82"/>
-      <c r="L59" s="82"/>
-      <c r="M59" s="82"/>
+      <c r="K59" s="100"/>
+      <c r="L59" s="100"/>
+      <c r="M59" s="100"/>
       <c r="N59" s="34">
         <v>0</v>
       </c>
@@ -5808,25 +5808,25 @@
       </c>
     </row>
     <row r="60" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A60" s="74" t="s">
+      <c r="A60" s="90" t="s">
         <v>84</v>
       </c>
-      <c r="B60" s="74"/>
-      <c r="C60" s="74"/>
-      <c r="D60" s="74"/>
-      <c r="E60" s="74"/>
-      <c r="F60" s="74"/>
-      <c r="G60" s="74"/>
-      <c r="H60" s="74"/>
+      <c r="B60" s="90"/>
+      <c r="C60" s="90"/>
+      <c r="D60" s="90"/>
+      <c r="E60" s="90"/>
+      <c r="F60" s="90"/>
+      <c r="G60" s="90"/>
+      <c r="H60" s="90"/>
       <c r="I60" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="J60" s="75" t="s">
+      <c r="J60" s="91" t="s">
         <v>86</v>
       </c>
-      <c r="K60" s="75"/>
-      <c r="L60" s="75"/>
-      <c r="M60" s="75"/>
+      <c r="K60" s="91"/>
+      <c r="L60" s="91"/>
+      <c r="M60" s="91"/>
       <c r="N60" s="31" t="s">
         <v>87</v>
       </c>
@@ -5847,25 +5847,25 @@
       </c>
     </row>
     <row r="61" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A61" s="76" t="s">
+      <c r="A61" s="88" t="s">
         <v>92</v>
       </c>
-      <c r="B61" s="76"/>
-      <c r="C61" s="76"/>
-      <c r="D61" s="76"/>
-      <c r="E61" s="76"/>
-      <c r="F61" s="76"/>
-      <c r="G61" s="76"/>
-      <c r="H61" s="76"/>
+      <c r="B61" s="88"/>
+      <c r="C61" s="88"/>
+      <c r="D61" s="88"/>
+      <c r="E61" s="88"/>
+      <c r="F61" s="88"/>
+      <c r="G61" s="88"/>
+      <c r="H61" s="88"/>
       <c r="I61" s="34">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="J61" s="82">
+      <c r="J61" s="100">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="K61" s="82"/>
-      <c r="L61" s="82"/>
-      <c r="M61" s="82"/>
+      <c r="K61" s="100"/>
+      <c r="L61" s="100"/>
+      <c r="M61" s="100"/>
       <c r="N61" s="34">
         <v>0</v>
       </c>
@@ -5907,27 +5907,27 @@
       <c r="S62" s="80"/>
     </row>
     <row r="63" spans="1:19" ht="20.25" customHeight="1">
-      <c r="A63" s="81" t="s">
+      <c r="A63" s="86" t="s">
         <v>93</v>
       </c>
-      <c r="B63" s="81"/>
-      <c r="C63" s="81"/>
-      <c r="D63" s="81"/>
-      <c r="E63" s="81"/>
-      <c r="F63" s="81"/>
-      <c r="G63" s="81"/>
-      <c r="H63" s="81"/>
-      <c r="I63" s="81"/>
-      <c r="J63" s="81"/>
-      <c r="K63" s="81"/>
-      <c r="L63" s="81"/>
-      <c r="M63" s="81"/>
-      <c r="N63" s="81"/>
-      <c r="O63" s="81"/>
-      <c r="P63" s="81"/>
-      <c r="Q63" s="81"/>
-      <c r="R63" s="81"/>
-      <c r="S63" s="81"/>
+      <c r="B63" s="86"/>
+      <c r="C63" s="86"/>
+      <c r="D63" s="86"/>
+      <c r="E63" s="86"/>
+      <c r="F63" s="86"/>
+      <c r="G63" s="86"/>
+      <c r="H63" s="86"/>
+      <c r="I63" s="86"/>
+      <c r="J63" s="86"/>
+      <c r="K63" s="86"/>
+      <c r="L63" s="86"/>
+      <c r="M63" s="86"/>
+      <c r="N63" s="86"/>
+      <c r="O63" s="86"/>
+      <c r="P63" s="86"/>
+      <c r="Q63" s="86"/>
+      <c r="R63" s="86"/>
+      <c r="S63" s="86"/>
     </row>
     <row r="64" spans="1:19">
       <c r="A64" s="80"/>
@@ -5951,90 +5951,90 @@
       <c r="S64" s="80"/>
     </row>
     <row r="65" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A65" s="65" t="s">
+      <c r="A65" s="84" t="s">
         <v>94</v>
       </c>
-      <c r="B65" s="65"/>
-      <c r="C65" s="65"/>
-      <c r="D65" s="65"/>
-      <c r="E65" s="65"/>
-      <c r="F65" s="65"/>
-      <c r="G65" s="65"/>
-      <c r="H65" s="65"/>
-      <c r="I65" s="65"/>
-      <c r="J65" s="65"/>
-      <c r="K65" s="65"/>
-      <c r="L65" s="65"/>
-      <c r="M65" s="65"/>
-      <c r="N65" s="65"/>
-      <c r="O65" s="65"/>
-      <c r="P65" s="65"/>
-      <c r="Q65" s="65"/>
-      <c r="R65" s="65"/>
-      <c r="S65" s="65"/>
+      <c r="B65" s="84"/>
+      <c r="C65" s="84"/>
+      <c r="D65" s="84"/>
+      <c r="E65" s="84"/>
+      <c r="F65" s="84"/>
+      <c r="G65" s="84"/>
+      <c r="H65" s="84"/>
+      <c r="I65" s="84"/>
+      <c r="J65" s="84"/>
+      <c r="K65" s="84"/>
+      <c r="L65" s="84"/>
+      <c r="M65" s="84"/>
+      <c r="N65" s="84"/>
+      <c r="O65" s="84"/>
+      <c r="P65" s="84"/>
+      <c r="Q65" s="84"/>
+      <c r="R65" s="84"/>
+      <c r="S65" s="84"/>
     </row>
     <row r="66" spans="1:19">
-      <c r="A66" s="54" t="s">
+      <c r="A66" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="B66" s="54"/>
-      <c r="C66" s="54"/>
-      <c r="D66" s="54"/>
-      <c r="E66" s="54"/>
-      <c r="F66" s="54"/>
-      <c r="G66" s="54"/>
-      <c r="H66" s="54"/>
-      <c r="I66" s="54"/>
-      <c r="J66" s="54"/>
-      <c r="K66" s="54"/>
-      <c r="L66" s="54"/>
-      <c r="M66" s="54"/>
-      <c r="N66" s="54"/>
-      <c r="O66" s="54"/>
-      <c r="P66" s="54"/>
-      <c r="Q66" s="54"/>
-      <c r="R66" s="54"/>
-      <c r="S66" s="54"/>
-    </row>
-    <row r="67" spans="1:19" ht="17.25" thickBot="1">
-      <c r="A67" s="65"/>
-      <c r="B67" s="65"/>
-      <c r="C67" s="65"/>
-      <c r="D67" s="65"/>
-      <c r="E67" s="65"/>
-      <c r="F67" s="65"/>
-      <c r="G67" s="65"/>
-      <c r="H67" s="65"/>
-      <c r="I67" s="65"/>
-      <c r="J67" s="65"/>
-      <c r="K67" s="65"/>
-      <c r="L67" s="65"/>
-      <c r="M67" s="65"/>
-      <c r="N67" s="65"/>
-      <c r="O67" s="65"/>
-      <c r="P67" s="65"/>
-      <c r="Q67" s="65"/>
-      <c r="R67" s="65"/>
-      <c r="S67" s="65"/>
-    </row>
-    <row r="68" spans="1:19" ht="17.25" thickTop="1">
-      <c r="A68" s="76"/>
-      <c r="B68" s="76"/>
-      <c r="C68" s="76"/>
-      <c r="D68" s="76"/>
-      <c r="E68" s="76"/>
-      <c r="F68" s="76"/>
-      <c r="G68" s="76"/>
-      <c r="H68" s="76"/>
+      <c r="B66" s="85"/>
+      <c r="C66" s="85"/>
+      <c r="D66" s="85"/>
+      <c r="E66" s="85"/>
+      <c r="F66" s="85"/>
+      <c r="G66" s="85"/>
+      <c r="H66" s="85"/>
+      <c r="I66" s="85"/>
+      <c r="J66" s="85"/>
+      <c r="K66" s="85"/>
+      <c r="L66" s="85"/>
+      <c r="M66" s="85"/>
+      <c r="N66" s="85"/>
+      <c r="O66" s="85"/>
+      <c r="P66" s="85"/>
+      <c r="Q66" s="85"/>
+      <c r="R66" s="85"/>
+      <c r="S66" s="85"/>
+    </row>
+    <row r="67" spans="1:19" ht="15" thickBot="1">
+      <c r="A67" s="84"/>
+      <c r="B67" s="84"/>
+      <c r="C67" s="84"/>
+      <c r="D67" s="84"/>
+      <c r="E67" s="84"/>
+      <c r="F67" s="84"/>
+      <c r="G67" s="84"/>
+      <c r="H67" s="84"/>
+      <c r="I67" s="84"/>
+      <c r="J67" s="84"/>
+      <c r="K67" s="84"/>
+      <c r="L67" s="84"/>
+      <c r="M67" s="84"/>
+      <c r="N67" s="84"/>
+      <c r="O67" s="84"/>
+      <c r="P67" s="84"/>
+      <c r="Q67" s="84"/>
+      <c r="R67" s="84"/>
+      <c r="S67" s="84"/>
+    </row>
+    <row r="68" spans="1:19" ht="15" thickTop="1">
+      <c r="A68" s="88"/>
+      <c r="B68" s="88"/>
+      <c r="C68" s="88"/>
+      <c r="D68" s="88"/>
+      <c r="E68" s="88"/>
+      <c r="F68" s="88"/>
+      <c r="G68" s="88"/>
+      <c r="H68" s="88"/>
       <c r="I68" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="J68" s="78" t="s">
+      <c r="J68" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="K68" s="78"/>
-      <c r="L68" s="78"/>
-      <c r="M68" s="78"/>
+      <c r="K68" s="102"/>
+      <c r="L68" s="102"/>
+      <c r="M68" s="102"/>
       <c r="N68" s="29" t="s">
         <v>35</v>
       </c>
@@ -6054,28 +6054,28 @@
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="16.5">
-      <c r="A69" s="76" t="s">
+    <row r="69" spans="1:19">
+      <c r="A69" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="B69" s="76"/>
-      <c r="C69" s="76"/>
-      <c r="D69" s="76"/>
-      <c r="E69" s="76"/>
-      <c r="F69" s="76"/>
-      <c r="G69" s="76"/>
-      <c r="H69" s="76"/>
+      <c r="B69" s="88"/>
+      <c r="C69" s="88"/>
+      <c r="D69" s="88"/>
+      <c r="E69" s="88"/>
+      <c r="F69" s="88"/>
+      <c r="G69" s="88"/>
+      <c r="H69" s="88"/>
       <c r="I69" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="J69" s="73" t="s">
+      <c r="J69" s="89" t="s">
         <v>96</v>
       </c>
-      <c r="K69" s="73"/>
-      <c r="L69" s="73"/>
-      <c r="M69" s="73"/>
-      <c r="N69" s="73"/>
-      <c r="O69" s="73"/>
+      <c r="K69" s="89"/>
+      <c r="L69" s="89"/>
+      <c r="M69" s="89"/>
+      <c r="N69" s="89"/>
+      <c r="O69" s="89"/>
       <c r="P69" s="15" t="s">
         <v>96</v>
       </c>
@@ -6090,25 +6090,25 @@
       </c>
     </row>
     <row r="70" spans="1:19">
-      <c r="A70" s="76"/>
-      <c r="B70" s="76"/>
-      <c r="C70" s="76"/>
-      <c r="D70" s="76"/>
-      <c r="E70" s="76"/>
-      <c r="F70" s="76"/>
-      <c r="G70" s="76"/>
-      <c r="H70" s="76"/>
+      <c r="A70" s="88"/>
+      <c r="B70" s="88"/>
+      <c r="C70" s="88"/>
+      <c r="D70" s="88"/>
+      <c r="E70" s="88"/>
+      <c r="F70" s="88"/>
+      <c r="G70" s="88"/>
+      <c r="H70" s="88"/>
       <c r="I70" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="J70" s="79" t="s">
+      <c r="J70" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="K70" s="79"/>
-      <c r="L70" s="79"/>
-      <c r="M70" s="79"/>
-      <c r="N70" s="71"/>
-      <c r="O70" s="71"/>
+      <c r="K70" s="94"/>
+      <c r="L70" s="94"/>
+      <c r="M70" s="94"/>
+      <c r="N70" s="78"/>
+      <c r="O70" s="78"/>
       <c r="P70" s="30" t="s">
         <v>42</v>
       </c>
@@ -6123,25 +6123,25 @@
       </c>
     </row>
     <row r="71" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A71" s="74" t="s">
+      <c r="A71" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="B71" s="74"/>
-      <c r="C71" s="74"/>
-      <c r="D71" s="74"/>
-      <c r="E71" s="74"/>
-      <c r="F71" s="74"/>
-      <c r="G71" s="74"/>
-      <c r="H71" s="74"/>
+      <c r="B71" s="90"/>
+      <c r="C71" s="90"/>
+      <c r="D71" s="90"/>
+      <c r="E71" s="90"/>
+      <c r="F71" s="90"/>
+      <c r="G71" s="90"/>
+      <c r="H71" s="90"/>
       <c r="I71" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="J71" s="75" t="s">
+      <c r="J71" s="91" t="s">
         <v>99</v>
       </c>
-      <c r="K71" s="75"/>
-      <c r="L71" s="75"/>
-      <c r="M71" s="75"/>
+      <c r="K71" s="91"/>
+      <c r="L71" s="91"/>
+      <c r="M71" s="91"/>
       <c r="N71" s="31" t="s">
         <v>48</v>
       </c>
@@ -6162,25 +6162,25 @@
       </c>
     </row>
     <row r="72" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A72" s="76" t="s">
+      <c r="A72" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="B72" s="76"/>
-      <c r="C72" s="76"/>
-      <c r="D72" s="76"/>
-      <c r="E72" s="76"/>
-      <c r="F72" s="76"/>
-      <c r="G72" s="76"/>
-      <c r="H72" s="76"/>
+      <c r="B72" s="88"/>
+      <c r="C72" s="88"/>
+      <c r="D72" s="88"/>
+      <c r="E72" s="88"/>
+      <c r="F72" s="88"/>
+      <c r="G72" s="88"/>
+      <c r="H72" s="88"/>
       <c r="I72" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="J72" s="71" t="s">
+      <c r="J72" s="78" t="s">
         <v>104</v>
       </c>
-      <c r="K72" s="71"/>
-      <c r="L72" s="71"/>
-      <c r="M72" s="71"/>
+      <c r="K72" s="78"/>
+      <c r="L72" s="78"/>
+      <c r="M72" s="78"/>
       <c r="N72" s="15" t="s">
         <v>54</v>
       </c>
@@ -6201,52 +6201,52 @@
       </c>
     </row>
     <row r="73" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A73" s="83" t="s">
+      <c r="A73" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="B73" s="83"/>
-      <c r="C73" s="83"/>
-      <c r="D73" s="83"/>
-      <c r="E73" s="83"/>
-      <c r="F73" s="83"/>
-      <c r="G73" s="83"/>
-      <c r="H73" s="83"/>
-      <c r="I73" s="83"/>
-      <c r="J73" s="83"/>
-      <c r="K73" s="83"/>
-      <c r="L73" s="83"/>
-      <c r="M73" s="83"/>
-      <c r="N73" s="83"/>
-      <c r="O73" s="83"/>
-      <c r="P73" s="83"/>
-      <c r="Q73" s="83"/>
-      <c r="R73" s="83"/>
-      <c r="S73" s="83"/>
-    </row>
-    <row r="74" spans="1:19" ht="16.5">
-      <c r="A74" s="76" t="s">
+      <c r="B73" s="93"/>
+      <c r="C73" s="93"/>
+      <c r="D73" s="93"/>
+      <c r="E73" s="93"/>
+      <c r="F73" s="93"/>
+      <c r="G73" s="93"/>
+      <c r="H73" s="93"/>
+      <c r="I73" s="93"/>
+      <c r="J73" s="93"/>
+      <c r="K73" s="93"/>
+      <c r="L73" s="93"/>
+      <c r="M73" s="93"/>
+      <c r="N73" s="93"/>
+      <c r="O73" s="93"/>
+      <c r="P73" s="93"/>
+      <c r="Q73" s="93"/>
+      <c r="R73" s="93"/>
+      <c r="S73" s="93"/>
+    </row>
+    <row r="74" spans="1:19">
+      <c r="A74" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="B74" s="76"/>
-      <c r="C74" s="76"/>
-      <c r="D74" s="76"/>
-      <c r="E74" s="76"/>
-      <c r="F74" s="76"/>
-      <c r="G74" s="76"/>
-      <c r="H74" s="76"/>
+      <c r="B74" s="88"/>
+      <c r="C74" s="88"/>
+      <c r="D74" s="88"/>
+      <c r="E74" s="88"/>
+      <c r="F74" s="88"/>
+      <c r="G74" s="88"/>
+      <c r="H74" s="88"/>
       <c r="I74" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="J74" s="71" t="s">
+      <c r="J74" s="78" t="s">
         <v>110</v>
       </c>
-      <c r="K74" s="71"/>
-      <c r="L74" s="71"/>
-      <c r="M74" s="71"/>
-      <c r="N74" s="71" t="s">
+      <c r="K74" s="78"/>
+      <c r="L74" s="78"/>
+      <c r="M74" s="78"/>
+      <c r="N74" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="O74" s="71" t="s">
+      <c r="O74" s="78" t="s">
         <v>63</v>
       </c>
       <c r="P74" s="15" t="s">
@@ -6263,25 +6263,25 @@
       </c>
     </row>
     <row r="75" spans="1:19">
-      <c r="A75" s="76"/>
-      <c r="B75" s="76"/>
-      <c r="C75" s="76"/>
-      <c r="D75" s="76"/>
-      <c r="E75" s="76"/>
-      <c r="F75" s="76"/>
-      <c r="G75" s="76"/>
-      <c r="H75" s="76"/>
+      <c r="A75" s="88"/>
+      <c r="B75" s="88"/>
+      <c r="C75" s="88"/>
+      <c r="D75" s="88"/>
+      <c r="E75" s="88"/>
+      <c r="F75" s="88"/>
+      <c r="G75" s="88"/>
+      <c r="H75" s="88"/>
       <c r="I75" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="J75" s="79" t="s">
+      <c r="J75" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="K75" s="79"/>
-      <c r="L75" s="79"/>
-      <c r="M75" s="79"/>
-      <c r="N75" s="71"/>
-      <c r="O75" s="71"/>
+      <c r="K75" s="94"/>
+      <c r="L75" s="94"/>
+      <c r="M75" s="94"/>
+      <c r="N75" s="78"/>
+      <c r="O75" s="78"/>
       <c r="P75" s="30" t="s">
         <v>42</v>
       </c>
@@ -6296,25 +6296,25 @@
       </c>
     </row>
     <row r="76" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A76" s="74" t="s">
+      <c r="A76" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="B76" s="74"/>
-      <c r="C76" s="74"/>
-      <c r="D76" s="74"/>
-      <c r="E76" s="74"/>
-      <c r="F76" s="74"/>
-      <c r="G76" s="74"/>
-      <c r="H76" s="74"/>
+      <c r="B76" s="90"/>
+      <c r="C76" s="90"/>
+      <c r="D76" s="90"/>
+      <c r="E76" s="90"/>
+      <c r="F76" s="90"/>
+      <c r="G76" s="90"/>
+      <c r="H76" s="90"/>
       <c r="I76" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="J76" s="75" t="s">
+      <c r="J76" s="91" t="s">
         <v>113</v>
       </c>
-      <c r="K76" s="75"/>
-      <c r="L76" s="75"/>
-      <c r="M76" s="75"/>
+      <c r="K76" s="91"/>
+      <c r="L76" s="91"/>
+      <c r="M76" s="91"/>
       <c r="N76" s="31" t="s">
         <v>71</v>
       </c>
@@ -6335,25 +6335,25 @@
       </c>
     </row>
     <row r="77" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A77" s="76" t="s">
+      <c r="A77" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="B77" s="76"/>
-      <c r="C77" s="76"/>
-      <c r="D77" s="76"/>
-      <c r="E77" s="76"/>
-      <c r="F77" s="76"/>
-      <c r="G77" s="76"/>
-      <c r="H77" s="76"/>
+      <c r="B77" s="88"/>
+      <c r="C77" s="88"/>
+      <c r="D77" s="88"/>
+      <c r="E77" s="88"/>
+      <c r="F77" s="88"/>
+      <c r="G77" s="88"/>
+      <c r="H77" s="88"/>
       <c r="I77" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="J77" s="71" t="s">
+      <c r="J77" s="78" t="s">
         <v>119</v>
       </c>
-      <c r="K77" s="71"/>
-      <c r="L77" s="71"/>
-      <c r="M77" s="71"/>
+      <c r="K77" s="78"/>
+      <c r="L77" s="78"/>
+      <c r="M77" s="78"/>
       <c r="N77" s="15" t="s">
         <v>78</v>
       </c>
@@ -6374,25 +6374,25 @@
       </c>
     </row>
     <row r="78" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A78" s="74" t="s">
+      <c r="A78" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="B78" s="74"/>
-      <c r="C78" s="74"/>
-      <c r="D78" s="74"/>
-      <c r="E78" s="74"/>
-      <c r="F78" s="74"/>
-      <c r="G78" s="74"/>
-      <c r="H78" s="74"/>
+      <c r="B78" s="90"/>
+      <c r="C78" s="90"/>
+      <c r="D78" s="90"/>
+      <c r="E78" s="90"/>
+      <c r="F78" s="90"/>
+      <c r="G78" s="90"/>
+      <c r="H78" s="90"/>
       <c r="I78" s="32">
         <v>0</v>
       </c>
-      <c r="J78" s="84">
+      <c r="J78" s="92">
         <v>3.8300000000000001E-3</v>
       </c>
-      <c r="K78" s="84"/>
-      <c r="L78" s="84"/>
-      <c r="M78" s="84"/>
+      <c r="K78" s="92"/>
+      <c r="L78" s="92"/>
+      <c r="M78" s="92"/>
       <c r="N78" s="32">
         <v>0</v>
       </c>
@@ -6413,25 +6413,25 @@
       </c>
     </row>
     <row r="79" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A79" s="76" t="s">
+      <c r="A79" s="88" t="s">
         <v>83</v>
       </c>
-      <c r="B79" s="76"/>
-      <c r="C79" s="76"/>
-      <c r="D79" s="76"/>
-      <c r="E79" s="76"/>
-      <c r="F79" s="76"/>
-      <c r="G79" s="76"/>
-      <c r="H79" s="76"/>
+      <c r="B79" s="88"/>
+      <c r="C79" s="88"/>
+      <c r="D79" s="88"/>
+      <c r="E79" s="88"/>
+      <c r="F79" s="88"/>
+      <c r="G79" s="88"/>
+      <c r="H79" s="88"/>
       <c r="I79" s="34">
         <v>1E-3</v>
       </c>
-      <c r="J79" s="82">
+      <c r="J79" s="100">
         <v>1E-3</v>
       </c>
-      <c r="K79" s="82"/>
-      <c r="L79" s="82"/>
-      <c r="M79" s="82"/>
+      <c r="K79" s="100"/>
+      <c r="L79" s="100"/>
+      <c r="M79" s="100"/>
       <c r="N79" s="34">
         <v>0</v>
       </c>
@@ -6452,25 +6452,25 @@
       </c>
     </row>
     <row r="80" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A80" s="74" t="s">
+      <c r="A80" s="90" t="s">
         <v>84</v>
       </c>
-      <c r="B80" s="74"/>
-      <c r="C80" s="74"/>
-      <c r="D80" s="74"/>
-      <c r="E80" s="74"/>
-      <c r="F80" s="74"/>
-      <c r="G80" s="74"/>
-      <c r="H80" s="74"/>
+      <c r="B80" s="90"/>
+      <c r="C80" s="90"/>
+      <c r="D80" s="90"/>
+      <c r="E80" s="90"/>
+      <c r="F80" s="90"/>
+      <c r="G80" s="90"/>
+      <c r="H80" s="90"/>
       <c r="I80" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="J80" s="75" t="s">
+      <c r="J80" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="K80" s="75"/>
-      <c r="L80" s="75"/>
-      <c r="M80" s="75"/>
+      <c r="K80" s="91"/>
+      <c r="L80" s="91"/>
+      <c r="M80" s="91"/>
       <c r="N80" s="31" t="s">
         <v>87</v>
       </c>
@@ -6491,25 +6491,25 @@
       </c>
     </row>
     <row r="81" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A81" s="76" t="s">
+      <c r="A81" s="88" t="s">
         <v>92</v>
       </c>
-      <c r="B81" s="76"/>
-      <c r="C81" s="76"/>
-      <c r="D81" s="76"/>
-      <c r="E81" s="76"/>
-      <c r="F81" s="76"/>
-      <c r="G81" s="76"/>
-      <c r="H81" s="76"/>
+      <c r="B81" s="88"/>
+      <c r="C81" s="88"/>
+      <c r="D81" s="88"/>
+      <c r="E81" s="88"/>
+      <c r="F81" s="88"/>
+      <c r="G81" s="88"/>
+      <c r="H81" s="88"/>
       <c r="I81" s="34">
         <v>0.25800000000000001</v>
       </c>
-      <c r="J81" s="82">
+      <c r="J81" s="100">
         <v>0.42899999999999999</v>
       </c>
-      <c r="K81" s="82"/>
-      <c r="L81" s="82"/>
-      <c r="M81" s="82"/>
+      <c r="K81" s="100"/>
+      <c r="L81" s="100"/>
+      <c r="M81" s="100"/>
       <c r="N81" s="34">
         <v>0</v>
       </c>
@@ -6551,27 +6551,27 @@
       <c r="S82" s="80"/>
     </row>
     <row r="83" spans="1:19" ht="20.25" customHeight="1">
-      <c r="A83" s="81" t="s">
+      <c r="A83" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="B83" s="81"/>
-      <c r="C83" s="81"/>
-      <c r="D83" s="81"/>
-      <c r="E83" s="81"/>
-      <c r="F83" s="81"/>
-      <c r="G83" s="81"/>
-      <c r="H83" s="81"/>
-      <c r="I83" s="81"/>
-      <c r="J83" s="81"/>
-      <c r="K83" s="81"/>
-      <c r="L83" s="81"/>
-      <c r="M83" s="81"/>
-      <c r="N83" s="81"/>
-      <c r="O83" s="81"/>
-      <c r="P83" s="81"/>
-      <c r="Q83" s="81"/>
-      <c r="R83" s="81"/>
-      <c r="S83" s="81"/>
+      <c r="B83" s="86"/>
+      <c r="C83" s="86"/>
+      <c r="D83" s="86"/>
+      <c r="E83" s="86"/>
+      <c r="F83" s="86"/>
+      <c r="G83" s="86"/>
+      <c r="H83" s="86"/>
+      <c r="I83" s="86"/>
+      <c r="J83" s="86"/>
+      <c r="K83" s="86"/>
+      <c r="L83" s="86"/>
+      <c r="M83" s="86"/>
+      <c r="N83" s="86"/>
+      <c r="O83" s="86"/>
+      <c r="P83" s="86"/>
+      <c r="Q83" s="86"/>
+      <c r="R83" s="86"/>
+      <c r="S83" s="86"/>
     </row>
     <row r="84" spans="1:19">
       <c r="A84" s="80"/>
@@ -6595,90 +6595,90 @@
       <c r="S84" s="80"/>
     </row>
     <row r="85" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A85" s="65" t="s">
+      <c r="A85" s="84" t="s">
         <v>128</v>
       </c>
-      <c r="B85" s="65"/>
-      <c r="C85" s="65"/>
-      <c r="D85" s="65"/>
-      <c r="E85" s="65"/>
-      <c r="F85" s="65"/>
-      <c r="G85" s="65"/>
-      <c r="H85" s="65"/>
-      <c r="I85" s="65"/>
-      <c r="J85" s="65"/>
-      <c r="K85" s="65"/>
-      <c r="L85" s="65"/>
-      <c r="M85" s="65"/>
-      <c r="N85" s="65"/>
-      <c r="O85" s="65"/>
-      <c r="P85" s="65"/>
-      <c r="Q85" s="65"/>
-      <c r="R85" s="65"/>
-      <c r="S85" s="65"/>
+      <c r="B85" s="84"/>
+      <c r="C85" s="84"/>
+      <c r="D85" s="84"/>
+      <c r="E85" s="84"/>
+      <c r="F85" s="84"/>
+      <c r="G85" s="84"/>
+      <c r="H85" s="84"/>
+      <c r="I85" s="84"/>
+      <c r="J85" s="84"/>
+      <c r="K85" s="84"/>
+      <c r="L85" s="84"/>
+      <c r="M85" s="84"/>
+      <c r="N85" s="84"/>
+      <c r="O85" s="84"/>
+      <c r="P85" s="84"/>
+      <c r="Q85" s="84"/>
+      <c r="R85" s="84"/>
+      <c r="S85" s="84"/>
     </row>
     <row r="86" spans="1:19">
-      <c r="A86" s="54" t="s">
+      <c r="A86" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="B86" s="54"/>
-      <c r="C86" s="54"/>
-      <c r="D86" s="54"/>
-      <c r="E86" s="54"/>
-      <c r="F86" s="54"/>
-      <c r="G86" s="54"/>
-      <c r="H86" s="54"/>
-      <c r="I86" s="54"/>
-      <c r="J86" s="54"/>
-      <c r="K86" s="54"/>
-      <c r="L86" s="54"/>
-      <c r="M86" s="54"/>
-      <c r="N86" s="54"/>
-      <c r="O86" s="54"/>
-      <c r="P86" s="54"/>
-      <c r="Q86" s="54"/>
-      <c r="R86" s="54"/>
-      <c r="S86" s="54"/>
-    </row>
-    <row r="87" spans="1:19" ht="17.25" thickBot="1">
-      <c r="A87" s="65"/>
-      <c r="B87" s="65"/>
-      <c r="C87" s="65"/>
-      <c r="D87" s="65"/>
-      <c r="E87" s="65"/>
-      <c r="F87" s="65"/>
-      <c r="G87" s="65"/>
-      <c r="H87" s="65"/>
-      <c r="I87" s="65"/>
-      <c r="J87" s="65"/>
-      <c r="K87" s="65"/>
-      <c r="L87" s="65"/>
-      <c r="M87" s="65"/>
-      <c r="N87" s="65"/>
-      <c r="O87" s="65"/>
-      <c r="P87" s="65"/>
-      <c r="Q87" s="65"/>
-      <c r="R87" s="65"/>
-      <c r="S87" s="65"/>
-    </row>
-    <row r="88" spans="1:19" ht="17.25" thickTop="1">
-      <c r="A88" s="76"/>
-      <c r="B88" s="76"/>
-      <c r="C88" s="76"/>
-      <c r="D88" s="76"/>
-      <c r="E88" s="76"/>
-      <c r="F88" s="76"/>
-      <c r="G88" s="76"/>
-      <c r="H88" s="76"/>
+      <c r="B86" s="85"/>
+      <c r="C86" s="85"/>
+      <c r="D86" s="85"/>
+      <c r="E86" s="85"/>
+      <c r="F86" s="85"/>
+      <c r="G86" s="85"/>
+      <c r="H86" s="85"/>
+      <c r="I86" s="85"/>
+      <c r="J86" s="85"/>
+      <c r="K86" s="85"/>
+      <c r="L86" s="85"/>
+      <c r="M86" s="85"/>
+      <c r="N86" s="85"/>
+      <c r="O86" s="85"/>
+      <c r="P86" s="85"/>
+      <c r="Q86" s="85"/>
+      <c r="R86" s="85"/>
+      <c r="S86" s="85"/>
+    </row>
+    <row r="87" spans="1:19" ht="15" thickBot="1">
+      <c r="A87" s="84"/>
+      <c r="B87" s="84"/>
+      <c r="C87" s="84"/>
+      <c r="D87" s="84"/>
+      <c r="E87" s="84"/>
+      <c r="F87" s="84"/>
+      <c r="G87" s="84"/>
+      <c r="H87" s="84"/>
+      <c r="I87" s="84"/>
+      <c r="J87" s="84"/>
+      <c r="K87" s="84"/>
+      <c r="L87" s="84"/>
+      <c r="M87" s="84"/>
+      <c r="N87" s="84"/>
+      <c r="O87" s="84"/>
+      <c r="P87" s="84"/>
+      <c r="Q87" s="84"/>
+      <c r="R87" s="84"/>
+      <c r="S87" s="84"/>
+    </row>
+    <row r="88" spans="1:19" ht="15" thickTop="1">
+      <c r="A88" s="88"/>
+      <c r="B88" s="88"/>
+      <c r="C88" s="88"/>
+      <c r="D88" s="88"/>
+      <c r="E88" s="88"/>
+      <c r="F88" s="88"/>
+      <c r="G88" s="88"/>
+      <c r="H88" s="88"/>
       <c r="I88" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="J88" s="78" t="s">
+      <c r="J88" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="K88" s="78"/>
-      <c r="L88" s="78"/>
-      <c r="M88" s="78"/>
+      <c r="K88" s="102"/>
+      <c r="L88" s="102"/>
+      <c r="M88" s="102"/>
       <c r="N88" s="29" t="s">
         <v>35</v>
       </c>
@@ -6698,36 +6698,36 @@
         <v>40</v>
       </c>
     </row>
-    <row r="89" spans="1:19" ht="16.5">
-      <c r="A89" s="76" t="s">
+    <row r="89" spans="1:19">
+      <c r="A89" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="B89" s="76"/>
-      <c r="C89" s="76"/>
-      <c r="D89" s="76"/>
-      <c r="E89" s="76"/>
-      <c r="F89" s="76"/>
-      <c r="G89" s="76"/>
-      <c r="H89" s="76"/>
-      <c r="I89" s="73" t="s">
+      <c r="B89" s="88"/>
+      <c r="C89" s="88"/>
+      <c r="D89" s="88"/>
+      <c r="E89" s="88"/>
+      <c r="F89" s="88"/>
+      <c r="G89" s="88"/>
+      <c r="H89" s="88"/>
+      <c r="I89" s="89" t="s">
         <v>63</v>
       </c>
-      <c r="J89" s="73" t="s">
+      <c r="J89" s="89" t="s">
         <v>63</v>
       </c>
-      <c r="K89" s="73"/>
-      <c r="L89" s="73"/>
-      <c r="M89" s="73"/>
-      <c r="N89" s="73" t="s">
+      <c r="K89" s="89"/>
+      <c r="L89" s="89"/>
+      <c r="M89" s="89"/>
+      <c r="N89" s="89" t="s">
         <v>63</v>
       </c>
-      <c r="O89" s="73" t="s">
+      <c r="O89" s="89" t="s">
         <v>63</v>
       </c>
-      <c r="P89" s="73" t="s">
+      <c r="P89" s="89" t="s">
         <v>63</v>
       </c>
-      <c r="Q89" s="73" t="s">
+      <c r="Q89" s="89" t="s">
         <v>63</v>
       </c>
       <c r="R89" s="15" t="s">
@@ -6738,23 +6738,23 @@
       </c>
     </row>
     <row r="90" spans="1:19">
-      <c r="A90" s="76"/>
-      <c r="B90" s="76"/>
-      <c r="C90" s="76"/>
-      <c r="D90" s="76"/>
-      <c r="E90" s="76"/>
-      <c r="F90" s="76"/>
-      <c r="G90" s="76"/>
-      <c r="H90" s="76"/>
-      <c r="I90" s="71"/>
-      <c r="J90" s="71"/>
-      <c r="K90" s="71"/>
-      <c r="L90" s="71"/>
-      <c r="M90" s="71"/>
-      <c r="N90" s="71"/>
-      <c r="O90" s="71"/>
-      <c r="P90" s="71"/>
-      <c r="Q90" s="71"/>
+      <c r="A90" s="88"/>
+      <c r="B90" s="88"/>
+      <c r="C90" s="88"/>
+      <c r="D90" s="88"/>
+      <c r="E90" s="88"/>
+      <c r="F90" s="88"/>
+      <c r="G90" s="88"/>
+      <c r="H90" s="88"/>
+      <c r="I90" s="78"/>
+      <c r="J90" s="78"/>
+      <c r="K90" s="78"/>
+      <c r="L90" s="78"/>
+      <c r="M90" s="78"/>
+      <c r="N90" s="78"/>
+      <c r="O90" s="78"/>
+      <c r="P90" s="78"/>
+      <c r="Q90" s="78"/>
       <c r="R90" s="30" t="s">
         <v>130</v>
       </c>
@@ -6763,25 +6763,25 @@
       </c>
     </row>
     <row r="91" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A91" s="74" t="s">
+      <c r="A91" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="B91" s="74"/>
-      <c r="C91" s="74"/>
-      <c r="D91" s="74"/>
-      <c r="E91" s="74"/>
-      <c r="F91" s="74"/>
-      <c r="G91" s="74"/>
-      <c r="H91" s="74"/>
+      <c r="B91" s="90"/>
+      <c r="C91" s="90"/>
+      <c r="D91" s="90"/>
+      <c r="E91" s="90"/>
+      <c r="F91" s="90"/>
+      <c r="G91" s="90"/>
+      <c r="H91" s="90"/>
       <c r="I91" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="J91" s="75" t="s">
+      <c r="J91" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="K91" s="75"/>
-      <c r="L91" s="75"/>
-      <c r="M91" s="75"/>
+      <c r="K91" s="91"/>
+      <c r="L91" s="91"/>
+      <c r="M91" s="91"/>
       <c r="N91" s="31" t="s">
         <v>71</v>
       </c>
@@ -6802,25 +6802,25 @@
       </c>
     </row>
     <row r="92" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A92" s="76" t="s">
+      <c r="A92" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="B92" s="76"/>
-      <c r="C92" s="76"/>
-      <c r="D92" s="76"/>
-      <c r="E92" s="76"/>
-      <c r="F92" s="76"/>
-      <c r="G92" s="76"/>
-      <c r="H92" s="76"/>
+      <c r="B92" s="88"/>
+      <c r="C92" s="88"/>
+      <c r="D92" s="88"/>
+      <c r="E92" s="88"/>
+      <c r="F92" s="88"/>
+      <c r="G92" s="88"/>
+      <c r="H92" s="88"/>
       <c r="I92" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="J92" s="71" t="s">
+      <c r="J92" s="78" t="s">
         <v>78</v>
       </c>
-      <c r="K92" s="71"/>
-      <c r="L92" s="71"/>
-      <c r="M92" s="71"/>
+      <c r="K92" s="78"/>
+      <c r="L92" s="78"/>
+      <c r="M92" s="78"/>
       <c r="N92" s="15" t="s">
         <v>78</v>
       </c>
@@ -6841,25 +6841,25 @@
       </c>
     </row>
     <row r="93" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A93" s="74" t="s">
+      <c r="A93" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="B93" s="74"/>
-      <c r="C93" s="74"/>
-      <c r="D93" s="74"/>
-      <c r="E93" s="74"/>
-      <c r="F93" s="74"/>
-      <c r="G93" s="74"/>
-      <c r="H93" s="74"/>
+      <c r="B93" s="90"/>
+      <c r="C93" s="90"/>
+      <c r="D93" s="90"/>
+      <c r="E93" s="90"/>
+      <c r="F93" s="90"/>
+      <c r="G93" s="90"/>
+      <c r="H93" s="90"/>
       <c r="I93" s="32">
         <v>0</v>
       </c>
-      <c r="J93" s="88">
+      <c r="J93" s="101">
         <v>0</v>
       </c>
-      <c r="K93" s="88"/>
-      <c r="L93" s="88"/>
-      <c r="M93" s="88"/>
+      <c r="K93" s="101"/>
+      <c r="L93" s="101"/>
+      <c r="M93" s="101"/>
       <c r="N93" s="32">
         <v>0</v>
       </c>
@@ -6880,25 +6880,25 @@
       </c>
     </row>
     <row r="94" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A94" s="76" t="s">
+      <c r="A94" s="88" t="s">
         <v>83</v>
       </c>
-      <c r="B94" s="76"/>
-      <c r="C94" s="76"/>
-      <c r="D94" s="76"/>
-      <c r="E94" s="76"/>
-      <c r="F94" s="76"/>
-      <c r="G94" s="76"/>
-      <c r="H94" s="76"/>
+      <c r="B94" s="88"/>
+      <c r="C94" s="88"/>
+      <c r="D94" s="88"/>
+      <c r="E94" s="88"/>
+      <c r="F94" s="88"/>
+      <c r="G94" s="88"/>
+      <c r="H94" s="88"/>
       <c r="I94" s="34">
         <v>0</v>
       </c>
-      <c r="J94" s="82">
+      <c r="J94" s="100">
         <v>0</v>
       </c>
-      <c r="K94" s="82"/>
-      <c r="L94" s="82"/>
-      <c r="M94" s="82"/>
+      <c r="K94" s="100"/>
+      <c r="L94" s="100"/>
+      <c r="M94" s="100"/>
       <c r="N94" s="34">
         <v>0</v>
       </c>
@@ -6919,25 +6919,25 @@
       </c>
     </row>
     <row r="95" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A95" s="74" t="s">
+      <c r="A95" s="90" t="s">
         <v>84</v>
       </c>
-      <c r="B95" s="74"/>
-      <c r="C95" s="74"/>
-      <c r="D95" s="74"/>
-      <c r="E95" s="74"/>
-      <c r="F95" s="74"/>
-      <c r="G95" s="74"/>
-      <c r="H95" s="74"/>
+      <c r="B95" s="90"/>
+      <c r="C95" s="90"/>
+      <c r="D95" s="90"/>
+      <c r="E95" s="90"/>
+      <c r="F95" s="90"/>
+      <c r="G95" s="90"/>
+      <c r="H95" s="90"/>
       <c r="I95" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="J95" s="75" t="s">
+      <c r="J95" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="K95" s="75"/>
-      <c r="L95" s="75"/>
-      <c r="M95" s="75"/>
+      <c r="K95" s="91"/>
+      <c r="L95" s="91"/>
+      <c r="M95" s="91"/>
       <c r="N95" s="31" t="s">
         <v>87</v>
       </c>
@@ -6958,25 +6958,25 @@
       </c>
     </row>
     <row r="96" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A96" s="76" t="s">
+      <c r="A96" s="88" t="s">
         <v>92</v>
       </c>
-      <c r="B96" s="76"/>
-      <c r="C96" s="76"/>
-      <c r="D96" s="76"/>
-      <c r="E96" s="76"/>
-      <c r="F96" s="76"/>
-      <c r="G96" s="76"/>
-      <c r="H96" s="76"/>
+      <c r="B96" s="88"/>
+      <c r="C96" s="88"/>
+      <c r="D96" s="88"/>
+      <c r="E96" s="88"/>
+      <c r="F96" s="88"/>
+      <c r="G96" s="88"/>
+      <c r="H96" s="88"/>
       <c r="I96" s="34">
         <v>0</v>
       </c>
-      <c r="J96" s="82">
+      <c r="J96" s="100">
         <v>0</v>
       </c>
-      <c r="K96" s="82"/>
-      <c r="L96" s="82"/>
-      <c r="M96" s="82"/>
+      <c r="K96" s="100"/>
+      <c r="L96" s="100"/>
+      <c r="M96" s="100"/>
       <c r="N96" s="34">
         <v>0</v>
       </c>
@@ -6997,17 +6997,17 @@
       </c>
     </row>
     <row r="97" spans="1:19">
-      <c r="A97" s="55" t="s">
+      <c r="A97" s="98" t="s">
         <v>134</v>
       </c>
-      <c r="B97" s="55"/>
-      <c r="C97" s="55"/>
-      <c r="D97" s="55"/>
-      <c r="E97" s="55"/>
-      <c r="F97" s="55"/>
-      <c r="G97" s="55"/>
-      <c r="H97" s="55"/>
-      <c r="I97" s="54" t="s">
+      <c r="B97" s="98"/>
+      <c r="C97" s="98"/>
+      <c r="D97" s="98"/>
+      <c r="E97" s="98"/>
+      <c r="F97" s="98"/>
+      <c r="G97" s="98"/>
+      <c r="H97" s="98"/>
+      <c r="I97" s="85" t="s">
         <v>135</v>
       </c>
       <c r="J97" s="4"/>
@@ -7022,15 +7022,15 @@
       <c r="S97" s="4"/>
     </row>
     <row r="98" spans="1:19">
-      <c r="A98" s="55"/>
-      <c r="B98" s="55"/>
-      <c r="C98" s="55"/>
-      <c r="D98" s="55"/>
-      <c r="E98" s="55"/>
-      <c r="F98" s="55"/>
-      <c r="G98" s="55"/>
-      <c r="H98" s="55"/>
-      <c r="I98" s="54"/>
+      <c r="A98" s="98"/>
+      <c r="B98" s="98"/>
+      <c r="C98" s="98"/>
+      <c r="D98" s="98"/>
+      <c r="E98" s="98"/>
+      <c r="F98" s="98"/>
+      <c r="G98" s="98"/>
+      <c r="H98" s="98"/>
+      <c r="I98" s="85"/>
       <c r="J98" s="4"/>
       <c r="K98" s="4"/>
       <c r="L98" s="4"/>
@@ -7042,23 +7042,23 @@
       <c r="R98" s="4"/>
       <c r="S98" s="4"/>
     </row>
-    <row r="99" spans="1:19" ht="16.5">
-      <c r="A99" s="87" t="s">
+    <row r="99" spans="1:19">
+      <c r="A99" s="99" t="s">
         <v>136</v>
       </c>
-      <c r="B99" s="87"/>
-      <c r="C99" s="87"/>
-      <c r="D99" s="87"/>
-      <c r="E99" s="87"/>
-      <c r="F99" s="87"/>
-      <c r="G99" s="87"/>
-      <c r="H99" s="87"/>
-      <c r="I99" s="87"/>
-      <c r="J99" s="87"/>
-      <c r="K99" s="87"/>
-      <c r="L99" s="87"/>
-      <c r="M99" s="87"/>
-      <c r="N99" s="87"/>
+      <c r="B99" s="99"/>
+      <c r="C99" s="99"/>
+      <c r="D99" s="99"/>
+      <c r="E99" s="99"/>
+      <c r="F99" s="99"/>
+      <c r="G99" s="99"/>
+      <c r="H99" s="99"/>
+      <c r="I99" s="99"/>
+      <c r="J99" s="99"/>
+      <c r="K99" s="99"/>
+      <c r="L99" s="99"/>
+      <c r="M99" s="99"/>
+      <c r="N99" s="99"/>
       <c r="O99" s="4"/>
       <c r="P99" s="4"/>
       <c r="Q99" s="4"/>
@@ -7066,21 +7066,21 @@
       <c r="S99" s="4"/>
     </row>
     <row r="100" spans="1:19" ht="33.75">
-      <c r="A100" s="93"/>
-      <c r="B100" s="93"/>
-      <c r="C100" s="93"/>
-      <c r="D100" s="93"/>
-      <c r="E100" s="93"/>
-      <c r="F100" s="93"/>
-      <c r="G100" s="93"/>
-      <c r="H100" s="93"/>
+      <c r="A100" s="87"/>
+      <c r="B100" s="87"/>
+      <c r="C100" s="87"/>
+      <c r="D100" s="87"/>
+      <c r="E100" s="87"/>
+      <c r="F100" s="87"/>
+      <c r="G100" s="87"/>
+      <c r="H100" s="87"/>
       <c r="I100" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="J100" s="71"/>
-      <c r="K100" s="71"/>
-      <c r="L100" s="71"/>
-      <c r="M100" s="71"/>
+      <c r="J100" s="78"/>
+      <c r="K100" s="78"/>
+      <c r="L100" s="78"/>
+      <c r="M100" s="78"/>
       <c r="N100" s="6" t="s">
         <v>138</v>
       </c>
@@ -7090,15 +7090,15 @@
       <c r="R100" s="4"/>
       <c r="S100" s="4"/>
     </row>
-    <row r="101" spans="1:19" ht="16.5">
-      <c r="A101" s="76"/>
-      <c r="B101" s="76"/>
-      <c r="C101" s="76"/>
-      <c r="D101" s="76"/>
-      <c r="E101" s="76"/>
-      <c r="F101" s="76"/>
-      <c r="G101" s="76"/>
-      <c r="H101" s="76"/>
+    <row r="101" spans="1:19">
+      <c r="A101" s="88"/>
+      <c r="B101" s="88"/>
+      <c r="C101" s="88"/>
+      <c r="D101" s="88"/>
+      <c r="E101" s="88"/>
+      <c r="F101" s="88"/>
+      <c r="G101" s="88"/>
+      <c r="H101" s="88"/>
       <c r="I101" s="4"/>
       <c r="J101" s="4"/>
       <c r="K101" s="4"/>
@@ -7133,159 +7133,159 @@
       <c r="S102" s="80"/>
     </row>
     <row r="103" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A103" s="91" t="s">
+      <c r="A103" s="81" t="s">
         <v>139</v>
       </c>
-      <c r="B103" s="91"/>
-      <c r="C103" s="91"/>
-      <c r="D103" s="91"/>
-      <c r="E103" s="91"/>
-      <c r="F103" s="91"/>
-      <c r="G103" s="91"/>
-      <c r="H103" s="91"/>
-      <c r="I103" s="91"/>
-      <c r="J103" s="91"/>
-      <c r="K103" s="91"/>
-      <c r="L103" s="91"/>
-      <c r="M103" s="91"/>
-      <c r="N103" s="91"/>
-      <c r="O103" s="91"/>
-      <c r="P103" s="91"/>
-      <c r="Q103" s="91"/>
-      <c r="R103" s="91"/>
-      <c r="S103" s="91"/>
-    </row>
-    <row r="104" spans="1:19" ht="16.5">
-      <c r="A104" s="91"/>
-      <c r="B104" s="91"/>
-      <c r="C104" s="91"/>
-      <c r="D104" s="91"/>
-      <c r="E104" s="91"/>
-      <c r="F104" s="91"/>
-      <c r="G104" s="91"/>
-      <c r="H104" s="91"/>
-      <c r="I104" s="91"/>
-      <c r="J104" s="91"/>
-      <c r="K104" s="91"/>
-      <c r="L104" s="91"/>
-      <c r="M104" s="91"/>
-      <c r="N104" s="91"/>
-      <c r="O104" s="91"/>
-      <c r="P104" s="91"/>
-      <c r="Q104" s="91"/>
-      <c r="R104" s="91"/>
-      <c r="S104" s="91"/>
+      <c r="B103" s="81"/>
+      <c r="C103" s="81"/>
+      <c r="D103" s="81"/>
+      <c r="E103" s="81"/>
+      <c r="F103" s="81"/>
+      <c r="G103" s="81"/>
+      <c r="H103" s="81"/>
+      <c r="I103" s="81"/>
+      <c r="J103" s="81"/>
+      <c r="K103" s="81"/>
+      <c r="L103" s="81"/>
+      <c r="M103" s="81"/>
+      <c r="N103" s="81"/>
+      <c r="O103" s="81"/>
+      <c r="P103" s="81"/>
+      <c r="Q103" s="81"/>
+      <c r="R103" s="81"/>
+      <c r="S103" s="81"/>
+    </row>
+    <row r="104" spans="1:19">
+      <c r="A104" s="81"/>
+      <c r="B104" s="81"/>
+      <c r="C104" s="81"/>
+      <c r="D104" s="81"/>
+      <c r="E104" s="81"/>
+      <c r="F104" s="81"/>
+      <c r="G104" s="81"/>
+      <c r="H104" s="81"/>
+      <c r="I104" s="81"/>
+      <c r="J104" s="81"/>
+      <c r="K104" s="81"/>
+      <c r="L104" s="81"/>
+      <c r="M104" s="81"/>
+      <c r="N104" s="81"/>
+      <c r="O104" s="81"/>
+      <c r="P104" s="81"/>
+      <c r="Q104" s="81"/>
+      <c r="R104" s="81"/>
+      <c r="S104" s="81"/>
     </row>
     <row r="105" spans="1:19">
-      <c r="A105" s="92" t="s">
+      <c r="A105" s="82" t="s">
         <v>140</v>
       </c>
-      <c r="B105" s="92"/>
-      <c r="C105" s="92"/>
-      <c r="D105" s="92"/>
-      <c r="E105" s="92"/>
-      <c r="F105" s="92"/>
-      <c r="G105" s="92"/>
-      <c r="H105" s="92"/>
-      <c r="I105" s="92"/>
-      <c r="J105" s="92"/>
-      <c r="K105" s="92"/>
-      <c r="L105" s="92"/>
-      <c r="M105" s="92"/>
-      <c r="N105" s="92"/>
-      <c r="O105" s="92"/>
-      <c r="P105" s="92"/>
-      <c r="Q105" s="92"/>
-      <c r="R105" s="92"/>
-      <c r="S105" s="92"/>
+      <c r="B105" s="82"/>
+      <c r="C105" s="82"/>
+      <c r="D105" s="82"/>
+      <c r="E105" s="82"/>
+      <c r="F105" s="82"/>
+      <c r="G105" s="82"/>
+      <c r="H105" s="82"/>
+      <c r="I105" s="82"/>
+      <c r="J105" s="82"/>
+      <c r="K105" s="82"/>
+      <c r="L105" s="82"/>
+      <c r="M105" s="82"/>
+      <c r="N105" s="82"/>
+      <c r="O105" s="82"/>
+      <c r="P105" s="82"/>
+      <c r="Q105" s="82"/>
+      <c r="R105" s="82"/>
+      <c r="S105" s="82"/>
     </row>
     <row r="106" spans="1:19">
-      <c r="A106" s="90"/>
-      <c r="B106" s="90"/>
-      <c r="C106" s="90"/>
-      <c r="D106" s="90"/>
-      <c r="E106" s="90"/>
-      <c r="F106" s="90"/>
-      <c r="G106" s="90"/>
-      <c r="H106" s="90"/>
-      <c r="I106" s="90"/>
-      <c r="J106" s="90"/>
-      <c r="K106" s="90"/>
-      <c r="L106" s="90"/>
-      <c r="M106" s="90"/>
-      <c r="N106" s="90"/>
-      <c r="O106" s="90"/>
-      <c r="P106" s="90"/>
-      <c r="Q106" s="90"/>
-      <c r="R106" s="90"/>
-      <c r="S106" s="90"/>
+      <c r="A106" s="79"/>
+      <c r="B106" s="79"/>
+      <c r="C106" s="79"/>
+      <c r="D106" s="79"/>
+      <c r="E106" s="79"/>
+      <c r="F106" s="79"/>
+      <c r="G106" s="79"/>
+      <c r="H106" s="79"/>
+      <c r="I106" s="79"/>
+      <c r="J106" s="79"/>
+      <c r="K106" s="79"/>
+      <c r="L106" s="79"/>
+      <c r="M106" s="79"/>
+      <c r="N106" s="79"/>
+      <c r="O106" s="79"/>
+      <c r="P106" s="79"/>
+      <c r="Q106" s="79"/>
+      <c r="R106" s="79"/>
+      <c r="S106" s="79"/>
     </row>
     <row r="107" spans="1:19">
-      <c r="A107" s="89" t="s">
+      <c r="A107" s="83" t="s">
         <v>141</v>
       </c>
-      <c r="B107" s="89"/>
-      <c r="C107" s="89"/>
-      <c r="D107" s="89"/>
-      <c r="E107" s="89"/>
-      <c r="F107" s="89"/>
-      <c r="G107" s="89"/>
-      <c r="H107" s="89"/>
-      <c r="I107" s="89"/>
-      <c r="J107" s="89"/>
-      <c r="K107" s="89"/>
-      <c r="L107" s="89"/>
-      <c r="M107" s="89"/>
-      <c r="N107" s="89"/>
-      <c r="O107" s="89"/>
-      <c r="P107" s="89"/>
-      <c r="Q107" s="89"/>
-      <c r="R107" s="89"/>
-      <c r="S107" s="89"/>
+      <c r="B107" s="83"/>
+      <c r="C107" s="83"/>
+      <c r="D107" s="83"/>
+      <c r="E107" s="83"/>
+      <c r="F107" s="83"/>
+      <c r="G107" s="83"/>
+      <c r="H107" s="83"/>
+      <c r="I107" s="83"/>
+      <c r="J107" s="83"/>
+      <c r="K107" s="83"/>
+      <c r="L107" s="83"/>
+      <c r="M107" s="83"/>
+      <c r="N107" s="83"/>
+      <c r="O107" s="83"/>
+      <c r="P107" s="83"/>
+      <c r="Q107" s="83"/>
+      <c r="R107" s="83"/>
+      <c r="S107" s="83"/>
     </row>
     <row r="108" spans="1:19">
-      <c r="A108" s="89" t="s">
+      <c r="A108" s="83" t="s">
         <v>142</v>
       </c>
-      <c r="B108" s="89"/>
-      <c r="C108" s="89"/>
-      <c r="D108" s="89"/>
-      <c r="E108" s="89"/>
-      <c r="F108" s="89"/>
-      <c r="G108" s="89"/>
-      <c r="H108" s="89"/>
-      <c r="I108" s="89"/>
-      <c r="J108" s="89"/>
-      <c r="K108" s="89"/>
-      <c r="L108" s="89"/>
-      <c r="M108" s="89"/>
-      <c r="N108" s="89"/>
-      <c r="O108" s="89"/>
-      <c r="P108" s="89"/>
-      <c r="Q108" s="89"/>
-      <c r="R108" s="89"/>
-      <c r="S108" s="89"/>
+      <c r="B108" s="83"/>
+      <c r="C108" s="83"/>
+      <c r="D108" s="83"/>
+      <c r="E108" s="83"/>
+      <c r="F108" s="83"/>
+      <c r="G108" s="83"/>
+      <c r="H108" s="83"/>
+      <c r="I108" s="83"/>
+      <c r="J108" s="83"/>
+      <c r="K108" s="83"/>
+      <c r="L108" s="83"/>
+      <c r="M108" s="83"/>
+      <c r="N108" s="83"/>
+      <c r="O108" s="83"/>
+      <c r="P108" s="83"/>
+      <c r="Q108" s="83"/>
+      <c r="R108" s="83"/>
+      <c r="S108" s="83"/>
     </row>
     <row r="109" spans="1:19">
-      <c r="A109" s="90"/>
-      <c r="B109" s="90"/>
-      <c r="C109" s="90"/>
-      <c r="D109" s="90"/>
-      <c r="E109" s="90"/>
-      <c r="F109" s="90"/>
-      <c r="G109" s="90"/>
-      <c r="H109" s="90"/>
-      <c r="I109" s="90"/>
-      <c r="J109" s="90"/>
-      <c r="K109" s="90"/>
-      <c r="L109" s="90"/>
-      <c r="M109" s="90"/>
-      <c r="N109" s="90"/>
-      <c r="O109" s="90"/>
-      <c r="P109" s="90"/>
-      <c r="Q109" s="90"/>
-      <c r="R109" s="90"/>
-      <c r="S109" s="90"/>
+      <c r="A109" s="79"/>
+      <c r="B109" s="79"/>
+      <c r="C109" s="79"/>
+      <c r="D109" s="79"/>
+      <c r="E109" s="79"/>
+      <c r="F109" s="79"/>
+      <c r="G109" s="79"/>
+      <c r="H109" s="79"/>
+      <c r="I109" s="79"/>
+      <c r="J109" s="79"/>
+      <c r="K109" s="79"/>
+      <c r="L109" s="79"/>
+      <c r="M109" s="79"/>
+      <c r="N109" s="79"/>
+      <c r="O109" s="79"/>
+      <c r="P109" s="79"/>
+      <c r="Q109" s="79"/>
+      <c r="R109" s="79"/>
+      <c r="S109" s="79"/>
     </row>
     <row r="111" spans="1:19" ht="23.25">
       <c r="A111" s="50" t="s">
@@ -7295,7 +7295,7 @@
     <row r="112" spans="1:19">
       <c r="A112" s="51"/>
     </row>
-    <row r="113" spans="1:1" ht="16.5">
+    <row r="113" spans="1:1">
       <c r="A113" s="52" t="s">
         <v>6</v>
       </c>
@@ -7303,7 +7303,7 @@
     <row r="114" spans="1:1">
       <c r="A114" s="51"/>
     </row>
-    <row r="115" spans="1:1" ht="16.5">
+    <row r="115" spans="1:1">
       <c r="A115" s="52" t="s">
         <v>144</v>
       </c>
@@ -7311,12 +7311,12 @@
     <row r="116" spans="1:1">
       <c r="A116" s="51"/>
     </row>
-    <row r="117" spans="1:1" ht="16.5">
+    <row r="117" spans="1:1">
       <c r="A117" s="52" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:1" ht="16.5">
+    <row r="118" spans="1:1">
       <c r="A118" s="52" t="s">
         <v>145</v>
       </c>
@@ -7327,12 +7327,12 @@
     <row r="120" spans="1:1">
       <c r="A120" s="51"/>
     </row>
-    <row r="121" spans="1:1" ht="16.5">
+    <row r="121" spans="1:1">
       <c r="A121" s="52" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="122" spans="1:1" ht="16.5">
+    <row r="122" spans="1:1">
       <c r="A122" s="52" t="s">
         <v>7</v>
       </c>
@@ -7340,7 +7340,7 @@
     <row r="123" spans="1:1">
       <c r="A123" s="51"/>
     </row>
-    <row r="124" spans="1:1" ht="16.5">
+    <row r="124" spans="1:1">
       <c r="A124" s="52" t="s">
         <v>8</v>
       </c>
@@ -7348,27 +7348,27 @@
     <row r="125" spans="1:1">
       <c r="A125" s="51"/>
     </row>
-    <row r="126" spans="1:1" ht="16.5">
+    <row r="126" spans="1:1">
       <c r="A126" s="52" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="127" spans="1:1" ht="16.5">
+    <row r="127" spans="1:1">
       <c r="A127" s="52" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="128" spans="1:1" ht="16.5">
+    <row r="128" spans="1:1">
       <c r="A128" s="52" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="129" spans="1:1" ht="16.5">
+    <row r="129" spans="1:1">
       <c r="A129" s="52" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="130" spans="1:1" ht="16.5">
+    <row r="130" spans="1:1">
       <c r="A130" s="52" t="s">
         <v>151</v>
       </c>
@@ -7376,7 +7376,7 @@
     <row r="131" spans="1:1">
       <c r="A131" s="51"/>
     </row>
-    <row r="132" spans="1:1" ht="16.5">
+    <row r="132" spans="1:1">
       <c r="A132" s="52" t="s">
         <v>152</v>
       </c>
@@ -7387,322 +7387,322 @@
     <row r="134" spans="1:1">
       <c r="A134" s="51"/>
     </row>
-    <row r="135" spans="1:1" ht="16.5">
+    <row r="135" spans="1:1">
       <c r="A135" s="52" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="136" spans="1:1" ht="16.5">
+    <row r="136" spans="1:1">
       <c r="A136" s="52" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="137" spans="1:1" ht="16.5">
+    <row r="137" spans="1:1">
       <c r="A137" s="52" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="138" spans="1:1" ht="16.5">
+    <row r="138" spans="1:1">
       <c r="A138" s="52" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="139" spans="1:1" ht="16.5">
+    <row r="139" spans="1:1">
       <c r="A139" s="52" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="140" spans="1:1" ht="16.5">
+    <row r="140" spans="1:1">
       <c r="A140" s="52" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="141" spans="1:1" ht="16.5">
+    <row r="141" spans="1:1">
       <c r="A141" s="52" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="142" spans="1:1" ht="16.5">
+    <row r="142" spans="1:1">
       <c r="A142" s="52" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="143" spans="1:1" ht="16.5">
+    <row r="143" spans="1:1">
       <c r="A143" s="52" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="144" spans="1:1" ht="16.5">
+    <row r="144" spans="1:1">
       <c r="A144" s="52" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="145" spans="1:1" ht="16.5">
+    <row r="145" spans="1:1">
       <c r="A145" s="52" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="146" spans="1:1" ht="16.5">
+    <row r="146" spans="1:1">
       <c r="A146" s="52" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="147" spans="1:1" ht="16.5">
+    <row r="147" spans="1:1">
       <c r="A147" s="52" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="148" spans="1:1" ht="16.5">
+    <row r="148" spans="1:1">
       <c r="A148" s="52" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="149" spans="1:1" ht="16.5">
+    <row r="149" spans="1:1">
       <c r="A149" s="52" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="150" spans="1:1" ht="16.5">
+    <row r="150" spans="1:1">
       <c r="A150" s="52" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="151" spans="1:1" ht="16.5">
+    <row r="151" spans="1:1">
       <c r="A151" s="52" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="152" spans="1:1" ht="16.5">
+    <row r="152" spans="1:1">
       <c r="A152" s="52" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="153" spans="1:1" ht="16.5">
+    <row r="153" spans="1:1">
       <c r="A153" s="52" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="154" spans="1:1" ht="16.5">
+    <row r="154" spans="1:1">
       <c r="A154" s="52" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="155" spans="1:1" ht="16.5">
+    <row r="155" spans="1:1">
       <c r="A155" s="52" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="156" spans="1:1" ht="16.5">
+    <row r="156" spans="1:1">
       <c r="A156" s="52" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="157" spans="1:1" ht="16.5">
+    <row r="157" spans="1:1">
       <c r="A157" s="52" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="158" spans="1:1" ht="16.5">
+    <row r="158" spans="1:1">
       <c r="A158" s="52" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="159" spans="1:1" ht="16.5">
+    <row r="159" spans="1:1">
       <c r="A159" s="52" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="160" spans="1:1" ht="16.5">
+    <row r="160" spans="1:1">
       <c r="A160" s="52" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="161" spans="1:1" ht="16.5">
+    <row r="161" spans="1:1">
       <c r="A161" s="52" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="162" spans="1:1" ht="16.5">
+    <row r="162" spans="1:1">
       <c r="A162" s="52" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="163" spans="1:1" ht="16.5">
+    <row r="163" spans="1:1">
       <c r="A163" s="52" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="164" spans="1:1" ht="16.5">
+    <row r="164" spans="1:1">
       <c r="A164" s="52" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="165" spans="1:1" ht="16.5">
+    <row r="165" spans="1:1">
       <c r="A165" s="52" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="166" spans="1:1" ht="16.5">
+    <row r="166" spans="1:1">
       <c r="A166" s="52" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="167" spans="1:1" ht="16.5">
+    <row r="167" spans="1:1">
       <c r="A167" s="52" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="168" spans="1:1" ht="16.5">
+    <row r="168" spans="1:1">
       <c r="A168" s="52" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="169" spans="1:1" ht="16.5">
+    <row r="169" spans="1:1">
       <c r="A169" s="52" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="170" spans="1:1" ht="16.5">
+    <row r="170" spans="1:1">
       <c r="A170" s="52" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="171" spans="1:1" ht="16.5">
+    <row r="171" spans="1:1">
       <c r="A171" s="52" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="172" spans="1:1" ht="16.5">
+    <row r="172" spans="1:1">
       <c r="A172" s="52" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="173" spans="1:1" ht="16.5">
+    <row r="173" spans="1:1">
       <c r="A173" s="52" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="174" spans="1:1" ht="16.5">
+    <row r="174" spans="1:1">
       <c r="A174" s="52" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="175" spans="1:1" ht="16.5">
+    <row r="175" spans="1:1">
       <c r="A175" s="52" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="176" spans="1:1" ht="16.5">
+    <row r="176" spans="1:1">
       <c r="A176" s="52" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="177" spans="1:1" ht="16.5">
+    <row r="177" spans="1:1">
       <c r="A177" s="52" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="178" spans="1:1" ht="16.5">
+    <row r="178" spans="1:1">
       <c r="A178" s="52" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="179" spans="1:1" ht="16.5">
+    <row r="179" spans="1:1">
       <c r="A179" s="52" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="180" spans="1:1" ht="16.5">
+    <row r="180" spans="1:1">
       <c r="A180" s="52" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="181" spans="1:1" ht="16.5">
+    <row r="181" spans="1:1">
       <c r="A181" s="52" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="182" spans="1:1" ht="16.5">
+    <row r="182" spans="1:1">
       <c r="A182" s="52" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="183" spans="1:1" ht="16.5">
+    <row r="183" spans="1:1">
       <c r="A183" s="52" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="184" spans="1:1" ht="16.5">
+    <row r="184" spans="1:1">
       <c r="A184" s="52" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="185" spans="1:1" ht="16.5">
+    <row r="185" spans="1:1">
       <c r="A185" s="52" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="186" spans="1:1" ht="16.5">
+    <row r="186" spans="1:1">
       <c r="A186" s="52" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:1" ht="16.5">
+    <row r="187" spans="1:1">
       <c r="A187" s="52" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="188" spans="1:1" ht="16.5">
+    <row r="188" spans="1:1">
       <c r="A188" s="52" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="189" spans="1:1" ht="16.5">
+    <row r="189" spans="1:1">
       <c r="A189" s="52" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="190" spans="1:1" ht="16.5">
+    <row r="190" spans="1:1">
       <c r="A190" s="52" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="191" spans="1:1" ht="16.5">
+    <row r="191" spans="1:1">
       <c r="A191" s="52" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="192" spans="1:1" ht="16.5">
+    <row r="192" spans="1:1">
       <c r="A192" s="52" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="193" spans="1:1" ht="16.5">
+    <row r="193" spans="1:1">
       <c r="A193" s="52" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="194" spans="1:1" ht="16.5">
+    <row r="194" spans="1:1">
       <c r="A194" s="52" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="195" spans="1:1" ht="16.5">
+    <row r="195" spans="1:1">
       <c r="A195" s="52" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="196" spans="1:1" ht="16.5">
+    <row r="196" spans="1:1">
       <c r="A196" s="52" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="197" spans="1:1" ht="16.5">
+    <row r="197" spans="1:1">
       <c r="A197" s="52" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="198" spans="1:1" ht="16.5">
+    <row r="198" spans="1:1">
       <c r="A198" s="52" t="s">
         <v>153</v>
       </c>
@@ -7710,7 +7710,7 @@
     <row r="199" spans="1:1">
       <c r="A199" s="51"/>
     </row>
-    <row r="200" spans="1:1" ht="16.5">
+    <row r="200" spans="1:1">
       <c r="A200" s="52" t="s">
         <v>191</v>
       </c>
@@ -7718,7 +7718,7 @@
     <row r="201" spans="1:1">
       <c r="A201" s="51"/>
     </row>
-    <row r="202" spans="1:1" ht="16.5">
+    <row r="202" spans="1:1">
       <c r="A202" s="52" t="s">
         <v>192</v>
       </c>
@@ -7726,22 +7726,22 @@
     <row r="203" spans="1:1">
       <c r="A203" s="51"/>
     </row>
-    <row r="204" spans="1:1" ht="16.5">
+    <row r="204" spans="1:1">
       <c r="A204" s="52" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="205" spans="1:1" ht="16.5">
+    <row r="205" spans="1:1">
       <c r="A205" s="52" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="206" spans="1:1" ht="16.5">
+    <row r="206" spans="1:1">
       <c r="A206" s="52" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="207" spans="1:1" ht="16.5">
+    <row r="207" spans="1:1">
       <c r="A207" s="52" t="s">
         <v>159</v>
       </c>
@@ -7755,7 +7755,7 @@
     <row r="210" spans="1:1">
       <c r="A210" s="51"/>
     </row>
-    <row r="211" spans="1:1" ht="16.5">
+    <row r="211" spans="1:1">
       <c r="A211" s="52" t="s">
         <v>144</v>
       </c>
@@ -7763,17 +7763,17 @@
     <row r="212" spans="1:1">
       <c r="A212" s="51"/>
     </row>
-    <row r="213" spans="1:1" ht="16.5">
+    <row r="213" spans="1:1">
       <c r="A213" s="52" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="214" spans="1:1" ht="16.5">
+    <row r="214" spans="1:1">
       <c r="A214" s="52" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="215" spans="1:1" ht="16.5">
+    <row r="215" spans="1:1">
       <c r="A215" s="52" t="s">
         <v>198</v>
       </c>
@@ -7781,7 +7781,7 @@
     <row r="216" spans="1:1">
       <c r="A216" s="51"/>
     </row>
-    <row r="217" spans="1:1" ht="16.5">
+    <row r="217" spans="1:1">
       <c r="A217" s="52" t="s">
         <v>199</v>
       </c>
@@ -7792,22 +7792,22 @@
     <row r="219" spans="1:1">
       <c r="A219" s="51"/>
     </row>
-    <row r="220" spans="1:1" ht="16.5">
+    <row r="220" spans="1:1">
       <c r="A220" s="52" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="221" spans="1:1" ht="16.5">
+    <row r="221" spans="1:1">
       <c r="A221" s="52" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="222" spans="1:1" ht="16.5">
+    <row r="222" spans="1:1">
       <c r="A222" s="52" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="223" spans="1:1" ht="16.5">
+    <row r="223" spans="1:1">
       <c r="A223" s="52" t="s">
         <v>203</v>
       </c>
@@ -7815,75 +7815,85 @@
     <row r="224" spans="1:1">
       <c r="A224" s="51"/>
     </row>
-    <row r="225" spans="1:1" ht="16.5">
+    <row r="225" spans="1:1">
       <c r="A225" s="52" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="226" spans="1:1" ht="16.5">
+    <row r="226" spans="1:1">
       <c r="A226" s="52" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="227" spans="1:1" ht="16.5">
+    <row r="227" spans="1:1">
       <c r="A227" s="52" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="228" spans="1:1" ht="16.5">
+    <row r="228" spans="1:1">
       <c r="A228" s="52" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="229" spans="1:1" ht="16.5">
+    <row r="229" spans="1:1">
       <c r="A229" s="52" t="s">
         <v>208</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="148">
-    <mergeCell ref="A109:S109"/>
-    <mergeCell ref="A102:S102"/>
-    <mergeCell ref="A103:S103"/>
-    <mergeCell ref="A104:S104"/>
-    <mergeCell ref="A105:S105"/>
-    <mergeCell ref="A106:S106"/>
-    <mergeCell ref="A107:S107"/>
-    <mergeCell ref="A64:S64"/>
-    <mergeCell ref="A65:S65"/>
-    <mergeCell ref="A66:S66"/>
-    <mergeCell ref="A67:S67"/>
-    <mergeCell ref="A82:S82"/>
-    <mergeCell ref="A83:S83"/>
-    <mergeCell ref="A100:H100"/>
-    <mergeCell ref="J100:M100"/>
-    <mergeCell ref="A101:H101"/>
-    <mergeCell ref="J89:M90"/>
-    <mergeCell ref="N89:N90"/>
-    <mergeCell ref="O89:O90"/>
-    <mergeCell ref="P89:P90"/>
-    <mergeCell ref="A80:H80"/>
-    <mergeCell ref="J80:M80"/>
-    <mergeCell ref="A81:H81"/>
-    <mergeCell ref="A58:H58"/>
-    <mergeCell ref="J58:M58"/>
-    <mergeCell ref="A53:S53"/>
-    <mergeCell ref="A54:H55"/>
-    <mergeCell ref="J54:M54"/>
-    <mergeCell ref="J55:M55"/>
-    <mergeCell ref="N54:N55"/>
-    <mergeCell ref="O54:O55"/>
-    <mergeCell ref="A108:S108"/>
-    <mergeCell ref="A16:S16"/>
-    <mergeCell ref="A17:S17"/>
-    <mergeCell ref="A18:S18"/>
-    <mergeCell ref="A24:S24"/>
-    <mergeCell ref="A25:S25"/>
-    <mergeCell ref="A26:S26"/>
-    <mergeCell ref="A56:H56"/>
-    <mergeCell ref="J56:M56"/>
-    <mergeCell ref="A57:H57"/>
-    <mergeCell ref="J57:M57"/>
+    <mergeCell ref="A19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="A47:S47"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="K28:K38"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="A36:H36"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="A39:H39"/>
+    <mergeCell ref="A44:S44"/>
+    <mergeCell ref="A45:S45"/>
+    <mergeCell ref="A46:S46"/>
+    <mergeCell ref="A68:H68"/>
+    <mergeCell ref="J68:M68"/>
+    <mergeCell ref="A69:H70"/>
+    <mergeCell ref="J69:M69"/>
+    <mergeCell ref="J70:M70"/>
+    <mergeCell ref="N69:N70"/>
+    <mergeCell ref="A59:H59"/>
+    <mergeCell ref="J59:M59"/>
+    <mergeCell ref="A60:H60"/>
+    <mergeCell ref="J60:M60"/>
+    <mergeCell ref="A61:H61"/>
+    <mergeCell ref="J61:M61"/>
+    <mergeCell ref="A62:S62"/>
+    <mergeCell ref="A63:S63"/>
+    <mergeCell ref="N74:N75"/>
+    <mergeCell ref="O74:O75"/>
+    <mergeCell ref="A76:H76"/>
+    <mergeCell ref="J76:M76"/>
+    <mergeCell ref="O69:O70"/>
+    <mergeCell ref="A71:H71"/>
+    <mergeCell ref="J71:M71"/>
+    <mergeCell ref="A72:H72"/>
+    <mergeCell ref="J72:M72"/>
+    <mergeCell ref="A73:S73"/>
     <mergeCell ref="A10:S10"/>
     <mergeCell ref="A11:S11"/>
     <mergeCell ref="A12:S12"/>
@@ -7908,6 +7918,39 @@
     <mergeCell ref="J93:M93"/>
     <mergeCell ref="A89:H90"/>
     <mergeCell ref="I89:I90"/>
+    <mergeCell ref="A16:S16"/>
+    <mergeCell ref="A17:S17"/>
+    <mergeCell ref="A18:S18"/>
+    <mergeCell ref="A24:S24"/>
+    <mergeCell ref="A25:S25"/>
+    <mergeCell ref="A26:S26"/>
+    <mergeCell ref="A56:H56"/>
+    <mergeCell ref="J56:M56"/>
+    <mergeCell ref="A57:H57"/>
+    <mergeCell ref="J57:M57"/>
+    <mergeCell ref="A51:H51"/>
+    <mergeCell ref="J51:M51"/>
+    <mergeCell ref="A52:H52"/>
+    <mergeCell ref="J52:M52"/>
+    <mergeCell ref="I27:I39"/>
+    <mergeCell ref="A40:H41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="A48:H48"/>
+    <mergeCell ref="J48:M48"/>
+    <mergeCell ref="A49:H50"/>
+    <mergeCell ref="J49:M49"/>
+    <mergeCell ref="J50:M50"/>
+    <mergeCell ref="A42:S42"/>
+    <mergeCell ref="A43:S43"/>
+    <mergeCell ref="A58:H58"/>
+    <mergeCell ref="J58:M58"/>
+    <mergeCell ref="A53:S53"/>
+    <mergeCell ref="A54:H55"/>
+    <mergeCell ref="J54:M54"/>
+    <mergeCell ref="J55:M55"/>
+    <mergeCell ref="N54:N55"/>
+    <mergeCell ref="O54:O55"/>
+    <mergeCell ref="A108:S108"/>
     <mergeCell ref="J81:M81"/>
     <mergeCell ref="A88:H88"/>
     <mergeCell ref="J88:M88"/>
@@ -7923,73 +7966,30 @@
     <mergeCell ref="J79:M79"/>
     <mergeCell ref="A74:H75"/>
     <mergeCell ref="J74:M74"/>
+    <mergeCell ref="A109:S109"/>
+    <mergeCell ref="A102:S102"/>
+    <mergeCell ref="A103:S103"/>
+    <mergeCell ref="A104:S104"/>
+    <mergeCell ref="A105:S105"/>
+    <mergeCell ref="A106:S106"/>
+    <mergeCell ref="A107:S107"/>
+    <mergeCell ref="A64:S64"/>
+    <mergeCell ref="A65:S65"/>
+    <mergeCell ref="A66:S66"/>
+    <mergeCell ref="A67:S67"/>
+    <mergeCell ref="A82:S82"/>
+    <mergeCell ref="A83:S83"/>
+    <mergeCell ref="A100:H100"/>
+    <mergeCell ref="J100:M100"/>
+    <mergeCell ref="A101:H101"/>
+    <mergeCell ref="J89:M90"/>
+    <mergeCell ref="N89:N90"/>
+    <mergeCell ref="O89:O90"/>
+    <mergeCell ref="P89:P90"/>
+    <mergeCell ref="A80:H80"/>
+    <mergeCell ref="J80:M80"/>
+    <mergeCell ref="A81:H81"/>
     <mergeCell ref="J75:M75"/>
-    <mergeCell ref="N74:N75"/>
-    <mergeCell ref="O74:O75"/>
-    <mergeCell ref="A76:H76"/>
-    <mergeCell ref="J76:M76"/>
-    <mergeCell ref="O69:O70"/>
-    <mergeCell ref="A71:H71"/>
-    <mergeCell ref="J71:M71"/>
-    <mergeCell ref="A72:H72"/>
-    <mergeCell ref="J72:M72"/>
-    <mergeCell ref="A73:S73"/>
-    <mergeCell ref="A68:H68"/>
-    <mergeCell ref="J68:M68"/>
-    <mergeCell ref="A69:H70"/>
-    <mergeCell ref="J69:M69"/>
-    <mergeCell ref="J70:M70"/>
-    <mergeCell ref="N69:N70"/>
-    <mergeCell ref="A59:H59"/>
-    <mergeCell ref="J59:M59"/>
-    <mergeCell ref="A60:H60"/>
-    <mergeCell ref="J60:M60"/>
-    <mergeCell ref="A61:H61"/>
-    <mergeCell ref="J61:M61"/>
-    <mergeCell ref="A62:S62"/>
-    <mergeCell ref="A63:S63"/>
-    <mergeCell ref="A51:H51"/>
-    <mergeCell ref="J51:M51"/>
-    <mergeCell ref="A52:H52"/>
-    <mergeCell ref="J52:M52"/>
-    <mergeCell ref="I27:I39"/>
-    <mergeCell ref="A40:H41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="A48:H48"/>
-    <mergeCell ref="J48:M48"/>
-    <mergeCell ref="A49:H50"/>
-    <mergeCell ref="J49:M49"/>
-    <mergeCell ref="J50:M50"/>
-    <mergeCell ref="A42:S42"/>
-    <mergeCell ref="A43:S43"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A35:H35"/>
-    <mergeCell ref="A36:H36"/>
-    <mergeCell ref="A37:H37"/>
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="A39:H39"/>
-    <mergeCell ref="A44:S44"/>
-    <mergeCell ref="A45:S45"/>
-    <mergeCell ref="A46:S46"/>
-    <mergeCell ref="A47:S47"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="K28:K38"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="A31:H31"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="N49:N50"/>
-    <mergeCell ref="O49:O50"/>
-    <mergeCell ref="A19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="A23:H23"/>
-    <mergeCell ref="J23:M23"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A18" r:id="rId1" location="all_apps_report" display="https://rpm.newrelic.com/accounts/1625133/sample_email?email=weekly_report - all_apps_report"/>

--- a/doc/Email_Template/Design Request Performance Report for BIP Viet Nam Company Limited.xlsx
+++ b/doc/Email_Template/Design Request Performance Report for BIP Viet Nam Company Limited.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="150" windowWidth="20730" windowHeight="11760"/>
@@ -10,12 +10,12 @@
     <sheet name="Request" sheetId="3" r:id="rId1"/>
     <sheet name=" New Relic  June 1st performanc" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="248">
   <si>
     <t>Headers</t>
   </si>
@@ -1227,9 +1227,6 @@
     <t>Những chỉ tiêu vượt quá giá trị cho phép (mình config) thì sẽ cảnh báo bôi đỏ ....</t>
   </si>
   <si>
-    <t>Chia từng server thành từng tab và có vẽ biểu đồ cho dễ theo dõi</t>
-  </si>
-  <si>
     <t>Memory %</t>
   </si>
   <si>
@@ -1427,6 +1424,12 @@
   </si>
   <si>
     <t>Vẽ biểu đồ</t>
+  </si>
+  <si>
+    <t>Chia từng server thành từng tab</t>
+  </si>
+  <si>
+    <t>%Complete</t>
   </si>
 </sst>
 </file>
@@ -2580,7 +2583,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2788,126 +2791,127 @@
     <xf numFmtId="0" fontId="23" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="42" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="23" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="23" fillId="35" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="23" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="23" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="50" borderId="0" xfId="42" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="42" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="23" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="23" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="23" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="23" fillId="35" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="117">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3044,13 +3048,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>847725</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3844,10 +3848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:M43"/>
+  <dimension ref="A3:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -3858,584 +3862,610 @@
     <col min="13" max="13" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:2">
+    <row r="3" spans="1:8">
+      <c r="H3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="53" t="s">
         <v>209</v>
       </c>
       <c r="B5" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>246</v>
+      </c>
+      <c r="H5" s="119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="53" t="s">
         <v>210</v>
       </c>
       <c r="B8" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="53" t="s">
+        <v>214</v>
+      </c>
+      <c r="B11" t="s">
+        <v>245</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="53" t="s">
         <v>215</v>
       </c>
-      <c r="B11" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="53" t="s">
+      <c r="B14" t="s">
         <v>216</v>
       </c>
-      <c r="B14" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="12" thickBot="1"/>
-    <row r="17" spans="1:13" ht="14.25" thickTop="1">
-      <c r="C17" s="66"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39" t="s">
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="H16" s="119">
+        <f>AVERAGE(H5:H14)</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" ht="12" thickBot="1"/>
+    <row r="20" spans="2:13" ht="17.25" thickTop="1">
+      <c r="C20" s="66"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39" t="s">
+        <v>235</v>
+      </c>
+      <c r="F20" s="39" t="s">
         <v>236</v>
       </c>
-      <c r="F17" s="39" t="s">
+      <c r="G20" s="39" t="s">
         <v>237</v>
       </c>
-      <c r="G17" s="39" t="s">
+      <c r="H20" s="39" t="s">
         <v>238</v>
       </c>
-      <c r="H17" s="39" t="s">
+      <c r="I20" s="39" t="s">
         <v>239</v>
       </c>
-      <c r="I17" s="39" t="s">
+      <c r="J20" s="39" t="s">
         <v>240</v>
       </c>
-      <c r="J17" s="39" t="s">
+      <c r="K20" s="39" t="s">
         <v>241</v>
       </c>
-      <c r="K17" s="39" t="s">
-        <v>242</v>
-      </c>
-      <c r="L17" s="39" t="s">
+      <c r="L20" s="39" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="20.25">
-      <c r="B18" s="63" t="s">
-        <v>229</v>
-      </c>
-      <c r="C18" s="67"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-    </row>
-    <row r="19" spans="1:13" ht="20.25">
-      <c r="B19" s="61"/>
-      <c r="C19" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="54"/>
-      <c r="E19" s="78" t="s">
-        <v>63</v>
-      </c>
-      <c r="F19" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="G19" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="H19" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="I19" s="35" t="s">
-        <v>245</v>
-      </c>
-      <c r="J19" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="K19" s="78" t="s">
-        <v>63</v>
-      </c>
-      <c r="L19" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="M19" s="75">
-        <f>AVERAGE(SUBSTITUTE(I19,"0.5", ""), SUBSTITUTE(J19,"0.5", ""), SUBSTITUTE(F19,"0.5", ""),SUBSTITUTE(G19,"0.5", ""), SUBSTITUTE(H19,"0.5", ""))</f>
-        <v>0.82999999999999985</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="11.25" customHeight="1">
-      <c r="B20" s="61"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="G20" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="H20" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="I20" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="J20" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="K20" s="78"/>
-      <c r="L20" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="M20" s="73"/>
-    </row>
-    <row r="21" spans="1:13" ht="16.5" customHeight="1">
-      <c r="B21" s="61"/>
-      <c r="C21" s="64" t="s">
-        <v>232</v>
-      </c>
-      <c r="D21" s="55"/>
-      <c r="E21" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="F21" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="G21" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="H21" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="I21" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="J21" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="K21" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="L21" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="M21" s="77">
-        <f>AVERAGE(SUBSTITUTE(I21,"ms", ""), SUBSTITUTE(J21,"ms", ""), SUBSTITUTE(K21,"ms", ""), SUBSTITUTE(E21,"ms", ""), SUBSTITUTE(F21,"ms", ""),SUBSTITUTE(G21,"ms", ""), SUBSTITUTE(H21,"ms", ""))</f>
-        <v>540.28571428571433</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="16.5" customHeight="1">
+    <row r="21" spans="2:13" ht="20.25">
+      <c r="B21" s="63" t="s">
+        <v>228</v>
+      </c>
+      <c r="C21" s="67"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="60"/>
+    </row>
+    <row r="22" spans="2:13" ht="20.25">
       <c r="B22" s="61"/>
       <c r="C22" s="68" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="D22" s="54"/>
-      <c r="E22" s="35" t="s">
-        <v>78</v>
+      <c r="E22" s="78" t="s">
+        <v>63</v>
       </c>
       <c r="F22" s="35" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="G22" s="35" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="H22" s="35" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="I22" s="35" t="s">
-        <v>76</v>
+        <v>244</v>
       </c>
       <c r="J22" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="K22" s="35" t="s">
-        <v>78</v>
+        <v>62</v>
+      </c>
+      <c r="K22" s="78" t="s">
+        <v>63</v>
       </c>
       <c r="L22" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="M22" s="74">
-        <f>AVERAGE(SUBSTITUTE(I22,"rpm", ""), SUBSTITUTE(J22,"rpm", ""), SUBSTITUTE(K22,"rpm", ""), SUBSTITUTE(E22,"rpm", ""), SUBSTITUTE(F22,"rpm", ""),SUBSTITUTE(G22,"rpm", ""), SUBSTITUTE(H22,"rpm", ""))</f>
-        <v>1.0715142857142856</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="16.5" customHeight="1">
+        <v>67</v>
+      </c>
+      <c r="M22" s="75">
+        <f>AVERAGE(SUBSTITUTE(I22,"0.5", ""), SUBSTITUTE(J22,"0.5", ""), SUBSTITUTE(F22,"0.5", ""),SUBSTITUTE(G22,"0.5", ""), SUBSTITUTE(H22,"0.5", ""))</f>
+        <v>0.82999999999999985</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" ht="11.25" customHeight="1">
       <c r="B23" s="61"/>
-      <c r="C23" s="64" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="55"/>
-      <c r="E23" s="38">
-        <v>0</v>
-      </c>
-      <c r="F23" s="40">
-        <v>1.6899999999999998E-2</v>
-      </c>
-      <c r="G23" s="38">
-        <v>0</v>
-      </c>
-      <c r="H23" s="40">
-        <v>1.7600000000000001E-2</v>
-      </c>
-      <c r="I23" s="38">
-        <v>0</v>
-      </c>
-      <c r="J23" s="40">
-        <v>7.2199999999999999E-3</v>
-      </c>
-      <c r="K23" s="38">
-        <v>0</v>
-      </c>
-      <c r="L23" s="40">
-        <v>9.7199999999999995E-3</v>
-      </c>
-      <c r="M23" s="73">
-        <f>AVERAGE(E23:K23)</f>
-        <v>5.96E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="16.5" customHeight="1">
-      <c r="B24" s="63" t="s">
-        <v>230</v>
-      </c>
-      <c r="C24" s="64"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="G23" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="H23" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="I23" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="J23" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="K23" s="78"/>
+      <c r="L23" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="M23" s="73"/>
+    </row>
+    <row r="24" spans="2:13" ht="16.5" customHeight="1">
+      <c r="B24" s="61"/>
+      <c r="C24" s="64" t="s">
+        <v>231</v>
+      </c>
       <c r="D24" s="55"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="73"/>
-    </row>
-    <row r="25" spans="1:13" ht="16.5" customHeight="1">
+      <c r="E24" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="G24" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="H24" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="I24" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="J24" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="K24" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="L24" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="M24" s="77">
+        <f>AVERAGE(SUBSTITUTE(I24,"ms", ""), SUBSTITUTE(J24,"ms", ""), SUBSTITUTE(K24,"ms", ""), SUBSTITUTE(E24,"ms", ""), SUBSTITUTE(F24,"ms", ""),SUBSTITUTE(G24,"ms", ""), SUBSTITUTE(H24,"ms", ""))</f>
+        <v>540.28571428571433</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" ht="16.5" customHeight="1">
       <c r="B25" s="61"/>
       <c r="C25" s="68" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="D25" s="54"/>
-      <c r="E25" s="36">
+      <c r="E25" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="H25" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="I25" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="J25" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="K25" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="L25" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="M25" s="74">
+        <f>AVERAGE(SUBSTITUTE(I25,"rpm", ""), SUBSTITUTE(J25,"rpm", ""), SUBSTITUTE(K25,"rpm", ""), SUBSTITUTE(E25,"rpm", ""), SUBSTITUTE(F25,"rpm", ""),SUBSTITUTE(G25,"rpm", ""), SUBSTITUTE(H25,"rpm", ""))</f>
+        <v>1.0715142857142856</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" ht="16.5" customHeight="1">
+      <c r="B26" s="61"/>
+      <c r="C26" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="55"/>
+      <c r="E26" s="38">
         <v>0</v>
       </c>
-      <c r="F25" s="36">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="G25" s="36">
-        <v>2.3E-2</v>
-      </c>
-      <c r="H25" s="36">
-        <v>1.4E-2</v>
-      </c>
-      <c r="I25" s="36">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="J25" s="36">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="K25" s="36">
+      <c r="F26" s="40">
+        <v>1.6899999999999998E-2</v>
+      </c>
+      <c r="G26" s="38">
         <v>0</v>
       </c>
-      <c r="L25" s="36">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="M25" s="73">
-        <f>AVERAGE(E25:K25)</f>
-        <v>9.5714285714285727E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="16.5" customHeight="1">
-      <c r="B26" s="63" t="s">
-        <v>231</v>
-      </c>
-      <c r="C26" s="68"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="73"/>
-    </row>
-    <row r="27" spans="1:13" ht="16.5" customHeight="1">
-      <c r="B27" s="61"/>
-      <c r="C27" s="68" t="s">
-        <v>220</v>
-      </c>
-      <c r="D27" s="54"/>
-      <c r="E27" s="36">
+      <c r="H26" s="40">
+        <v>1.7600000000000001E-2</v>
+      </c>
+      <c r="I26" s="38">
         <v>0</v>
       </c>
-      <c r="F27" s="36">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G27" s="36">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="H27" s="36">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="I27" s="36">
-        <v>1E-3</v>
-      </c>
-      <c r="J27" s="36">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="K27" s="36">
+      <c r="J26" s="40">
+        <v>7.2199999999999999E-3</v>
+      </c>
+      <c r="K26" s="38">
         <v>0</v>
       </c>
-      <c r="L27" s="36">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="M27" s="73">
-        <f>AVERAGE(E27:K27)</f>
-        <v>3.0000000000000005E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="16.5" customHeight="1">
+      <c r="L26" s="40">
+        <v>9.7199999999999995E-3</v>
+      </c>
+      <c r="M26" s="73">
+        <f>AVERAGE(E26:K26)</f>
+        <v>5.96E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" ht="16.5" customHeight="1">
+      <c r="B27" s="63" t="s">
+        <v>229</v>
+      </c>
+      <c r="C27" s="64"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="73"/>
+    </row>
+    <row r="28" spans="2:13" ht="16.5" customHeight="1">
       <c r="B28" s="61"/>
       <c r="C28" s="68" t="s">
-        <v>213</v>
+        <v>92</v>
       </c>
       <c r="D28" s="54"/>
       <c r="E28" s="36">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F28" s="36">
-        <v>0.40500000000000003</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="G28" s="36">
-        <v>0.44400000000000001</v>
+        <v>2.3E-2</v>
       </c>
       <c r="H28" s="36">
-        <v>0.45</v>
+        <v>1.4E-2</v>
       </c>
       <c r="I28" s="36">
-        <v>0.46700000000000003</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="J28" s="36">
-        <v>0.44400000000000001</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="K28" s="36">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L28" s="36">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="M28" s="73">
+        <f>AVERAGE(E28:K28)</f>
+        <v>9.5714285714285727E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" ht="16.5" customHeight="1">
+      <c r="B29" s="63" t="s">
+        <v>230</v>
+      </c>
+      <c r="C29" s="68"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="73"/>
+    </row>
+    <row r="30" spans="2:13" ht="16.5" customHeight="1">
+      <c r="B30" s="61"/>
+      <c r="C30" s="68" t="s">
+        <v>219</v>
+      </c>
+      <c r="D30" s="54"/>
+      <c r="E30" s="36">
+        <v>0</v>
+      </c>
+      <c r="F30" s="36">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G30" s="36">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H30" s="36">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I30" s="36">
+        <v>1E-3</v>
+      </c>
+      <c r="J30" s="36">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="K30" s="36">
+        <v>0</v>
+      </c>
+      <c r="L30" s="36">
         <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="M28" s="72">
-        <f>AVERAGE(E27:L28)</f>
-        <v>0.15231250000000002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="16.5" customHeight="1">
-      <c r="B29" s="61"/>
-      <c r="C29" s="64" t="s">
-        <v>218</v>
-      </c>
-      <c r="D29" s="55"/>
-      <c r="E29" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="F29" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="G29" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="H29" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="I29" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="J29" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="K29" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="L29" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="M29" s="77">
-        <f>AVERAGE(SUBSTITUTE(I29,"MB", ""), SUBSTITUTE(J29,"MB", ""), SUBSTITUTE(K29,"MB", ""), SUBSTITUTE(E29,"MB", ""), SUBSTITUTE(F29,"MB", ""),SUBSTITUTE(G29,"MB", ""), SUBSTITUTE(H29,"MB", ""))</f>
-        <v>333.28571428571428</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" s="57" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A30" s="56"/>
-      <c r="B30" s="62"/>
-      <c r="C30" s="69" t="s">
-        <v>214</v>
-      </c>
-      <c r="D30" s="58"/>
-      <c r="E30" s="36">
-        <v>0.4</v>
-      </c>
-      <c r="F30" s="36">
-        <v>0.40500000000000003</v>
-      </c>
-      <c r="G30" s="36">
-        <v>0.44400000000000001</v>
-      </c>
-      <c r="H30" s="36">
-        <v>0.45</v>
-      </c>
-      <c r="I30" s="36">
-        <v>0.46700000000000003</v>
-      </c>
-      <c r="J30" s="36">
-        <v>0.44400000000000001</v>
-      </c>
-      <c r="K30" s="36">
-        <v>0.4</v>
-      </c>
-      <c r="L30" s="36">
-        <v>0.42480000000000001</v>
       </c>
       <c r="M30" s="73">
         <f>AVERAGE(E30:K30)</f>
+        <v>3.0000000000000005E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" ht="16.5" customHeight="1">
+      <c r="B31" s="61"/>
+      <c r="C31" s="68" t="s">
+        <v>212</v>
+      </c>
+      <c r="D31" s="54"/>
+      <c r="E31" s="36">
+        <v>0.1</v>
+      </c>
+      <c r="F31" s="36">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="G31" s="36">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="H31" s="36">
+        <v>0.45</v>
+      </c>
+      <c r="I31" s="36">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="J31" s="36">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="K31" s="36">
+        <v>0.1</v>
+      </c>
+      <c r="L31" s="36">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="M31" s="72">
+        <f>AVERAGE(E30:L31)</f>
+        <v>0.15231250000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" ht="16.5" customHeight="1">
+      <c r="B32" s="61"/>
+      <c r="C32" s="64" t="s">
+        <v>217</v>
+      </c>
+      <c r="D32" s="55"/>
+      <c r="E32" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="F32" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="G32" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="H32" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="I32" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="J32" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="K32" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="L32" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="M32" s="77">
+        <f>AVERAGE(SUBSTITUTE(I32,"MB", ""), SUBSTITUTE(J32,"MB", ""), SUBSTITUTE(K32,"MB", ""), SUBSTITUTE(E32,"MB", ""), SUBSTITUTE(F32,"MB", ""),SUBSTITUTE(G32,"MB", ""), SUBSTITUTE(H32,"MB", ""))</f>
+        <v>333.28571428571428</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" s="57" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A33" s="56"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="69" t="s">
+        <v>213</v>
+      </c>
+      <c r="D33" s="58"/>
+      <c r="E33" s="36">
+        <v>0.4</v>
+      </c>
+      <c r="F33" s="36">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="G33" s="36">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="H33" s="36">
+        <v>0.45</v>
+      </c>
+      <c r="I33" s="36">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="J33" s="36">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="K33" s="36">
+        <v>0.4</v>
+      </c>
+      <c r="L33" s="36">
+        <v>0.42480000000000001</v>
+      </c>
+      <c r="M33" s="73">
+        <f>AVERAGE(E33:K33)</f>
         <v>0.43</v>
       </c>
     </row>
-    <row r="31" spans="1:13" s="57" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A31" s="56"/>
-      <c r="B31" s="62"/>
-      <c r="C31" s="69" t="s">
-        <v>219</v>
-      </c>
-      <c r="D31" s="58"/>
-      <c r="E31" s="59">
-        <f>E30*8</f>
+    <row r="34" spans="1:13" s="57" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A34" s="56"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="69" t="s">
+        <v>218</v>
+      </c>
+      <c r="D34" s="58"/>
+      <c r="E34" s="59">
+        <f>E33*8</f>
         <v>3.2</v>
       </c>
-      <c r="F31" s="59">
-        <f t="shared" ref="F31:L31" si="0">F30*8</f>
+      <c r="F34" s="59">
+        <f t="shared" ref="F34:L34" si="0">F33*8</f>
         <v>3.24</v>
       </c>
-      <c r="G31" s="59">
+      <c r="G34" s="59">
         <f t="shared" si="0"/>
         <v>3.552</v>
       </c>
-      <c r="H31" s="59">
+      <c r="H34" s="59">
         <f t="shared" si="0"/>
         <v>3.6</v>
       </c>
-      <c r="I31" s="59">
+      <c r="I34" s="59">
         <f t="shared" si="0"/>
         <v>3.7360000000000002</v>
       </c>
-      <c r="J31" s="59">
+      <c r="J34" s="59">
         <f t="shared" si="0"/>
         <v>3.552</v>
       </c>
-      <c r="K31" s="59">
+      <c r="K34" s="59">
         <f t="shared" si="0"/>
         <v>3.2</v>
       </c>
-      <c r="L31" s="76">
+      <c r="L34" s="76">
         <f t="shared" si="0"/>
         <v>3.3984000000000001</v>
       </c>
-      <c r="M31" s="75">
-        <f>AVERAGE(E31:K31)</f>
+      <c r="M34" s="75">
+        <f>AVERAGE(E34:K34)</f>
         <v>3.44</v>
       </c>
     </row>
-    <row r="32" spans="1:13" s="57" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A32" s="56"/>
-      <c r="B32" s="62"/>
-      <c r="C32" s="69"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="59"/>
-      <c r="I32" s="59"/>
-      <c r="J32" s="59"/>
-      <c r="K32" s="59"/>
-      <c r="L32" s="59"/>
-    </row>
-    <row r="33" spans="2:8" ht="20.25">
-      <c r="B33" s="61" t="s">
+    <row r="35" spans="1:13" s="57" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A35" s="56"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="69"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="59"/>
+      <c r="I35" s="59"/>
+      <c r="J35" s="59"/>
+      <c r="K35" s="59"/>
+      <c r="L35" s="59"/>
+    </row>
+    <row r="36" spans="1:13" ht="20.25">
+      <c r="B36" s="61" t="s">
+        <v>232</v>
+      </c>
+      <c r="G36" t="s">
         <v>233</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H36" t="s">
         <v>234</v>
       </c>
-      <c r="H33" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" ht="12.75">
-      <c r="C34" s="70" t="s">
+    </row>
+    <row r="37" spans="1:13" ht="12.75">
+      <c r="C37" s="70" t="s">
+        <v>220</v>
+      </c>
+      <c r="G37" t="s">
+        <v>242</v>
+      </c>
+      <c r="H37" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="12.75">
+      <c r="C38" s="70" t="s">
         <v>221</v>
       </c>
-      <c r="G34" t="s">
-        <v>243</v>
-      </c>
-      <c r="H34" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" ht="12.75">
-      <c r="C35" s="70" t="s">
+    </row>
+    <row r="39" spans="1:13" ht="12.75">
+      <c r="C39" s="70" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="12.75">
+      <c r="C40" s="70" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="12.75">
+      <c r="C41" s="70" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="12.75">
+      <c r="C42" s="70" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="12.75">
+      <c r="C43" s="70" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="12.75">
+      <c r="C44" s="71" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="36" spans="2:8" ht="12.75">
-      <c r="C36" s="70" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" ht="12.75">
-      <c r="C37" s="70" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" ht="12.75">
-      <c r="C38" s="70" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" ht="12.75">
-      <c r="C39" s="70" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" ht="12.75">
-      <c r="C40" s="70" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" ht="12.75">
-      <c r="C41" s="71" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" ht="12.75">
-      <c r="C42" s="70"/>
-    </row>
-    <row r="43" spans="2:8" ht="12.75">
-      <c r="C43" s="70"/>
+    <row r="45" spans="1:13" ht="12.75">
+      <c r="C45" s="70"/>
+    </row>
+    <row r="46" spans="1:13" ht="12.75">
+      <c r="C46" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="E22:E23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="H16" emptyCellReference="1"/>
+  </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -4501,215 +4531,215 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="15" thickBot="1"/>
-    <row r="10" spans="1:19" ht="15" thickTop="1">
-      <c r="A10" s="96"/>
-      <c r="B10" s="96"/>
-      <c r="C10" s="96"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="96"/>
-      <c r="I10" s="96"/>
-      <c r="J10" s="96"/>
-      <c r="K10" s="96"/>
-      <c r="L10" s="96"/>
-      <c r="M10" s="96"/>
-      <c r="N10" s="96"/>
-      <c r="O10" s="96"/>
-      <c r="P10" s="96"/>
-      <c r="Q10" s="96"/>
-      <c r="R10" s="96"/>
-      <c r="S10" s="96"/>
+    <row r="10" spans="1:19" ht="17.25" thickTop="1">
+      <c r="A10" s="108"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="108"/>
+      <c r="K10" s="108"/>
+      <c r="L10" s="108"/>
+      <c r="M10" s="108"/>
+      <c r="N10" s="108"/>
+      <c r="O10" s="108"/>
+      <c r="P10" s="108"/>
+      <c r="Q10" s="108"/>
+      <c r="R10" s="108"/>
+      <c r="S10" s="108"/>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="80"/>
-      <c r="B11" s="80"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="80"/>
-      <c r="I11" s="80"/>
-      <c r="J11" s="80"/>
-      <c r="K11" s="80"/>
-      <c r="L11" s="80"/>
-      <c r="M11" s="80"/>
-      <c r="N11" s="80"/>
-      <c r="O11" s="80"/>
-      <c r="P11" s="80"/>
-      <c r="Q11" s="80"/>
-      <c r="R11" s="80"/>
-      <c r="S11" s="80"/>
+      <c r="A11" s="99"/>
+      <c r="B11" s="99"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="99"/>
+      <c r="I11" s="99"/>
+      <c r="J11" s="99"/>
+      <c r="K11" s="99"/>
+      <c r="L11" s="99"/>
+      <c r="M11" s="99"/>
+      <c r="N11" s="99"/>
+      <c r="O11" s="99"/>
+      <c r="P11" s="99"/>
+      <c r="Q11" s="99"/>
+      <c r="R11" s="99"/>
+      <c r="S11" s="99"/>
     </row>
     <row r="12" spans="1:19" ht="33" customHeight="1">
-      <c r="A12" s="97" t="s">
+      <c r="A12" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="97"/>
-      <c r="C12" s="97"/>
-      <c r="D12" s="97"/>
-      <c r="E12" s="97"/>
-      <c r="F12" s="97"/>
-      <c r="G12" s="97"/>
-      <c r="H12" s="97"/>
-      <c r="I12" s="97"/>
-      <c r="J12" s="97"/>
-      <c r="K12" s="97"/>
-      <c r="L12" s="97"/>
-      <c r="M12" s="97"/>
-      <c r="N12" s="97"/>
-      <c r="O12" s="97"/>
-      <c r="P12" s="97"/>
-      <c r="Q12" s="97"/>
-      <c r="R12" s="97"/>
-      <c r="S12" s="97"/>
+      <c r="B12" s="109"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="109"/>
+      <c r="E12" s="109"/>
+      <c r="F12" s="109"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="109"/>
+      <c r="J12" s="109"/>
+      <c r="K12" s="109"/>
+      <c r="L12" s="109"/>
+      <c r="M12" s="109"/>
+      <c r="N12" s="109"/>
+      <c r="O12" s="109"/>
+      <c r="P12" s="109"/>
+      <c r="Q12" s="109"/>
+      <c r="R12" s="109"/>
+      <c r="S12" s="109"/>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="80"/>
-      <c r="B13" s="80"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="80"/>
-      <c r="I13" s="80"/>
-      <c r="J13" s="80"/>
-      <c r="K13" s="80"/>
-      <c r="L13" s="80"/>
-      <c r="M13" s="80"/>
-      <c r="N13" s="80"/>
-      <c r="O13" s="80"/>
-      <c r="P13" s="80"/>
-      <c r="Q13" s="80"/>
-      <c r="R13" s="80"/>
-      <c r="S13" s="80"/>
+      <c r="A13" s="99"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="99"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="99"/>
+      <c r="M13" s="99"/>
+      <c r="N13" s="99"/>
+      <c r="O13" s="99"/>
+      <c r="P13" s="99"/>
+      <c r="Q13" s="99"/>
+      <c r="R13" s="99"/>
+      <c r="S13" s="99"/>
     </row>
     <row r="14" spans="1:19" ht="27" customHeight="1">
-      <c r="A14" s="95" t="s">
+      <c r="A14" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="95"/>
-      <c r="C14" s="95"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="95"/>
-      <c r="H14" s="95"/>
-      <c r="I14" s="95"/>
-      <c r="J14" s="95"/>
-      <c r="K14" s="95"/>
-      <c r="L14" s="95"/>
-      <c r="M14" s="95"/>
-      <c r="N14" s="95"/>
-      <c r="O14" s="95"/>
-      <c r="P14" s="95"/>
-      <c r="Q14" s="95"/>
-      <c r="R14" s="95"/>
-      <c r="S14" s="95"/>
+      <c r="B14" s="86"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="86"/>
+      <c r="L14" s="86"/>
+      <c r="M14" s="86"/>
+      <c r="N14" s="86"/>
+      <c r="O14" s="86"/>
+      <c r="P14" s="86"/>
+      <c r="Q14" s="86"/>
+      <c r="R14" s="86"/>
+      <c r="S14" s="86"/>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="80"/>
-      <c r="B15" s="80"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="80"/>
-      <c r="K15" s="80"/>
-      <c r="L15" s="80"/>
-      <c r="M15" s="80"/>
-      <c r="N15" s="80"/>
-      <c r="O15" s="80"/>
-      <c r="P15" s="80"/>
-      <c r="Q15" s="80"/>
-      <c r="R15" s="80"/>
-      <c r="S15" s="80"/>
+      <c r="A15" s="99"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="99"/>
+      <c r="I15" s="99"/>
+      <c r="J15" s="99"/>
+      <c r="K15" s="99"/>
+      <c r="L15" s="99"/>
+      <c r="M15" s="99"/>
+      <c r="N15" s="99"/>
+      <c r="O15" s="99"/>
+      <c r="P15" s="99"/>
+      <c r="Q15" s="99"/>
+      <c r="R15" s="99"/>
+      <c r="S15" s="99"/>
     </row>
     <row r="16" spans="1:19" ht="20.25" customHeight="1">
-      <c r="A16" s="86" t="s">
+      <c r="A16" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="86"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="86"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="86"/>
-      <c r="K16" s="86"/>
-      <c r="L16" s="86"/>
-      <c r="M16" s="86"/>
-      <c r="N16" s="86"/>
-      <c r="O16" s="86"/>
-      <c r="P16" s="86"/>
-      <c r="Q16" s="86"/>
-      <c r="R16" s="86"/>
-      <c r="S16" s="86"/>
+      <c r="B16" s="106"/>
+      <c r="C16" s="106"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="106"/>
+      <c r="F16" s="106"/>
+      <c r="G16" s="106"/>
+      <c r="H16" s="106"/>
+      <c r="I16" s="106"/>
+      <c r="J16" s="106"/>
+      <c r="K16" s="106"/>
+      <c r="L16" s="106"/>
+      <c r="M16" s="106"/>
+      <c r="N16" s="106"/>
+      <c r="O16" s="106"/>
+      <c r="P16" s="106"/>
+      <c r="Q16" s="106"/>
+      <c r="R16" s="106"/>
+      <c r="S16" s="106"/>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" s="80"/>
-      <c r="B17" s="80"/>
-      <c r="C17" s="80"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="80"/>
-      <c r="I17" s="80"/>
-      <c r="J17" s="80"/>
-      <c r="K17" s="80"/>
-      <c r="L17" s="80"/>
-      <c r="M17" s="80"/>
-      <c r="N17" s="80"/>
-      <c r="O17" s="80"/>
-      <c r="P17" s="80"/>
-      <c r="Q17" s="80"/>
-      <c r="R17" s="80"/>
-      <c r="S17" s="80"/>
+      <c r="A17" s="99"/>
+      <c r="B17" s="99"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="99"/>
+      <c r="H17" s="99"/>
+      <c r="I17" s="99"/>
+      <c r="J17" s="99"/>
+      <c r="K17" s="99"/>
+      <c r="L17" s="99"/>
+      <c r="M17" s="99"/>
+      <c r="N17" s="99"/>
+      <c r="O17" s="99"/>
+      <c r="P17" s="99"/>
+      <c r="Q17" s="99"/>
+      <c r="R17" s="99"/>
+      <c r="S17" s="99"/>
     </row>
     <row r="18" spans="1:19">
-      <c r="A18" s="85" t="s">
+      <c r="A18" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="85"/>
-      <c r="C18" s="85"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="85"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="85"/>
-      <c r="I18" s="85"/>
-      <c r="J18" s="85"/>
-      <c r="K18" s="85"/>
-      <c r="L18" s="85"/>
-      <c r="M18" s="85"/>
-      <c r="N18" s="85"/>
-      <c r="O18" s="85"/>
-      <c r="P18" s="85"/>
-      <c r="Q18" s="85"/>
-      <c r="R18" s="85"/>
-      <c r="S18" s="85"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="80"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="80"/>
+      <c r="M18" s="80"/>
+      <c r="N18" s="80"/>
+      <c r="O18" s="80"/>
+      <c r="P18" s="80"/>
+      <c r="Q18" s="80"/>
+      <c r="R18" s="80"/>
+      <c r="S18" s="80"/>
     </row>
     <row r="19" spans="1:19">
-      <c r="A19" s="105" t="s">
+      <c r="A19" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="105"/>
-      <c r="C19" s="105"/>
-      <c r="D19" s="105"/>
-      <c r="E19" s="105"/>
-      <c r="F19" s="105"/>
-      <c r="G19" s="105"/>
-      <c r="H19" s="105"/>
-      <c r="I19" s="85" t="s">
+      <c r="B19" s="79"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="80" t="s">
         <v>11</v>
       </c>
       <c r="J19" s="4"/>
@@ -4724,15 +4754,15 @@
       <c r="S19" s="4"/>
     </row>
     <row r="20" spans="1:19">
-      <c r="A20" s="105"/>
-      <c r="B20" s="105"/>
-      <c r="C20" s="105"/>
-      <c r="D20" s="105"/>
-      <c r="E20" s="105"/>
-      <c r="F20" s="105"/>
-      <c r="G20" s="105"/>
-      <c r="H20" s="105"/>
-      <c r="I20" s="85"/>
+      <c r="A20" s="79"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="80"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
@@ -4745,83 +4775,83 @@
       <c r="S20" s="4"/>
     </row>
     <row r="21" spans="1:19" ht="27" customHeight="1">
-      <c r="A21" s="98" t="s">
+      <c r="A21" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="98"/>
-      <c r="C21" s="98"/>
-      <c r="D21" s="98"/>
-      <c r="E21" s="98"/>
-      <c r="F21" s="98"/>
-      <c r="G21" s="98"/>
-      <c r="H21" s="106"/>
+      <c r="B21" s="81"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="81"/>
+      <c r="H21" s="82"/>
       <c r="I21" s="8">
         <v>2180</v>
       </c>
-      <c r="J21" s="109">
+      <c r="J21" s="85">
         <v>0.97</v>
       </c>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="110"/>
+      <c r="K21" s="86"/>
+      <c r="L21" s="86"/>
+      <c r="M21" s="87"/>
       <c r="N21" s="10">
         <v>3.2499999999999999E-3</v>
       </c>
-      <c r="O21" s="84"/>
+      <c r="O21" s="91"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
     </row>
     <row r="22" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A22" s="107" t="s">
+      <c r="A22" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="107"/>
-      <c r="C22" s="107"/>
-      <c r="D22" s="107"/>
-      <c r="E22" s="107"/>
-      <c r="F22" s="107"/>
-      <c r="G22" s="107"/>
-      <c r="H22" s="108"/>
+      <c r="B22" s="83"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="83"/>
+      <c r="H22" s="84"/>
       <c r="I22" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J22" s="111" t="s">
+      <c r="J22" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="K22" s="112"/>
-      <c r="L22" s="112"/>
-      <c r="M22" s="113"/>
+      <c r="K22" s="89"/>
+      <c r="L22" s="89"/>
+      <c r="M22" s="90"/>
       <c r="N22" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="O22" s="84"/>
+      <c r="O22" s="91"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
     </row>
     <row r="23" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A23" s="114">
+      <c r="A23" s="92">
         <v>8.6400000000000005E-2</v>
       </c>
-      <c r="B23" s="114"/>
-      <c r="C23" s="114"/>
-      <c r="D23" s="114"/>
-      <c r="E23" s="114"/>
-      <c r="F23" s="114"/>
-      <c r="G23" s="114"/>
-      <c r="H23" s="115"/>
+      <c r="B23" s="92"/>
+      <c r="C23" s="92"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="92"/>
+      <c r="H23" s="93"/>
       <c r="I23" s="12">
         <v>4.4000000000000004</v>
       </c>
-      <c r="J23" s="116" t="s">
+      <c r="J23" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="K23" s="117"/>
-      <c r="L23" s="117"/>
-      <c r="M23" s="118"/>
+      <c r="K23" s="95"/>
+      <c r="L23" s="95"/>
+      <c r="M23" s="96"/>
       <c r="N23" s="11">
         <v>0.54</v>
       </c>
@@ -4834,71 +4864,71 @@
       <c r="S23" s="4"/>
     </row>
     <row r="24" spans="1:19">
-      <c r="A24" s="80"/>
-      <c r="B24" s="80"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="80"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="80"/>
-      <c r="H24" s="80"/>
-      <c r="I24" s="80"/>
-      <c r="J24" s="80"/>
-      <c r="K24" s="80"/>
-      <c r="L24" s="80"/>
-      <c r="M24" s="80"/>
-      <c r="N24" s="80"/>
-      <c r="O24" s="80"/>
-      <c r="P24" s="80"/>
-      <c r="Q24" s="80"/>
-      <c r="R24" s="80"/>
-      <c r="S24" s="80"/>
+      <c r="A24" s="99"/>
+      <c r="B24" s="99"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="99"/>
+      <c r="I24" s="99"/>
+      <c r="J24" s="99"/>
+      <c r="K24" s="99"/>
+      <c r="L24" s="99"/>
+      <c r="M24" s="99"/>
+      <c r="N24" s="99"/>
+      <c r="O24" s="99"/>
+      <c r="P24" s="99"/>
+      <c r="Q24" s="99"/>
+      <c r="R24" s="99"/>
+      <c r="S24" s="99"/>
     </row>
     <row r="25" spans="1:19" ht="27" customHeight="1">
-      <c r="A25" s="95" t="s">
+      <c r="A25" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="95"/>
-      <c r="C25" s="95"/>
-      <c r="D25" s="95"/>
-      <c r="E25" s="95"/>
-      <c r="F25" s="95"/>
-      <c r="G25" s="95"/>
-      <c r="H25" s="95"/>
-      <c r="I25" s="95"/>
-      <c r="J25" s="95"/>
-      <c r="K25" s="95"/>
-      <c r="L25" s="95"/>
-      <c r="M25" s="95"/>
-      <c r="N25" s="95"/>
-      <c r="O25" s="95"/>
-      <c r="P25" s="95"/>
-      <c r="Q25" s="95"/>
-      <c r="R25" s="95"/>
-      <c r="S25" s="95"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="86"/>
+      <c r="I25" s="86"/>
+      <c r="J25" s="86"/>
+      <c r="K25" s="86"/>
+      <c r="L25" s="86"/>
+      <c r="M25" s="86"/>
+      <c r="N25" s="86"/>
+      <c r="O25" s="86"/>
+      <c r="P25" s="86"/>
+      <c r="Q25" s="86"/>
+      <c r="R25" s="86"/>
+      <c r="S25" s="86"/>
     </row>
     <row r="26" spans="1:19">
-      <c r="A26" s="80"/>
-      <c r="B26" s="80"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="80"/>
-      <c r="E26" s="80"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="80"/>
-      <c r="H26" s="80"/>
-      <c r="I26" s="80"/>
-      <c r="J26" s="80"/>
-      <c r="K26" s="80"/>
-      <c r="L26" s="80"/>
-      <c r="M26" s="80"/>
-      <c r="N26" s="80"/>
-      <c r="O26" s="80"/>
-      <c r="P26" s="80"/>
-      <c r="Q26" s="80"/>
-      <c r="R26" s="80"/>
-      <c r="S26" s="80"/>
-    </row>
-    <row r="27" spans="1:19">
+      <c r="A26" s="99"/>
+      <c r="B26" s="99"/>
+      <c r="C26" s="99"/>
+      <c r="D26" s="99"/>
+      <c r="E26" s="99"/>
+      <c r="F26" s="99"/>
+      <c r="G26" s="99"/>
+      <c r="H26" s="99"/>
+      <c r="I26" s="99"/>
+      <c r="J26" s="99"/>
+      <c r="K26" s="99"/>
+      <c r="L26" s="99"/>
+      <c r="M26" s="99"/>
+      <c r="N26" s="99"/>
+      <c r="O26" s="99"/>
+      <c r="P26" s="99"/>
+      <c r="Q26" s="99"/>
+      <c r="R26" s="99"/>
+      <c r="S26" s="99"/>
+    </row>
+    <row r="27" spans="1:19" ht="16.5">
       <c r="A27" s="43"/>
       <c r="B27" s="44" t="s">
         <v>20</v>
@@ -4921,7 +4951,7 @@
       <c r="H27" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="I27" s="84"/>
+      <c r="I27" s="91"/>
       <c r="J27" s="78" t="s">
         <v>25</v>
       </c>
@@ -4935,7 +4965,7 @@
       <c r="R27" s="4"/>
       <c r="S27" s="4"/>
     </row>
-    <row r="28" spans="1:19" ht="15" thickBot="1">
+    <row r="28" spans="1:19" ht="17.25" thickBot="1">
       <c r="A28" s="14">
         <v>42856</v>
       </c>
@@ -4946,9 +4976,9 @@
       <c r="F28" s="45"/>
       <c r="G28" s="46"/>
       <c r="H28" s="47"/>
-      <c r="I28" s="84"/>
+      <c r="I28" s="91"/>
       <c r="J28" s="16"/>
-      <c r="K28" s="84"/>
+      <c r="K28" s="91"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
@@ -4958,7 +4988,7 @@
       <c r="R28" s="4"/>
       <c r="S28" s="4"/>
     </row>
-    <row r="29" spans="1:19" ht="28.5" thickTop="1" thickBot="1">
+    <row r="29" spans="1:19" ht="18" thickTop="1" thickBot="1">
       <c r="A29" s="43"/>
       <c r="B29" s="48"/>
       <c r="C29" s="49"/>
@@ -4967,9 +4997,9 @@
       <c r="F29" s="43"/>
       <c r="G29" s="43"/>
       <c r="H29" s="43"/>
-      <c r="I29" s="84"/>
+      <c r="I29" s="91"/>
       <c r="J29" s="17"/>
-      <c r="K29" s="84"/>
+      <c r="K29" s="91"/>
       <c r="L29" s="18"/>
       <c r="M29" s="5" t="s">
         <v>26</v>
@@ -4981,18 +5011,18 @@
       <c r="R29" s="4"/>
       <c r="S29" s="4"/>
     </row>
-    <row r="30" spans="1:19" ht="15.75" thickTop="1" thickBot="1">
-      <c r="A30" s="104"/>
-      <c r="B30" s="104"/>
-      <c r="C30" s="104"/>
-      <c r="D30" s="104"/>
-      <c r="E30" s="104"/>
-      <c r="F30" s="104"/>
-      <c r="G30" s="104"/>
-      <c r="H30" s="104"/>
-      <c r="I30" s="84"/>
+    <row r="30" spans="1:19" ht="18" thickTop="1" thickBot="1">
+      <c r="A30" s="97"/>
+      <c r="B30" s="97"/>
+      <c r="C30" s="97"/>
+      <c r="D30" s="97"/>
+      <c r="E30" s="97"/>
+      <c r="F30" s="97"/>
+      <c r="G30" s="97"/>
+      <c r="H30" s="97"/>
+      <c r="I30" s="91"/>
       <c r="J30" s="19"/>
-      <c r="K30" s="84"/>
+      <c r="K30" s="91"/>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
@@ -5002,18 +5032,18 @@
       <c r="R30" s="4"/>
       <c r="S30" s="4"/>
     </row>
-    <row r="31" spans="1:19" ht="15.75" thickTop="1" thickBot="1">
-      <c r="A31" s="104"/>
-      <c r="B31" s="104"/>
-      <c r="C31" s="104"/>
-      <c r="D31" s="104"/>
-      <c r="E31" s="104"/>
-      <c r="F31" s="104"/>
-      <c r="G31" s="104"/>
-      <c r="H31" s="104"/>
-      <c r="I31" s="84"/>
+    <row r="31" spans="1:19" ht="18" thickTop="1" thickBot="1">
+      <c r="A31" s="97"/>
+      <c r="B31" s="97"/>
+      <c r="C31" s="97"/>
+      <c r="D31" s="97"/>
+      <c r="E31" s="97"/>
+      <c r="F31" s="97"/>
+      <c r="G31" s="97"/>
+      <c r="H31" s="97"/>
+      <c r="I31" s="91"/>
       <c r="J31" s="20"/>
-      <c r="K31" s="84"/>
+      <c r="K31" s="91"/>
       <c r="L31" s="21"/>
       <c r="M31" s="5" t="s">
         <v>27</v>
@@ -5025,18 +5055,18 @@
       <c r="R31" s="4"/>
       <c r="S31" s="4"/>
     </row>
-    <row r="32" spans="1:19" ht="15.75" thickTop="1" thickBot="1">
-      <c r="A32" s="104"/>
-      <c r="B32" s="104"/>
-      <c r="C32" s="104"/>
-      <c r="D32" s="104"/>
-      <c r="E32" s="104"/>
-      <c r="F32" s="104"/>
-      <c r="G32" s="104"/>
-      <c r="H32" s="104"/>
-      <c r="I32" s="84"/>
+    <row r="32" spans="1:19" ht="18" thickTop="1" thickBot="1">
+      <c r="A32" s="97"/>
+      <c r="B32" s="97"/>
+      <c r="C32" s="97"/>
+      <c r="D32" s="97"/>
+      <c r="E32" s="97"/>
+      <c r="F32" s="97"/>
+      <c r="G32" s="97"/>
+      <c r="H32" s="97"/>
+      <c r="I32" s="91"/>
       <c r="J32" s="22"/>
-      <c r="K32" s="84"/>
+      <c r="K32" s="91"/>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
@@ -5046,18 +5076,18 @@
       <c r="R32" s="4"/>
       <c r="S32" s="4"/>
     </row>
-    <row r="33" spans="1:19" ht="15.75" thickTop="1" thickBot="1">
-      <c r="A33" s="104"/>
-      <c r="B33" s="104"/>
-      <c r="C33" s="104"/>
-      <c r="D33" s="104"/>
-      <c r="E33" s="104"/>
-      <c r="F33" s="104"/>
-      <c r="G33" s="104"/>
-      <c r="H33" s="104"/>
-      <c r="I33" s="84"/>
+    <row r="33" spans="1:19" ht="18" thickTop="1" thickBot="1">
+      <c r="A33" s="97"/>
+      <c r="B33" s="97"/>
+      <c r="C33" s="97"/>
+      <c r="D33" s="97"/>
+      <c r="E33" s="97"/>
+      <c r="F33" s="97"/>
+      <c r="G33" s="97"/>
+      <c r="H33" s="97"/>
+      <c r="I33" s="91"/>
       <c r="J33" s="23"/>
-      <c r="K33" s="84"/>
+      <c r="K33" s="91"/>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
@@ -5067,18 +5097,18 @@
       <c r="R33" s="4"/>
       <c r="S33" s="4"/>
     </row>
-    <row r="34" spans="1:19" ht="15.75" thickTop="1" thickBot="1">
-      <c r="A34" s="104"/>
-      <c r="B34" s="104"/>
-      <c r="C34" s="104"/>
-      <c r="D34" s="104"/>
-      <c r="E34" s="104"/>
-      <c r="F34" s="104"/>
-      <c r="G34" s="104"/>
-      <c r="H34" s="104"/>
-      <c r="I34" s="84"/>
+    <row r="34" spans="1:19" ht="18" thickTop="1" thickBot="1">
+      <c r="A34" s="97"/>
+      <c r="B34" s="97"/>
+      <c r="C34" s="97"/>
+      <c r="D34" s="97"/>
+      <c r="E34" s="97"/>
+      <c r="F34" s="97"/>
+      <c r="G34" s="97"/>
+      <c r="H34" s="97"/>
+      <c r="I34" s="91"/>
       <c r="J34" s="24"/>
-      <c r="K34" s="84"/>
+      <c r="K34" s="91"/>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
@@ -5088,18 +5118,18 @@
       <c r="R34" s="4"/>
       <c r="S34" s="4"/>
     </row>
-    <row r="35" spans="1:19" ht="15.75" thickTop="1" thickBot="1">
-      <c r="A35" s="104"/>
-      <c r="B35" s="104"/>
-      <c r="C35" s="104"/>
-      <c r="D35" s="104"/>
-      <c r="E35" s="104"/>
-      <c r="F35" s="104"/>
-      <c r="G35" s="104"/>
-      <c r="H35" s="104"/>
-      <c r="I35" s="84"/>
+    <row r="35" spans="1:19" ht="18" thickTop="1" thickBot="1">
+      <c r="A35" s="97"/>
+      <c r="B35" s="97"/>
+      <c r="C35" s="97"/>
+      <c r="D35" s="97"/>
+      <c r="E35" s="97"/>
+      <c r="F35" s="97"/>
+      <c r="G35" s="97"/>
+      <c r="H35" s="97"/>
+      <c r="I35" s="91"/>
       <c r="J35" s="25"/>
-      <c r="K35" s="84"/>
+      <c r="K35" s="91"/>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
@@ -5109,18 +5139,18 @@
       <c r="R35" s="4"/>
       <c r="S35" s="4"/>
     </row>
-    <row r="36" spans="1:19" ht="15.75" thickTop="1" thickBot="1">
-      <c r="A36" s="104"/>
-      <c r="B36" s="104"/>
-      <c r="C36" s="104"/>
-      <c r="D36" s="104"/>
-      <c r="E36" s="104"/>
-      <c r="F36" s="104"/>
-      <c r="G36" s="104"/>
-      <c r="H36" s="104"/>
-      <c r="I36" s="84"/>
+    <row r="36" spans="1:19" ht="18" thickTop="1" thickBot="1">
+      <c r="A36" s="97"/>
+      <c r="B36" s="97"/>
+      <c r="C36" s="97"/>
+      <c r="D36" s="97"/>
+      <c r="E36" s="97"/>
+      <c r="F36" s="97"/>
+      <c r="G36" s="97"/>
+      <c r="H36" s="97"/>
+      <c r="I36" s="91"/>
       <c r="J36" s="26"/>
-      <c r="K36" s="84"/>
+      <c r="K36" s="91"/>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
@@ -5130,18 +5160,18 @@
       <c r="R36" s="4"/>
       <c r="S36" s="4"/>
     </row>
-    <row r="37" spans="1:19" ht="15.75" thickTop="1" thickBot="1">
-      <c r="A37" s="104"/>
-      <c r="B37" s="104"/>
-      <c r="C37" s="104"/>
-      <c r="D37" s="104"/>
-      <c r="E37" s="104"/>
-      <c r="F37" s="104"/>
-      <c r="G37" s="104"/>
-      <c r="H37" s="104"/>
-      <c r="I37" s="84"/>
+    <row r="37" spans="1:19" ht="18" thickTop="1" thickBot="1">
+      <c r="A37" s="97"/>
+      <c r="B37" s="97"/>
+      <c r="C37" s="97"/>
+      <c r="D37" s="97"/>
+      <c r="E37" s="97"/>
+      <c r="F37" s="97"/>
+      <c r="G37" s="97"/>
+      <c r="H37" s="97"/>
+      <c r="I37" s="91"/>
       <c r="J37" s="27"/>
-      <c r="K37" s="84"/>
+      <c r="K37" s="91"/>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
@@ -5151,18 +5181,18 @@
       <c r="R37" s="4"/>
       <c r="S37" s="4"/>
     </row>
-    <row r="38" spans="1:19" ht="15.75" thickTop="1" thickBot="1">
-      <c r="A38" s="104"/>
-      <c r="B38" s="104"/>
-      <c r="C38" s="104"/>
-      <c r="D38" s="104"/>
-      <c r="E38" s="104"/>
-      <c r="F38" s="104"/>
-      <c r="G38" s="104"/>
-      <c r="H38" s="104"/>
-      <c r="I38" s="84"/>
+    <row r="38" spans="1:19" ht="18" thickTop="1" thickBot="1">
+      <c r="A38" s="97"/>
+      <c r="B38" s="97"/>
+      <c r="C38" s="97"/>
+      <c r="D38" s="97"/>
+      <c r="E38" s="97"/>
+      <c r="F38" s="97"/>
+      <c r="G38" s="97"/>
+      <c r="H38" s="97"/>
+      <c r="I38" s="91"/>
       <c r="J38" s="28"/>
-      <c r="K38" s="84"/>
+      <c r="K38" s="91"/>
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
@@ -5172,16 +5202,16 @@
       <c r="R38" s="4"/>
       <c r="S38" s="4"/>
     </row>
-    <row r="39" spans="1:19" ht="15" thickTop="1">
-      <c r="A39" s="104"/>
-      <c r="B39" s="104"/>
-      <c r="C39" s="104"/>
-      <c r="D39" s="104"/>
-      <c r="E39" s="104"/>
-      <c r="F39" s="104"/>
-      <c r="G39" s="104"/>
-      <c r="H39" s="104"/>
-      <c r="I39" s="84"/>
+    <row r="39" spans="1:19" ht="17.25" thickTop="1">
+      <c r="A39" s="97"/>
+      <c r="B39" s="97"/>
+      <c r="C39" s="97"/>
+      <c r="D39" s="97"/>
+      <c r="E39" s="97"/>
+      <c r="F39" s="97"/>
+      <c r="G39" s="97"/>
+      <c r="H39" s="97"/>
+      <c r="I39" s="91"/>
       <c r="J39" s="78" t="s">
         <v>28</v>
       </c>
@@ -5196,17 +5226,17 @@
       <c r="S39" s="4"/>
     </row>
     <row r="40" spans="1:19" ht="68.25" customHeight="1">
-      <c r="A40" s="98" t="s">
+      <c r="A40" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="B40" s="98"/>
-      <c r="C40" s="98"/>
-      <c r="D40" s="98"/>
-      <c r="E40" s="98"/>
-      <c r="F40" s="98"/>
-      <c r="G40" s="98"/>
-      <c r="H40" s="98"/>
-      <c r="I40" s="103" t="s">
+      <c r="B40" s="81"/>
+      <c r="C40" s="81"/>
+      <c r="D40" s="81"/>
+      <c r="E40" s="81"/>
+      <c r="F40" s="81"/>
+      <c r="G40" s="81"/>
+      <c r="H40" s="81"/>
+      <c r="I40" s="112" t="s">
         <v>30</v>
       </c>
       <c r="J40" s="4"/>
@@ -5221,15 +5251,15 @@
       <c r="S40" s="4"/>
     </row>
     <row r="41" spans="1:19">
-      <c r="A41" s="98"/>
-      <c r="B41" s="98"/>
-      <c r="C41" s="98"/>
-      <c r="D41" s="98"/>
-      <c r="E41" s="98"/>
-      <c r="F41" s="98"/>
-      <c r="G41" s="98"/>
-      <c r="H41" s="98"/>
-      <c r="I41" s="103"/>
+      <c r="A41" s="81"/>
+      <c r="B41" s="81"/>
+      <c r="C41" s="81"/>
+      <c r="D41" s="81"/>
+      <c r="E41" s="81"/>
+      <c r="F41" s="81"/>
+      <c r="G41" s="81"/>
+      <c r="H41" s="81"/>
+      <c r="I41" s="112"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
@@ -5242,155 +5272,155 @@
       <c r="S41" s="4"/>
     </row>
     <row r="42" spans="1:19">
-      <c r="A42" s="80"/>
-      <c r="B42" s="80"/>
-      <c r="C42" s="80"/>
-      <c r="D42" s="80"/>
-      <c r="E42" s="80"/>
-      <c r="F42" s="80"/>
-      <c r="G42" s="80"/>
-      <c r="H42" s="80"/>
-      <c r="I42" s="80"/>
-      <c r="J42" s="80"/>
-      <c r="K42" s="80"/>
-      <c r="L42" s="80"/>
-      <c r="M42" s="80"/>
-      <c r="N42" s="80"/>
-      <c r="O42" s="80"/>
-      <c r="P42" s="80"/>
-      <c r="Q42" s="80"/>
-      <c r="R42" s="80"/>
-      <c r="S42" s="80"/>
+      <c r="A42" s="99"/>
+      <c r="B42" s="99"/>
+      <c r="C42" s="99"/>
+      <c r="D42" s="99"/>
+      <c r="E42" s="99"/>
+      <c r="F42" s="99"/>
+      <c r="G42" s="99"/>
+      <c r="H42" s="99"/>
+      <c r="I42" s="99"/>
+      <c r="J42" s="99"/>
+      <c r="K42" s="99"/>
+      <c r="L42" s="99"/>
+      <c r="M42" s="99"/>
+      <c r="N42" s="99"/>
+      <c r="O42" s="99"/>
+      <c r="P42" s="99"/>
+      <c r="Q42" s="99"/>
+      <c r="R42" s="99"/>
+      <c r="S42" s="99"/>
     </row>
     <row r="43" spans="1:19" ht="20.25" customHeight="1">
-      <c r="A43" s="86" t="s">
+      <c r="A43" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="B43" s="86"/>
-      <c r="C43" s="86"/>
-      <c r="D43" s="86"/>
-      <c r="E43" s="86"/>
-      <c r="F43" s="86"/>
-      <c r="G43" s="86"/>
-      <c r="H43" s="86"/>
-      <c r="I43" s="86"/>
-      <c r="J43" s="86"/>
-      <c r="K43" s="86"/>
-      <c r="L43" s="86"/>
-      <c r="M43" s="86"/>
-      <c r="N43" s="86"/>
-      <c r="O43" s="86"/>
-      <c r="P43" s="86"/>
-      <c r="Q43" s="86"/>
-      <c r="R43" s="86"/>
-      <c r="S43" s="86"/>
+      <c r="B43" s="106"/>
+      <c r="C43" s="106"/>
+      <c r="D43" s="106"/>
+      <c r="E43" s="106"/>
+      <c r="F43" s="106"/>
+      <c r="G43" s="106"/>
+      <c r="H43" s="106"/>
+      <c r="I43" s="106"/>
+      <c r="J43" s="106"/>
+      <c r="K43" s="106"/>
+      <c r="L43" s="106"/>
+      <c r="M43" s="106"/>
+      <c r="N43" s="106"/>
+      <c r="O43" s="106"/>
+      <c r="P43" s="106"/>
+      <c r="Q43" s="106"/>
+      <c r="R43" s="106"/>
+      <c r="S43" s="106"/>
     </row>
     <row r="44" spans="1:19">
-      <c r="A44" s="80"/>
-      <c r="B44" s="80"/>
-      <c r="C44" s="80"/>
-      <c r="D44" s="80"/>
-      <c r="E44" s="80"/>
-      <c r="F44" s="80"/>
-      <c r="G44" s="80"/>
-      <c r="H44" s="80"/>
-      <c r="I44" s="80"/>
-      <c r="J44" s="80"/>
-      <c r="K44" s="80"/>
-      <c r="L44" s="80"/>
-      <c r="M44" s="80"/>
-      <c r="N44" s="80"/>
-      <c r="O44" s="80"/>
-      <c r="P44" s="80"/>
-      <c r="Q44" s="80"/>
-      <c r="R44" s="80"/>
-      <c r="S44" s="80"/>
+      <c r="A44" s="99"/>
+      <c r="B44" s="99"/>
+      <c r="C44" s="99"/>
+      <c r="D44" s="99"/>
+      <c r="E44" s="99"/>
+      <c r="F44" s="99"/>
+      <c r="G44" s="99"/>
+      <c r="H44" s="99"/>
+      <c r="I44" s="99"/>
+      <c r="J44" s="99"/>
+      <c r="K44" s="99"/>
+      <c r="L44" s="99"/>
+      <c r="M44" s="99"/>
+      <c r="N44" s="99"/>
+      <c r="O44" s="99"/>
+      <c r="P44" s="99"/>
+      <c r="Q44" s="99"/>
+      <c r="R44" s="99"/>
+      <c r="S44" s="99"/>
     </row>
     <row r="45" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A45" s="84" t="s">
+      <c r="A45" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="B45" s="84"/>
-      <c r="C45" s="84"/>
-      <c r="D45" s="84"/>
-      <c r="E45" s="84"/>
-      <c r="F45" s="84"/>
-      <c r="G45" s="84"/>
-      <c r="H45" s="84"/>
-      <c r="I45" s="84"/>
-      <c r="J45" s="84"/>
-      <c r="K45" s="84"/>
-      <c r="L45" s="84"/>
-      <c r="M45" s="84"/>
-      <c r="N45" s="84"/>
-      <c r="O45" s="84"/>
-      <c r="P45" s="84"/>
-      <c r="Q45" s="84"/>
-      <c r="R45" s="84"/>
-      <c r="S45" s="84"/>
+      <c r="B45" s="91"/>
+      <c r="C45" s="91"/>
+      <c r="D45" s="91"/>
+      <c r="E45" s="91"/>
+      <c r="F45" s="91"/>
+      <c r="G45" s="91"/>
+      <c r="H45" s="91"/>
+      <c r="I45" s="91"/>
+      <c r="J45" s="91"/>
+      <c r="K45" s="91"/>
+      <c r="L45" s="91"/>
+      <c r="M45" s="91"/>
+      <c r="N45" s="91"/>
+      <c r="O45" s="91"/>
+      <c r="P45" s="91"/>
+      <c r="Q45" s="91"/>
+      <c r="R45" s="91"/>
+      <c r="S45" s="91"/>
     </row>
     <row r="46" spans="1:19">
-      <c r="A46" s="85" t="s">
+      <c r="A46" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="B46" s="85"/>
-      <c r="C46" s="85"/>
-      <c r="D46" s="85"/>
-      <c r="E46" s="85"/>
-      <c r="F46" s="85"/>
-      <c r="G46" s="85"/>
-      <c r="H46" s="85"/>
-      <c r="I46" s="85"/>
-      <c r="J46" s="85"/>
-      <c r="K46" s="85"/>
-      <c r="L46" s="85"/>
-      <c r="M46" s="85"/>
-      <c r="N46" s="85"/>
-      <c r="O46" s="85"/>
-      <c r="P46" s="85"/>
-      <c r="Q46" s="85"/>
-      <c r="R46" s="85"/>
-      <c r="S46" s="85"/>
-    </row>
-    <row r="47" spans="1:19" ht="15" thickBot="1">
-      <c r="A47" s="84"/>
-      <c r="B47" s="84"/>
-      <c r="C47" s="84"/>
-      <c r="D47" s="84"/>
-      <c r="E47" s="84"/>
-      <c r="F47" s="84"/>
-      <c r="G47" s="84"/>
-      <c r="H47" s="84"/>
-      <c r="I47" s="84"/>
-      <c r="J47" s="84"/>
-      <c r="K47" s="84"/>
-      <c r="L47" s="84"/>
-      <c r="M47" s="84"/>
-      <c r="N47" s="84"/>
-      <c r="O47" s="84"/>
-      <c r="P47" s="84"/>
-      <c r="Q47" s="84"/>
-      <c r="R47" s="84"/>
-      <c r="S47" s="84"/>
-    </row>
-    <row r="48" spans="1:19" ht="15" thickTop="1">
-      <c r="A48" s="88"/>
-      <c r="B48" s="88"/>
-      <c r="C48" s="88"/>
-      <c r="D48" s="88"/>
-      <c r="E48" s="88"/>
-      <c r="F48" s="88"/>
-      <c r="G48" s="88"/>
-      <c r="H48" s="88"/>
+      <c r="B46" s="80"/>
+      <c r="C46" s="80"/>
+      <c r="D46" s="80"/>
+      <c r="E46" s="80"/>
+      <c r="F46" s="80"/>
+      <c r="G46" s="80"/>
+      <c r="H46" s="80"/>
+      <c r="I46" s="80"/>
+      <c r="J46" s="80"/>
+      <c r="K46" s="80"/>
+      <c r="L46" s="80"/>
+      <c r="M46" s="80"/>
+      <c r="N46" s="80"/>
+      <c r="O46" s="80"/>
+      <c r="P46" s="80"/>
+      <c r="Q46" s="80"/>
+      <c r="R46" s="80"/>
+      <c r="S46" s="80"/>
+    </row>
+    <row r="47" spans="1:19" ht="17.25" thickBot="1">
+      <c r="A47" s="91"/>
+      <c r="B47" s="91"/>
+      <c r="C47" s="91"/>
+      <c r="D47" s="91"/>
+      <c r="E47" s="91"/>
+      <c r="F47" s="91"/>
+      <c r="G47" s="91"/>
+      <c r="H47" s="91"/>
+      <c r="I47" s="91"/>
+      <c r="J47" s="91"/>
+      <c r="K47" s="91"/>
+      <c r="L47" s="91"/>
+      <c r="M47" s="91"/>
+      <c r="N47" s="91"/>
+      <c r="O47" s="91"/>
+      <c r="P47" s="91"/>
+      <c r="Q47" s="91"/>
+      <c r="R47" s="91"/>
+      <c r="S47" s="91"/>
+    </row>
+    <row r="48" spans="1:19" ht="17.25" thickTop="1">
+      <c r="A48" s="100"/>
+      <c r="B48" s="100"/>
+      <c r="C48" s="100"/>
+      <c r="D48" s="100"/>
+      <c r="E48" s="100"/>
+      <c r="F48" s="100"/>
+      <c r="G48" s="100"/>
+      <c r="H48" s="100"/>
       <c r="I48" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="J48" s="102" t="s">
+      <c r="J48" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="K48" s="102"/>
-      <c r="L48" s="102"/>
-      <c r="M48" s="102"/>
+      <c r="K48" s="101"/>
+      <c r="L48" s="101"/>
+      <c r="M48" s="101"/>
       <c r="N48" s="29" t="s">
         <v>35</v>
       </c>
@@ -5410,28 +5440,28 @@
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:19">
-      <c r="A49" s="88" t="s">
+    <row r="49" spans="1:19" ht="16.5">
+      <c r="A49" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="B49" s="88"/>
-      <c r="C49" s="88"/>
-      <c r="D49" s="88"/>
-      <c r="E49" s="88"/>
-      <c r="F49" s="88"/>
-      <c r="G49" s="88"/>
-      <c r="H49" s="88"/>
+      <c r="B49" s="100"/>
+      <c r="C49" s="100"/>
+      <c r="D49" s="100"/>
+      <c r="E49" s="100"/>
+      <c r="F49" s="100"/>
+      <c r="G49" s="100"/>
+      <c r="H49" s="100"/>
       <c r="I49" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="J49" s="89" t="s">
+      <c r="J49" s="98" t="s">
         <v>43</v>
       </c>
-      <c r="K49" s="89"/>
-      <c r="L49" s="89"/>
-      <c r="M49" s="89"/>
-      <c r="N49" s="89"/>
-      <c r="O49" s="89"/>
+      <c r="K49" s="98"/>
+      <c r="L49" s="98"/>
+      <c r="M49" s="98"/>
+      <c r="N49" s="98"/>
+      <c r="O49" s="98"/>
       <c r="P49" s="15" t="s">
         <v>43</v>
       </c>
@@ -5446,23 +5476,23 @@
       </c>
     </row>
     <row r="50" spans="1:19">
-      <c r="A50" s="88"/>
-      <c r="B50" s="88"/>
-      <c r="C50" s="88"/>
-      <c r="D50" s="88"/>
-      <c r="E50" s="88"/>
-      <c r="F50" s="88"/>
-      <c r="G50" s="88"/>
-      <c r="H50" s="88"/>
+      <c r="A50" s="100"/>
+      <c r="B50" s="100"/>
+      <c r="C50" s="100"/>
+      <c r="D50" s="100"/>
+      <c r="E50" s="100"/>
+      <c r="F50" s="100"/>
+      <c r="G50" s="100"/>
+      <c r="H50" s="100"/>
       <c r="I50" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="J50" s="94" t="s">
+      <c r="J50" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="K50" s="94"/>
-      <c r="L50" s="94"/>
-      <c r="M50" s="94"/>
+      <c r="K50" s="102"/>
+      <c r="L50" s="102"/>
+      <c r="M50" s="102"/>
       <c r="N50" s="78"/>
       <c r="O50" s="78"/>
       <c r="P50" s="30" t="s">
@@ -5479,25 +5509,25 @@
       </c>
     </row>
     <row r="51" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A51" s="90" t="s">
+      <c r="A51" s="104" t="s">
         <v>45</v>
       </c>
-      <c r="B51" s="90"/>
-      <c r="C51" s="90"/>
-      <c r="D51" s="90"/>
-      <c r="E51" s="90"/>
-      <c r="F51" s="90"/>
-      <c r="G51" s="90"/>
-      <c r="H51" s="90"/>
+      <c r="B51" s="104"/>
+      <c r="C51" s="104"/>
+      <c r="D51" s="104"/>
+      <c r="E51" s="104"/>
+      <c r="F51" s="104"/>
+      <c r="G51" s="104"/>
+      <c r="H51" s="104"/>
       <c r="I51" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="J51" s="91" t="s">
+      <c r="J51" s="105" t="s">
         <v>47</v>
       </c>
-      <c r="K51" s="91"/>
-      <c r="L51" s="91"/>
-      <c r="M51" s="91"/>
+      <c r="K51" s="105"/>
+      <c r="L51" s="105"/>
+      <c r="M51" s="105"/>
       <c r="N51" s="31" t="s">
         <v>48</v>
       </c>
@@ -5518,16 +5548,16 @@
       </c>
     </row>
     <row r="52" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A52" s="88" t="s">
+      <c r="A52" s="100" t="s">
         <v>53</v>
       </c>
-      <c r="B52" s="88"/>
-      <c r="C52" s="88"/>
-      <c r="D52" s="88"/>
-      <c r="E52" s="88"/>
-      <c r="F52" s="88"/>
-      <c r="G52" s="88"/>
-      <c r="H52" s="88"/>
+      <c r="B52" s="100"/>
+      <c r="C52" s="100"/>
+      <c r="D52" s="100"/>
+      <c r="E52" s="100"/>
+      <c r="F52" s="100"/>
+      <c r="G52" s="100"/>
+      <c r="H52" s="100"/>
       <c r="I52" s="15" t="s">
         <v>25</v>
       </c>
@@ -5557,39 +5587,39 @@
       </c>
     </row>
     <row r="53" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A53" s="93" t="s">
+      <c r="A53" s="107" t="s">
         <v>59</v>
       </c>
-      <c r="B53" s="93"/>
-      <c r="C53" s="93"/>
-      <c r="D53" s="93"/>
-      <c r="E53" s="93"/>
-      <c r="F53" s="93"/>
-      <c r="G53" s="93"/>
-      <c r="H53" s="93"/>
-      <c r="I53" s="93"/>
-      <c r="J53" s="93"/>
-      <c r="K53" s="93"/>
-      <c r="L53" s="93"/>
-      <c r="M53" s="93"/>
-      <c r="N53" s="93"/>
-      <c r="O53" s="93"/>
-      <c r="P53" s="93"/>
-      <c r="Q53" s="93"/>
-      <c r="R53" s="93"/>
-      <c r="S53" s="93"/>
-    </row>
-    <row r="54" spans="1:19">
-      <c r="A54" s="88" t="s">
+      <c r="B53" s="107"/>
+      <c r="C53" s="107"/>
+      <c r="D53" s="107"/>
+      <c r="E53" s="107"/>
+      <c r="F53" s="107"/>
+      <c r="G53" s="107"/>
+      <c r="H53" s="107"/>
+      <c r="I53" s="107"/>
+      <c r="J53" s="107"/>
+      <c r="K53" s="107"/>
+      <c r="L53" s="107"/>
+      <c r="M53" s="107"/>
+      <c r="N53" s="107"/>
+      <c r="O53" s="107"/>
+      <c r="P53" s="107"/>
+      <c r="Q53" s="107"/>
+      <c r="R53" s="107"/>
+      <c r="S53" s="107"/>
+    </row>
+    <row r="54" spans="1:19" ht="16.5">
+      <c r="A54" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="B54" s="88"/>
-      <c r="C54" s="88"/>
-      <c r="D54" s="88"/>
-      <c r="E54" s="88"/>
-      <c r="F54" s="88"/>
-      <c r="G54" s="88"/>
-      <c r="H54" s="88"/>
+      <c r="B54" s="100"/>
+      <c r="C54" s="100"/>
+      <c r="D54" s="100"/>
+      <c r="E54" s="100"/>
+      <c r="F54" s="100"/>
+      <c r="G54" s="100"/>
+      <c r="H54" s="100"/>
       <c r="I54" s="15" t="s">
         <v>60</v>
       </c>
@@ -5619,23 +5649,23 @@
       </c>
     </row>
     <row r="55" spans="1:19">
-      <c r="A55" s="88"/>
-      <c r="B55" s="88"/>
-      <c r="C55" s="88"/>
-      <c r="D55" s="88"/>
-      <c r="E55" s="88"/>
-      <c r="F55" s="88"/>
-      <c r="G55" s="88"/>
-      <c r="H55" s="88"/>
+      <c r="A55" s="100"/>
+      <c r="B55" s="100"/>
+      <c r="C55" s="100"/>
+      <c r="D55" s="100"/>
+      <c r="E55" s="100"/>
+      <c r="F55" s="100"/>
+      <c r="G55" s="100"/>
+      <c r="H55" s="100"/>
       <c r="I55" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="J55" s="94" t="s">
+      <c r="J55" s="102" t="s">
         <v>61</v>
       </c>
-      <c r="K55" s="94"/>
-      <c r="L55" s="94"/>
-      <c r="M55" s="94"/>
+      <c r="K55" s="102"/>
+      <c r="L55" s="102"/>
+      <c r="M55" s="102"/>
       <c r="N55" s="78"/>
       <c r="O55" s="78"/>
       <c r="P55" s="30" t="s">
@@ -5652,25 +5682,25 @@
       </c>
     </row>
     <row r="56" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A56" s="90" t="s">
+      <c r="A56" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="B56" s="90"/>
-      <c r="C56" s="90"/>
-      <c r="D56" s="90"/>
-      <c r="E56" s="90"/>
-      <c r="F56" s="90"/>
-      <c r="G56" s="90"/>
-      <c r="H56" s="90"/>
+      <c r="B56" s="104"/>
+      <c r="C56" s="104"/>
+      <c r="D56" s="104"/>
+      <c r="E56" s="104"/>
+      <c r="F56" s="104"/>
+      <c r="G56" s="104"/>
+      <c r="H56" s="104"/>
       <c r="I56" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="J56" s="91" t="s">
+      <c r="J56" s="105" t="s">
         <v>70</v>
       </c>
-      <c r="K56" s="91"/>
-      <c r="L56" s="91"/>
-      <c r="M56" s="91"/>
+      <c r="K56" s="105"/>
+      <c r="L56" s="105"/>
+      <c r="M56" s="105"/>
       <c r="N56" s="31" t="s">
         <v>71</v>
       </c>
@@ -5691,16 +5721,16 @@
       </c>
     </row>
     <row r="57" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A57" s="88" t="s">
+      <c r="A57" s="100" t="s">
         <v>53</v>
       </c>
-      <c r="B57" s="88"/>
-      <c r="C57" s="88"/>
-      <c r="D57" s="88"/>
-      <c r="E57" s="88"/>
-      <c r="F57" s="88"/>
-      <c r="G57" s="88"/>
-      <c r="H57" s="88"/>
+      <c r="B57" s="100"/>
+      <c r="C57" s="100"/>
+      <c r="D57" s="100"/>
+      <c r="E57" s="100"/>
+      <c r="F57" s="100"/>
+      <c r="G57" s="100"/>
+      <c r="H57" s="100"/>
       <c r="I57" s="15" t="s">
         <v>76</v>
       </c>
@@ -5730,25 +5760,25 @@
       </c>
     </row>
     <row r="58" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A58" s="90" t="s">
+      <c r="A58" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="B58" s="90"/>
-      <c r="C58" s="90"/>
-      <c r="D58" s="90"/>
-      <c r="E58" s="90"/>
-      <c r="F58" s="90"/>
-      <c r="G58" s="90"/>
-      <c r="H58" s="90"/>
+      <c r="B58" s="104"/>
+      <c r="C58" s="104"/>
+      <c r="D58" s="104"/>
+      <c r="E58" s="104"/>
+      <c r="F58" s="104"/>
+      <c r="G58" s="104"/>
+      <c r="H58" s="104"/>
       <c r="I58" s="32">
         <v>0</v>
       </c>
-      <c r="J58" s="92">
+      <c r="J58" s="113">
         <v>7.2199999999999999E-3</v>
       </c>
-      <c r="K58" s="92"/>
-      <c r="L58" s="92"/>
-      <c r="M58" s="92"/>
+      <c r="K58" s="113"/>
+      <c r="L58" s="113"/>
+      <c r="M58" s="113"/>
       <c r="N58" s="32">
         <v>0</v>
       </c>
@@ -5769,25 +5799,25 @@
       </c>
     </row>
     <row r="59" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A59" s="88" t="s">
+      <c r="A59" s="100" t="s">
         <v>83</v>
       </c>
-      <c r="B59" s="88"/>
-      <c r="C59" s="88"/>
-      <c r="D59" s="88"/>
-      <c r="E59" s="88"/>
-      <c r="F59" s="88"/>
-      <c r="G59" s="88"/>
-      <c r="H59" s="88"/>
+      <c r="B59" s="100"/>
+      <c r="C59" s="100"/>
+      <c r="D59" s="100"/>
+      <c r="E59" s="100"/>
+      <c r="F59" s="100"/>
+      <c r="G59" s="100"/>
+      <c r="H59" s="100"/>
       <c r="I59" s="34">
         <v>1E-3</v>
       </c>
-      <c r="J59" s="100">
+      <c r="J59" s="103">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="K59" s="100"/>
-      <c r="L59" s="100"/>
-      <c r="M59" s="100"/>
+      <c r="K59" s="103"/>
+      <c r="L59" s="103"/>
+      <c r="M59" s="103"/>
       <c r="N59" s="34">
         <v>0</v>
       </c>
@@ -5808,25 +5838,25 @@
       </c>
     </row>
     <row r="60" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A60" s="90" t="s">
+      <c r="A60" s="104" t="s">
         <v>84</v>
       </c>
-      <c r="B60" s="90"/>
-      <c r="C60" s="90"/>
-      <c r="D60" s="90"/>
-      <c r="E60" s="90"/>
-      <c r="F60" s="90"/>
-      <c r="G60" s="90"/>
-      <c r="H60" s="90"/>
+      <c r="B60" s="104"/>
+      <c r="C60" s="104"/>
+      <c r="D60" s="104"/>
+      <c r="E60" s="104"/>
+      <c r="F60" s="104"/>
+      <c r="G60" s="104"/>
+      <c r="H60" s="104"/>
       <c r="I60" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="J60" s="91" t="s">
+      <c r="J60" s="105" t="s">
         <v>86</v>
       </c>
-      <c r="K60" s="91"/>
-      <c r="L60" s="91"/>
-      <c r="M60" s="91"/>
+      <c r="K60" s="105"/>
+      <c r="L60" s="105"/>
+      <c r="M60" s="105"/>
       <c r="N60" s="31" t="s">
         <v>87</v>
       </c>
@@ -5847,25 +5877,25 @@
       </c>
     </row>
     <row r="61" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A61" s="88" t="s">
+      <c r="A61" s="100" t="s">
         <v>92</v>
       </c>
-      <c r="B61" s="88"/>
-      <c r="C61" s="88"/>
-      <c r="D61" s="88"/>
-      <c r="E61" s="88"/>
-      <c r="F61" s="88"/>
-      <c r="G61" s="88"/>
-      <c r="H61" s="88"/>
+      <c r="B61" s="100"/>
+      <c r="C61" s="100"/>
+      <c r="D61" s="100"/>
+      <c r="E61" s="100"/>
+      <c r="F61" s="100"/>
+      <c r="G61" s="100"/>
+      <c r="H61" s="100"/>
       <c r="I61" s="34">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="J61" s="100">
+      <c r="J61" s="103">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="K61" s="100"/>
-      <c r="L61" s="100"/>
-      <c r="M61" s="100"/>
+      <c r="K61" s="103"/>
+      <c r="L61" s="103"/>
+      <c r="M61" s="103"/>
       <c r="N61" s="34">
         <v>0</v>
       </c>
@@ -5886,155 +5916,155 @@
       </c>
     </row>
     <row r="62" spans="1:19">
-      <c r="A62" s="80"/>
-      <c r="B62" s="80"/>
-      <c r="C62" s="80"/>
-      <c r="D62" s="80"/>
-      <c r="E62" s="80"/>
-      <c r="F62" s="80"/>
-      <c r="G62" s="80"/>
-      <c r="H62" s="80"/>
-      <c r="I62" s="80"/>
-      <c r="J62" s="80"/>
-      <c r="K62" s="80"/>
-      <c r="L62" s="80"/>
-      <c r="M62" s="80"/>
-      <c r="N62" s="80"/>
-      <c r="O62" s="80"/>
-      <c r="P62" s="80"/>
-      <c r="Q62" s="80"/>
-      <c r="R62" s="80"/>
-      <c r="S62" s="80"/>
+      <c r="A62" s="99"/>
+      <c r="B62" s="99"/>
+      <c r="C62" s="99"/>
+      <c r="D62" s="99"/>
+      <c r="E62" s="99"/>
+      <c r="F62" s="99"/>
+      <c r="G62" s="99"/>
+      <c r="H62" s="99"/>
+      <c r="I62" s="99"/>
+      <c r="J62" s="99"/>
+      <c r="K62" s="99"/>
+      <c r="L62" s="99"/>
+      <c r="M62" s="99"/>
+      <c r="N62" s="99"/>
+      <c r="O62" s="99"/>
+      <c r="P62" s="99"/>
+      <c r="Q62" s="99"/>
+      <c r="R62" s="99"/>
+      <c r="S62" s="99"/>
     </row>
     <row r="63" spans="1:19" ht="20.25" customHeight="1">
-      <c r="A63" s="86" t="s">
+      <c r="A63" s="106" t="s">
         <v>93</v>
       </c>
-      <c r="B63" s="86"/>
-      <c r="C63" s="86"/>
-      <c r="D63" s="86"/>
-      <c r="E63" s="86"/>
-      <c r="F63" s="86"/>
-      <c r="G63" s="86"/>
-      <c r="H63" s="86"/>
-      <c r="I63" s="86"/>
-      <c r="J63" s="86"/>
-      <c r="K63" s="86"/>
-      <c r="L63" s="86"/>
-      <c r="M63" s="86"/>
-      <c r="N63" s="86"/>
-      <c r="O63" s="86"/>
-      <c r="P63" s="86"/>
-      <c r="Q63" s="86"/>
-      <c r="R63" s="86"/>
-      <c r="S63" s="86"/>
+      <c r="B63" s="106"/>
+      <c r="C63" s="106"/>
+      <c r="D63" s="106"/>
+      <c r="E63" s="106"/>
+      <c r="F63" s="106"/>
+      <c r="G63" s="106"/>
+      <c r="H63" s="106"/>
+      <c r="I63" s="106"/>
+      <c r="J63" s="106"/>
+      <c r="K63" s="106"/>
+      <c r="L63" s="106"/>
+      <c r="M63" s="106"/>
+      <c r="N63" s="106"/>
+      <c r="O63" s="106"/>
+      <c r="P63" s="106"/>
+      <c r="Q63" s="106"/>
+      <c r="R63" s="106"/>
+      <c r="S63" s="106"/>
     </row>
     <row r="64" spans="1:19">
-      <c r="A64" s="80"/>
-      <c r="B64" s="80"/>
-      <c r="C64" s="80"/>
-      <c r="D64" s="80"/>
-      <c r="E64" s="80"/>
-      <c r="F64" s="80"/>
-      <c r="G64" s="80"/>
-      <c r="H64" s="80"/>
-      <c r="I64" s="80"/>
-      <c r="J64" s="80"/>
-      <c r="K64" s="80"/>
-      <c r="L64" s="80"/>
-      <c r="M64" s="80"/>
-      <c r="N64" s="80"/>
-      <c r="O64" s="80"/>
-      <c r="P64" s="80"/>
-      <c r="Q64" s="80"/>
-      <c r="R64" s="80"/>
-      <c r="S64" s="80"/>
+      <c r="A64" s="99"/>
+      <c r="B64" s="99"/>
+      <c r="C64" s="99"/>
+      <c r="D64" s="99"/>
+      <c r="E64" s="99"/>
+      <c r="F64" s="99"/>
+      <c r="G64" s="99"/>
+      <c r="H64" s="99"/>
+      <c r="I64" s="99"/>
+      <c r="J64" s="99"/>
+      <c r="K64" s="99"/>
+      <c r="L64" s="99"/>
+      <c r="M64" s="99"/>
+      <c r="N64" s="99"/>
+      <c r="O64" s="99"/>
+      <c r="P64" s="99"/>
+      <c r="Q64" s="99"/>
+      <c r="R64" s="99"/>
+      <c r="S64" s="99"/>
     </row>
     <row r="65" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A65" s="84" t="s">
+      <c r="A65" s="91" t="s">
         <v>94</v>
       </c>
-      <c r="B65" s="84"/>
-      <c r="C65" s="84"/>
-      <c r="D65" s="84"/>
-      <c r="E65" s="84"/>
-      <c r="F65" s="84"/>
-      <c r="G65" s="84"/>
-      <c r="H65" s="84"/>
-      <c r="I65" s="84"/>
-      <c r="J65" s="84"/>
-      <c r="K65" s="84"/>
-      <c r="L65" s="84"/>
-      <c r="M65" s="84"/>
-      <c r="N65" s="84"/>
-      <c r="O65" s="84"/>
-      <c r="P65" s="84"/>
-      <c r="Q65" s="84"/>
-      <c r="R65" s="84"/>
-      <c r="S65" s="84"/>
+      <c r="B65" s="91"/>
+      <c r="C65" s="91"/>
+      <c r="D65" s="91"/>
+      <c r="E65" s="91"/>
+      <c r="F65" s="91"/>
+      <c r="G65" s="91"/>
+      <c r="H65" s="91"/>
+      <c r="I65" s="91"/>
+      <c r="J65" s="91"/>
+      <c r="K65" s="91"/>
+      <c r="L65" s="91"/>
+      <c r="M65" s="91"/>
+      <c r="N65" s="91"/>
+      <c r="O65" s="91"/>
+      <c r="P65" s="91"/>
+      <c r="Q65" s="91"/>
+      <c r="R65" s="91"/>
+      <c r="S65" s="91"/>
     </row>
     <row r="66" spans="1:19">
-      <c r="A66" s="85" t="s">
+      <c r="A66" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="B66" s="85"/>
-      <c r="C66" s="85"/>
-      <c r="D66" s="85"/>
-      <c r="E66" s="85"/>
-      <c r="F66" s="85"/>
-      <c r="G66" s="85"/>
-      <c r="H66" s="85"/>
-      <c r="I66" s="85"/>
-      <c r="J66" s="85"/>
-      <c r="K66" s="85"/>
-      <c r="L66" s="85"/>
-      <c r="M66" s="85"/>
-      <c r="N66" s="85"/>
-      <c r="O66" s="85"/>
-      <c r="P66" s="85"/>
-      <c r="Q66" s="85"/>
-      <c r="R66" s="85"/>
-      <c r="S66" s="85"/>
-    </row>
-    <row r="67" spans="1:19" ht="15" thickBot="1">
-      <c r="A67" s="84"/>
-      <c r="B67" s="84"/>
-      <c r="C67" s="84"/>
-      <c r="D67" s="84"/>
-      <c r="E67" s="84"/>
-      <c r="F67" s="84"/>
-      <c r="G67" s="84"/>
-      <c r="H67" s="84"/>
-      <c r="I67" s="84"/>
-      <c r="J67" s="84"/>
-      <c r="K67" s="84"/>
-      <c r="L67" s="84"/>
-      <c r="M67" s="84"/>
-      <c r="N67" s="84"/>
-      <c r="O67" s="84"/>
-      <c r="P67" s="84"/>
-      <c r="Q67" s="84"/>
-      <c r="R67" s="84"/>
-      <c r="S67" s="84"/>
-    </row>
-    <row r="68" spans="1:19" ht="15" thickTop="1">
-      <c r="A68" s="88"/>
-      <c r="B68" s="88"/>
-      <c r="C68" s="88"/>
-      <c r="D68" s="88"/>
-      <c r="E68" s="88"/>
-      <c r="F68" s="88"/>
-      <c r="G68" s="88"/>
-      <c r="H68" s="88"/>
+      <c r="B66" s="80"/>
+      <c r="C66" s="80"/>
+      <c r="D66" s="80"/>
+      <c r="E66" s="80"/>
+      <c r="F66" s="80"/>
+      <c r="G66" s="80"/>
+      <c r="H66" s="80"/>
+      <c r="I66" s="80"/>
+      <c r="J66" s="80"/>
+      <c r="K66" s="80"/>
+      <c r="L66" s="80"/>
+      <c r="M66" s="80"/>
+      <c r="N66" s="80"/>
+      <c r="O66" s="80"/>
+      <c r="P66" s="80"/>
+      <c r="Q66" s="80"/>
+      <c r="R66" s="80"/>
+      <c r="S66" s="80"/>
+    </row>
+    <row r="67" spans="1:19" ht="17.25" thickBot="1">
+      <c r="A67" s="91"/>
+      <c r="B67" s="91"/>
+      <c r="C67" s="91"/>
+      <c r="D67" s="91"/>
+      <c r="E67" s="91"/>
+      <c r="F67" s="91"/>
+      <c r="G67" s="91"/>
+      <c r="H67" s="91"/>
+      <c r="I67" s="91"/>
+      <c r="J67" s="91"/>
+      <c r="K67" s="91"/>
+      <c r="L67" s="91"/>
+      <c r="M67" s="91"/>
+      <c r="N67" s="91"/>
+      <c r="O67" s="91"/>
+      <c r="P67" s="91"/>
+      <c r="Q67" s="91"/>
+      <c r="R67" s="91"/>
+      <c r="S67" s="91"/>
+    </row>
+    <row r="68" spans="1:19" ht="17.25" thickTop="1">
+      <c r="A68" s="100"/>
+      <c r="B68" s="100"/>
+      <c r="C68" s="100"/>
+      <c r="D68" s="100"/>
+      <c r="E68" s="100"/>
+      <c r="F68" s="100"/>
+      <c r="G68" s="100"/>
+      <c r="H68" s="100"/>
       <c r="I68" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="J68" s="102" t="s">
+      <c r="J68" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="K68" s="102"/>
-      <c r="L68" s="102"/>
-      <c r="M68" s="102"/>
+      <c r="K68" s="101"/>
+      <c r="L68" s="101"/>
+      <c r="M68" s="101"/>
       <c r="N68" s="29" t="s">
         <v>35</v>
       </c>
@@ -6054,28 +6084,28 @@
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="1:19">
-      <c r="A69" s="88" t="s">
+    <row r="69" spans="1:19" ht="16.5">
+      <c r="A69" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="B69" s="88"/>
-      <c r="C69" s="88"/>
-      <c r="D69" s="88"/>
-      <c r="E69" s="88"/>
-      <c r="F69" s="88"/>
-      <c r="G69" s="88"/>
-      <c r="H69" s="88"/>
+      <c r="B69" s="100"/>
+      <c r="C69" s="100"/>
+      <c r="D69" s="100"/>
+      <c r="E69" s="100"/>
+      <c r="F69" s="100"/>
+      <c r="G69" s="100"/>
+      <c r="H69" s="100"/>
       <c r="I69" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="J69" s="89" t="s">
+      <c r="J69" s="98" t="s">
         <v>96</v>
       </c>
-      <c r="K69" s="89"/>
-      <c r="L69" s="89"/>
-      <c r="M69" s="89"/>
-      <c r="N69" s="89"/>
-      <c r="O69" s="89"/>
+      <c r="K69" s="98"/>
+      <c r="L69" s="98"/>
+      <c r="M69" s="98"/>
+      <c r="N69" s="98"/>
+      <c r="O69" s="98"/>
       <c r="P69" s="15" t="s">
         <v>96</v>
       </c>
@@ -6090,23 +6120,23 @@
       </c>
     </row>
     <row r="70" spans="1:19">
-      <c r="A70" s="88"/>
-      <c r="B70" s="88"/>
-      <c r="C70" s="88"/>
-      <c r="D70" s="88"/>
-      <c r="E70" s="88"/>
-      <c r="F70" s="88"/>
-      <c r="G70" s="88"/>
-      <c r="H70" s="88"/>
+      <c r="A70" s="100"/>
+      <c r="B70" s="100"/>
+      <c r="C70" s="100"/>
+      <c r="D70" s="100"/>
+      <c r="E70" s="100"/>
+      <c r="F70" s="100"/>
+      <c r="G70" s="100"/>
+      <c r="H70" s="100"/>
       <c r="I70" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="J70" s="94" t="s">
+      <c r="J70" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="K70" s="94"/>
-      <c r="L70" s="94"/>
-      <c r="M70" s="94"/>
+      <c r="K70" s="102"/>
+      <c r="L70" s="102"/>
+      <c r="M70" s="102"/>
       <c r="N70" s="78"/>
       <c r="O70" s="78"/>
       <c r="P70" s="30" t="s">
@@ -6123,25 +6153,25 @@
       </c>
     </row>
     <row r="71" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A71" s="90" t="s">
+      <c r="A71" s="104" t="s">
         <v>45</v>
       </c>
-      <c r="B71" s="90"/>
-      <c r="C71" s="90"/>
-      <c r="D71" s="90"/>
-      <c r="E71" s="90"/>
-      <c r="F71" s="90"/>
-      <c r="G71" s="90"/>
-      <c r="H71" s="90"/>
+      <c r="B71" s="104"/>
+      <c r="C71" s="104"/>
+      <c r="D71" s="104"/>
+      <c r="E71" s="104"/>
+      <c r="F71" s="104"/>
+      <c r="G71" s="104"/>
+      <c r="H71" s="104"/>
       <c r="I71" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="J71" s="91" t="s">
+      <c r="J71" s="105" t="s">
         <v>99</v>
       </c>
-      <c r="K71" s="91"/>
-      <c r="L71" s="91"/>
-      <c r="M71" s="91"/>
+      <c r="K71" s="105"/>
+      <c r="L71" s="105"/>
+      <c r="M71" s="105"/>
       <c r="N71" s="31" t="s">
         <v>48</v>
       </c>
@@ -6162,16 +6192,16 @@
       </c>
     </row>
     <row r="72" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A72" s="88" t="s">
+      <c r="A72" s="100" t="s">
         <v>53</v>
       </c>
-      <c r="B72" s="88"/>
-      <c r="C72" s="88"/>
-      <c r="D72" s="88"/>
-      <c r="E72" s="88"/>
-      <c r="F72" s="88"/>
-      <c r="G72" s="88"/>
-      <c r="H72" s="88"/>
+      <c r="B72" s="100"/>
+      <c r="C72" s="100"/>
+      <c r="D72" s="100"/>
+      <c r="E72" s="100"/>
+      <c r="F72" s="100"/>
+      <c r="G72" s="100"/>
+      <c r="H72" s="100"/>
       <c r="I72" s="15" t="s">
         <v>103</v>
       </c>
@@ -6201,39 +6231,39 @@
       </c>
     </row>
     <row r="73" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A73" s="93" t="s">
+      <c r="A73" s="107" t="s">
         <v>59</v>
       </c>
-      <c r="B73" s="93"/>
-      <c r="C73" s="93"/>
-      <c r="D73" s="93"/>
-      <c r="E73" s="93"/>
-      <c r="F73" s="93"/>
-      <c r="G73" s="93"/>
-      <c r="H73" s="93"/>
-      <c r="I73" s="93"/>
-      <c r="J73" s="93"/>
-      <c r="K73" s="93"/>
-      <c r="L73" s="93"/>
-      <c r="M73" s="93"/>
-      <c r="N73" s="93"/>
-      <c r="O73" s="93"/>
-      <c r="P73" s="93"/>
-      <c r="Q73" s="93"/>
-      <c r="R73" s="93"/>
-      <c r="S73" s="93"/>
-    </row>
-    <row r="74" spans="1:19">
-      <c r="A74" s="88" t="s">
+      <c r="B73" s="107"/>
+      <c r="C73" s="107"/>
+      <c r="D73" s="107"/>
+      <c r="E73" s="107"/>
+      <c r="F73" s="107"/>
+      <c r="G73" s="107"/>
+      <c r="H73" s="107"/>
+      <c r="I73" s="107"/>
+      <c r="J73" s="107"/>
+      <c r="K73" s="107"/>
+      <c r="L73" s="107"/>
+      <c r="M73" s="107"/>
+      <c r="N73" s="107"/>
+      <c r="O73" s="107"/>
+      <c r="P73" s="107"/>
+      <c r="Q73" s="107"/>
+      <c r="R73" s="107"/>
+      <c r="S73" s="107"/>
+    </row>
+    <row r="74" spans="1:19" ht="16.5">
+      <c r="A74" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="B74" s="88"/>
-      <c r="C74" s="88"/>
-      <c r="D74" s="88"/>
-      <c r="E74" s="88"/>
-      <c r="F74" s="88"/>
-      <c r="G74" s="88"/>
-      <c r="H74" s="88"/>
+      <c r="B74" s="100"/>
+      <c r="C74" s="100"/>
+      <c r="D74" s="100"/>
+      <c r="E74" s="100"/>
+      <c r="F74" s="100"/>
+      <c r="G74" s="100"/>
+      <c r="H74" s="100"/>
       <c r="I74" s="15" t="s">
         <v>109</v>
       </c>
@@ -6263,23 +6293,23 @@
       </c>
     </row>
     <row r="75" spans="1:19">
-      <c r="A75" s="88"/>
-      <c r="B75" s="88"/>
-      <c r="C75" s="88"/>
-      <c r="D75" s="88"/>
-      <c r="E75" s="88"/>
-      <c r="F75" s="88"/>
-      <c r="G75" s="88"/>
-      <c r="H75" s="88"/>
+      <c r="A75" s="100"/>
+      <c r="B75" s="100"/>
+      <c r="C75" s="100"/>
+      <c r="D75" s="100"/>
+      <c r="E75" s="100"/>
+      <c r="F75" s="100"/>
+      <c r="G75" s="100"/>
+      <c r="H75" s="100"/>
       <c r="I75" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="J75" s="94" t="s">
+      <c r="J75" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="K75" s="94"/>
-      <c r="L75" s="94"/>
-      <c r="M75" s="94"/>
+      <c r="K75" s="102"/>
+      <c r="L75" s="102"/>
+      <c r="M75" s="102"/>
       <c r="N75" s="78"/>
       <c r="O75" s="78"/>
       <c r="P75" s="30" t="s">
@@ -6296,25 +6326,25 @@
       </c>
     </row>
     <row r="76" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A76" s="90" t="s">
+      <c r="A76" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="B76" s="90"/>
-      <c r="C76" s="90"/>
-      <c r="D76" s="90"/>
-      <c r="E76" s="90"/>
-      <c r="F76" s="90"/>
-      <c r="G76" s="90"/>
-      <c r="H76" s="90"/>
+      <c r="B76" s="104"/>
+      <c r="C76" s="104"/>
+      <c r="D76" s="104"/>
+      <c r="E76" s="104"/>
+      <c r="F76" s="104"/>
+      <c r="G76" s="104"/>
+      <c r="H76" s="104"/>
       <c r="I76" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="J76" s="91" t="s">
+      <c r="J76" s="105" t="s">
         <v>113</v>
       </c>
-      <c r="K76" s="91"/>
-      <c r="L76" s="91"/>
-      <c r="M76" s="91"/>
+      <c r="K76" s="105"/>
+      <c r="L76" s="105"/>
+      <c r="M76" s="105"/>
       <c r="N76" s="31" t="s">
         <v>71</v>
       </c>
@@ -6335,16 +6365,16 @@
       </c>
     </row>
     <row r="77" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A77" s="88" t="s">
+      <c r="A77" s="100" t="s">
         <v>53</v>
       </c>
-      <c r="B77" s="88"/>
-      <c r="C77" s="88"/>
-      <c r="D77" s="88"/>
-      <c r="E77" s="88"/>
-      <c r="F77" s="88"/>
-      <c r="G77" s="88"/>
-      <c r="H77" s="88"/>
+      <c r="B77" s="100"/>
+      <c r="C77" s="100"/>
+      <c r="D77" s="100"/>
+      <c r="E77" s="100"/>
+      <c r="F77" s="100"/>
+      <c r="G77" s="100"/>
+      <c r="H77" s="100"/>
       <c r="I77" s="15" t="s">
         <v>118</v>
       </c>
@@ -6374,25 +6404,25 @@
       </c>
     </row>
     <row r="78" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A78" s="90" t="s">
+      <c r="A78" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="B78" s="90"/>
-      <c r="C78" s="90"/>
-      <c r="D78" s="90"/>
-      <c r="E78" s="90"/>
-      <c r="F78" s="90"/>
-      <c r="G78" s="90"/>
-      <c r="H78" s="90"/>
+      <c r="B78" s="104"/>
+      <c r="C78" s="104"/>
+      <c r="D78" s="104"/>
+      <c r="E78" s="104"/>
+      <c r="F78" s="104"/>
+      <c r="G78" s="104"/>
+      <c r="H78" s="104"/>
       <c r="I78" s="32">
         <v>0</v>
       </c>
-      <c r="J78" s="92">
+      <c r="J78" s="113">
         <v>3.8300000000000001E-3</v>
       </c>
-      <c r="K78" s="92"/>
-      <c r="L78" s="92"/>
-      <c r="M78" s="92"/>
+      <c r="K78" s="113"/>
+      <c r="L78" s="113"/>
+      <c r="M78" s="113"/>
       <c r="N78" s="32">
         <v>0</v>
       </c>
@@ -6413,25 +6443,25 @@
       </c>
     </row>
     <row r="79" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A79" s="88" t="s">
+      <c r="A79" s="100" t="s">
         <v>83</v>
       </c>
-      <c r="B79" s="88"/>
-      <c r="C79" s="88"/>
-      <c r="D79" s="88"/>
-      <c r="E79" s="88"/>
-      <c r="F79" s="88"/>
-      <c r="G79" s="88"/>
-      <c r="H79" s="88"/>
+      <c r="B79" s="100"/>
+      <c r="C79" s="100"/>
+      <c r="D79" s="100"/>
+      <c r="E79" s="100"/>
+      <c r="F79" s="100"/>
+      <c r="G79" s="100"/>
+      <c r="H79" s="100"/>
       <c r="I79" s="34">
         <v>1E-3</v>
       </c>
-      <c r="J79" s="100">
+      <c r="J79" s="103">
         <v>1E-3</v>
       </c>
-      <c r="K79" s="100"/>
-      <c r="L79" s="100"/>
-      <c r="M79" s="100"/>
+      <c r="K79" s="103"/>
+      <c r="L79" s="103"/>
+      <c r="M79" s="103"/>
       <c r="N79" s="34">
         <v>0</v>
       </c>
@@ -6452,25 +6482,25 @@
       </c>
     </row>
     <row r="80" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A80" s="90" t="s">
+      <c r="A80" s="104" t="s">
         <v>84</v>
       </c>
-      <c r="B80" s="90"/>
-      <c r="C80" s="90"/>
-      <c r="D80" s="90"/>
-      <c r="E80" s="90"/>
-      <c r="F80" s="90"/>
-      <c r="G80" s="90"/>
-      <c r="H80" s="90"/>
+      <c r="B80" s="104"/>
+      <c r="C80" s="104"/>
+      <c r="D80" s="104"/>
+      <c r="E80" s="104"/>
+      <c r="F80" s="104"/>
+      <c r="G80" s="104"/>
+      <c r="H80" s="104"/>
       <c r="I80" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="J80" s="91" t="s">
+      <c r="J80" s="105" t="s">
         <v>124</v>
       </c>
-      <c r="K80" s="91"/>
-      <c r="L80" s="91"/>
-      <c r="M80" s="91"/>
+      <c r="K80" s="105"/>
+      <c r="L80" s="105"/>
+      <c r="M80" s="105"/>
       <c r="N80" s="31" t="s">
         <v>87</v>
       </c>
@@ -6491,25 +6521,25 @@
       </c>
     </row>
     <row r="81" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A81" s="88" t="s">
+      <c r="A81" s="100" t="s">
         <v>92</v>
       </c>
-      <c r="B81" s="88"/>
-      <c r="C81" s="88"/>
-      <c r="D81" s="88"/>
-      <c r="E81" s="88"/>
-      <c r="F81" s="88"/>
-      <c r="G81" s="88"/>
-      <c r="H81" s="88"/>
+      <c r="B81" s="100"/>
+      <c r="C81" s="100"/>
+      <c r="D81" s="100"/>
+      <c r="E81" s="100"/>
+      <c r="F81" s="100"/>
+      <c r="G81" s="100"/>
+      <c r="H81" s="100"/>
       <c r="I81" s="34">
         <v>0.25800000000000001</v>
       </c>
-      <c r="J81" s="100">
+      <c r="J81" s="103">
         <v>0.42899999999999999</v>
       </c>
-      <c r="K81" s="100"/>
-      <c r="L81" s="100"/>
-      <c r="M81" s="100"/>
+      <c r="K81" s="103"/>
+      <c r="L81" s="103"/>
+      <c r="M81" s="103"/>
       <c r="N81" s="34">
         <v>0</v>
       </c>
@@ -6530,155 +6560,155 @@
       </c>
     </row>
     <row r="82" spans="1:19">
-      <c r="A82" s="80"/>
-      <c r="B82" s="80"/>
-      <c r="C82" s="80"/>
-      <c r="D82" s="80"/>
-      <c r="E82" s="80"/>
-      <c r="F82" s="80"/>
-      <c r="G82" s="80"/>
-      <c r="H82" s="80"/>
-      <c r="I82" s="80"/>
-      <c r="J82" s="80"/>
-      <c r="K82" s="80"/>
-      <c r="L82" s="80"/>
-      <c r="M82" s="80"/>
-      <c r="N82" s="80"/>
-      <c r="O82" s="80"/>
-      <c r="P82" s="80"/>
-      <c r="Q82" s="80"/>
-      <c r="R82" s="80"/>
-      <c r="S82" s="80"/>
+      <c r="A82" s="99"/>
+      <c r="B82" s="99"/>
+      <c r="C82" s="99"/>
+      <c r="D82" s="99"/>
+      <c r="E82" s="99"/>
+      <c r="F82" s="99"/>
+      <c r="G82" s="99"/>
+      <c r="H82" s="99"/>
+      <c r="I82" s="99"/>
+      <c r="J82" s="99"/>
+      <c r="K82" s="99"/>
+      <c r="L82" s="99"/>
+      <c r="M82" s="99"/>
+      <c r="N82" s="99"/>
+      <c r="O82" s="99"/>
+      <c r="P82" s="99"/>
+      <c r="Q82" s="99"/>
+      <c r="R82" s="99"/>
+      <c r="S82" s="99"/>
     </row>
     <row r="83" spans="1:19" ht="20.25" customHeight="1">
-      <c r="A83" s="86" t="s">
+      <c r="A83" s="106" t="s">
         <v>127</v>
       </c>
-      <c r="B83" s="86"/>
-      <c r="C83" s="86"/>
-      <c r="D83" s="86"/>
-      <c r="E83" s="86"/>
-      <c r="F83" s="86"/>
-      <c r="G83" s="86"/>
-      <c r="H83" s="86"/>
-      <c r="I83" s="86"/>
-      <c r="J83" s="86"/>
-      <c r="K83" s="86"/>
-      <c r="L83" s="86"/>
-      <c r="M83" s="86"/>
-      <c r="N83" s="86"/>
-      <c r="O83" s="86"/>
-      <c r="P83" s="86"/>
-      <c r="Q83" s="86"/>
-      <c r="R83" s="86"/>
-      <c r="S83" s="86"/>
+      <c r="B83" s="106"/>
+      <c r="C83" s="106"/>
+      <c r="D83" s="106"/>
+      <c r="E83" s="106"/>
+      <c r="F83" s="106"/>
+      <c r="G83" s="106"/>
+      <c r="H83" s="106"/>
+      <c r="I83" s="106"/>
+      <c r="J83" s="106"/>
+      <c r="K83" s="106"/>
+      <c r="L83" s="106"/>
+      <c r="M83" s="106"/>
+      <c r="N83" s="106"/>
+      <c r="O83" s="106"/>
+      <c r="P83" s="106"/>
+      <c r="Q83" s="106"/>
+      <c r="R83" s="106"/>
+      <c r="S83" s="106"/>
     </row>
     <row r="84" spans="1:19">
-      <c r="A84" s="80"/>
-      <c r="B84" s="80"/>
-      <c r="C84" s="80"/>
-      <c r="D84" s="80"/>
-      <c r="E84" s="80"/>
-      <c r="F84" s="80"/>
-      <c r="G84" s="80"/>
-      <c r="H84" s="80"/>
-      <c r="I84" s="80"/>
-      <c r="J84" s="80"/>
-      <c r="K84" s="80"/>
-      <c r="L84" s="80"/>
-      <c r="M84" s="80"/>
-      <c r="N84" s="80"/>
-      <c r="O84" s="80"/>
-      <c r="P84" s="80"/>
-      <c r="Q84" s="80"/>
-      <c r="R84" s="80"/>
-      <c r="S84" s="80"/>
+      <c r="A84" s="99"/>
+      <c r="B84" s="99"/>
+      <c r="C84" s="99"/>
+      <c r="D84" s="99"/>
+      <c r="E84" s="99"/>
+      <c r="F84" s="99"/>
+      <c r="G84" s="99"/>
+      <c r="H84" s="99"/>
+      <c r="I84" s="99"/>
+      <c r="J84" s="99"/>
+      <c r="K84" s="99"/>
+      <c r="L84" s="99"/>
+      <c r="M84" s="99"/>
+      <c r="N84" s="99"/>
+      <c r="O84" s="99"/>
+      <c r="P84" s="99"/>
+      <c r="Q84" s="99"/>
+      <c r="R84" s="99"/>
+      <c r="S84" s="99"/>
     </row>
     <row r="85" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A85" s="84" t="s">
+      <c r="A85" s="91" t="s">
         <v>128</v>
       </c>
-      <c r="B85" s="84"/>
-      <c r="C85" s="84"/>
-      <c r="D85" s="84"/>
-      <c r="E85" s="84"/>
-      <c r="F85" s="84"/>
-      <c r="G85" s="84"/>
-      <c r="H85" s="84"/>
-      <c r="I85" s="84"/>
-      <c r="J85" s="84"/>
-      <c r="K85" s="84"/>
-      <c r="L85" s="84"/>
-      <c r="M85" s="84"/>
-      <c r="N85" s="84"/>
-      <c r="O85" s="84"/>
-      <c r="P85" s="84"/>
-      <c r="Q85" s="84"/>
-      <c r="R85" s="84"/>
-      <c r="S85" s="84"/>
+      <c r="B85" s="91"/>
+      <c r="C85" s="91"/>
+      <c r="D85" s="91"/>
+      <c r="E85" s="91"/>
+      <c r="F85" s="91"/>
+      <c r="G85" s="91"/>
+      <c r="H85" s="91"/>
+      <c r="I85" s="91"/>
+      <c r="J85" s="91"/>
+      <c r="K85" s="91"/>
+      <c r="L85" s="91"/>
+      <c r="M85" s="91"/>
+      <c r="N85" s="91"/>
+      <c r="O85" s="91"/>
+      <c r="P85" s="91"/>
+      <c r="Q85" s="91"/>
+      <c r="R85" s="91"/>
+      <c r="S85" s="91"/>
     </row>
     <row r="86" spans="1:19">
-      <c r="A86" s="85" t="s">
+      <c r="A86" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="B86" s="85"/>
-      <c r="C86" s="85"/>
-      <c r="D86" s="85"/>
-      <c r="E86" s="85"/>
-      <c r="F86" s="85"/>
-      <c r="G86" s="85"/>
-      <c r="H86" s="85"/>
-      <c r="I86" s="85"/>
-      <c r="J86" s="85"/>
-      <c r="K86" s="85"/>
-      <c r="L86" s="85"/>
-      <c r="M86" s="85"/>
-      <c r="N86" s="85"/>
-      <c r="O86" s="85"/>
-      <c r="P86" s="85"/>
-      <c r="Q86" s="85"/>
-      <c r="R86" s="85"/>
-      <c r="S86" s="85"/>
-    </row>
-    <row r="87" spans="1:19" ht="15" thickBot="1">
-      <c r="A87" s="84"/>
-      <c r="B87" s="84"/>
-      <c r="C87" s="84"/>
-      <c r="D87" s="84"/>
-      <c r="E87" s="84"/>
-      <c r="F87" s="84"/>
-      <c r="G87" s="84"/>
-      <c r="H87" s="84"/>
-      <c r="I87" s="84"/>
-      <c r="J87" s="84"/>
-      <c r="K87" s="84"/>
-      <c r="L87" s="84"/>
-      <c r="M87" s="84"/>
-      <c r="N87" s="84"/>
-      <c r="O87" s="84"/>
-      <c r="P87" s="84"/>
-      <c r="Q87" s="84"/>
-      <c r="R87" s="84"/>
-      <c r="S87" s="84"/>
-    </row>
-    <row r="88" spans="1:19" ht="15" thickTop="1">
-      <c r="A88" s="88"/>
-      <c r="B88" s="88"/>
-      <c r="C88" s="88"/>
-      <c r="D88" s="88"/>
-      <c r="E88" s="88"/>
-      <c r="F88" s="88"/>
-      <c r="G88" s="88"/>
-      <c r="H88" s="88"/>
+      <c r="B86" s="80"/>
+      <c r="C86" s="80"/>
+      <c r="D86" s="80"/>
+      <c r="E86" s="80"/>
+      <c r="F86" s="80"/>
+      <c r="G86" s="80"/>
+      <c r="H86" s="80"/>
+      <c r="I86" s="80"/>
+      <c r="J86" s="80"/>
+      <c r="K86" s="80"/>
+      <c r="L86" s="80"/>
+      <c r="M86" s="80"/>
+      <c r="N86" s="80"/>
+      <c r="O86" s="80"/>
+      <c r="P86" s="80"/>
+      <c r="Q86" s="80"/>
+      <c r="R86" s="80"/>
+      <c r="S86" s="80"/>
+    </row>
+    <row r="87" spans="1:19" ht="17.25" thickBot="1">
+      <c r="A87" s="91"/>
+      <c r="B87" s="91"/>
+      <c r="C87" s="91"/>
+      <c r="D87" s="91"/>
+      <c r="E87" s="91"/>
+      <c r="F87" s="91"/>
+      <c r="G87" s="91"/>
+      <c r="H87" s="91"/>
+      <c r="I87" s="91"/>
+      <c r="J87" s="91"/>
+      <c r="K87" s="91"/>
+      <c r="L87" s="91"/>
+      <c r="M87" s="91"/>
+      <c r="N87" s="91"/>
+      <c r="O87" s="91"/>
+      <c r="P87" s="91"/>
+      <c r="Q87" s="91"/>
+      <c r="R87" s="91"/>
+      <c r="S87" s="91"/>
+    </row>
+    <row r="88" spans="1:19" ht="17.25" thickTop="1">
+      <c r="A88" s="100"/>
+      <c r="B88" s="100"/>
+      <c r="C88" s="100"/>
+      <c r="D88" s="100"/>
+      <c r="E88" s="100"/>
+      <c r="F88" s="100"/>
+      <c r="G88" s="100"/>
+      <c r="H88" s="100"/>
       <c r="I88" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="J88" s="102" t="s">
+      <c r="J88" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="K88" s="102"/>
-      <c r="L88" s="102"/>
-      <c r="M88" s="102"/>
+      <c r="K88" s="101"/>
+      <c r="L88" s="101"/>
+      <c r="M88" s="101"/>
       <c r="N88" s="29" t="s">
         <v>35</v>
       </c>
@@ -6698,36 +6728,36 @@
         <v>40</v>
       </c>
     </row>
-    <row r="89" spans="1:19">
-      <c r="A89" s="88" t="s">
+    <row r="89" spans="1:19" ht="16.5">
+      <c r="A89" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="B89" s="88"/>
-      <c r="C89" s="88"/>
-      <c r="D89" s="88"/>
-      <c r="E89" s="88"/>
-      <c r="F89" s="88"/>
-      <c r="G89" s="88"/>
-      <c r="H89" s="88"/>
-      <c r="I89" s="89" t="s">
+      <c r="B89" s="100"/>
+      <c r="C89" s="100"/>
+      <c r="D89" s="100"/>
+      <c r="E89" s="100"/>
+      <c r="F89" s="100"/>
+      <c r="G89" s="100"/>
+      <c r="H89" s="100"/>
+      <c r="I89" s="98" t="s">
         <v>63</v>
       </c>
-      <c r="J89" s="89" t="s">
+      <c r="J89" s="98" t="s">
         <v>63</v>
       </c>
-      <c r="K89" s="89"/>
-      <c r="L89" s="89"/>
-      <c r="M89" s="89"/>
-      <c r="N89" s="89" t="s">
+      <c r="K89" s="98"/>
+      <c r="L89" s="98"/>
+      <c r="M89" s="98"/>
+      <c r="N89" s="98" t="s">
         <v>63</v>
       </c>
-      <c r="O89" s="89" t="s">
+      <c r="O89" s="98" t="s">
         <v>63</v>
       </c>
-      <c r="P89" s="89" t="s">
+      <c r="P89" s="98" t="s">
         <v>63</v>
       </c>
-      <c r="Q89" s="89" t="s">
+      <c r="Q89" s="98" t="s">
         <v>63</v>
       </c>
       <c r="R89" s="15" t="s">
@@ -6738,14 +6768,14 @@
       </c>
     </row>
     <row r="90" spans="1:19">
-      <c r="A90" s="88"/>
-      <c r="B90" s="88"/>
-      <c r="C90" s="88"/>
-      <c r="D90" s="88"/>
-      <c r="E90" s="88"/>
-      <c r="F90" s="88"/>
-      <c r="G90" s="88"/>
-      <c r="H90" s="88"/>
+      <c r="A90" s="100"/>
+      <c r="B90" s="100"/>
+      <c r="C90" s="100"/>
+      <c r="D90" s="100"/>
+      <c r="E90" s="100"/>
+      <c r="F90" s="100"/>
+      <c r="G90" s="100"/>
+      <c r="H90" s="100"/>
       <c r="I90" s="78"/>
       <c r="J90" s="78"/>
       <c r="K90" s="78"/>
@@ -6763,25 +6793,25 @@
       </c>
     </row>
     <row r="91" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A91" s="90" t="s">
+      <c r="A91" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="B91" s="90"/>
-      <c r="C91" s="90"/>
-      <c r="D91" s="90"/>
-      <c r="E91" s="90"/>
-      <c r="F91" s="90"/>
-      <c r="G91" s="90"/>
-      <c r="H91" s="90"/>
+      <c r="B91" s="104"/>
+      <c r="C91" s="104"/>
+      <c r="D91" s="104"/>
+      <c r="E91" s="104"/>
+      <c r="F91" s="104"/>
+      <c r="G91" s="104"/>
+      <c r="H91" s="104"/>
       <c r="I91" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="J91" s="91" t="s">
+      <c r="J91" s="105" t="s">
         <v>71</v>
       </c>
-      <c r="K91" s="91"/>
-      <c r="L91" s="91"/>
-      <c r="M91" s="91"/>
+      <c r="K91" s="105"/>
+      <c r="L91" s="105"/>
+      <c r="M91" s="105"/>
       <c r="N91" s="31" t="s">
         <v>71</v>
       </c>
@@ -6802,16 +6832,16 @@
       </c>
     </row>
     <row r="92" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A92" s="88" t="s">
+      <c r="A92" s="100" t="s">
         <v>53</v>
       </c>
-      <c r="B92" s="88"/>
-      <c r="C92" s="88"/>
-      <c r="D92" s="88"/>
-      <c r="E92" s="88"/>
-      <c r="F92" s="88"/>
-      <c r="G92" s="88"/>
-      <c r="H92" s="88"/>
+      <c r="B92" s="100"/>
+      <c r="C92" s="100"/>
+      <c r="D92" s="100"/>
+      <c r="E92" s="100"/>
+      <c r="F92" s="100"/>
+      <c r="G92" s="100"/>
+      <c r="H92" s="100"/>
       <c r="I92" s="15" t="s">
         <v>78</v>
       </c>
@@ -6841,25 +6871,25 @@
       </c>
     </row>
     <row r="93" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A93" s="90" t="s">
+      <c r="A93" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="B93" s="90"/>
-      <c r="C93" s="90"/>
-      <c r="D93" s="90"/>
-      <c r="E93" s="90"/>
-      <c r="F93" s="90"/>
-      <c r="G93" s="90"/>
-      <c r="H93" s="90"/>
+      <c r="B93" s="104"/>
+      <c r="C93" s="104"/>
+      <c r="D93" s="104"/>
+      <c r="E93" s="104"/>
+      <c r="F93" s="104"/>
+      <c r="G93" s="104"/>
+      <c r="H93" s="104"/>
       <c r="I93" s="32">
         <v>0</v>
       </c>
-      <c r="J93" s="101">
+      <c r="J93" s="111">
         <v>0</v>
       </c>
-      <c r="K93" s="101"/>
-      <c r="L93" s="101"/>
-      <c r="M93" s="101"/>
+      <c r="K93" s="111"/>
+      <c r="L93" s="111"/>
+      <c r="M93" s="111"/>
       <c r="N93" s="32">
         <v>0</v>
       </c>
@@ -6880,25 +6910,25 @@
       </c>
     </row>
     <row r="94" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A94" s="88" t="s">
+      <c r="A94" s="100" t="s">
         <v>83</v>
       </c>
-      <c r="B94" s="88"/>
-      <c r="C94" s="88"/>
-      <c r="D94" s="88"/>
-      <c r="E94" s="88"/>
-      <c r="F94" s="88"/>
-      <c r="G94" s="88"/>
-      <c r="H94" s="88"/>
+      <c r="B94" s="100"/>
+      <c r="C94" s="100"/>
+      <c r="D94" s="100"/>
+      <c r="E94" s="100"/>
+      <c r="F94" s="100"/>
+      <c r="G94" s="100"/>
+      <c r="H94" s="100"/>
       <c r="I94" s="34">
         <v>0</v>
       </c>
-      <c r="J94" s="100">
+      <c r="J94" s="103">
         <v>0</v>
       </c>
-      <c r="K94" s="100"/>
-      <c r="L94" s="100"/>
-      <c r="M94" s="100"/>
+      <c r="K94" s="103"/>
+      <c r="L94" s="103"/>
+      <c r="M94" s="103"/>
       <c r="N94" s="34">
         <v>0</v>
       </c>
@@ -6919,25 +6949,25 @@
       </c>
     </row>
     <row r="95" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A95" s="90" t="s">
+      <c r="A95" s="104" t="s">
         <v>84</v>
       </c>
-      <c r="B95" s="90"/>
-      <c r="C95" s="90"/>
-      <c r="D95" s="90"/>
-      <c r="E95" s="90"/>
-      <c r="F95" s="90"/>
-      <c r="G95" s="90"/>
-      <c r="H95" s="90"/>
+      <c r="B95" s="104"/>
+      <c r="C95" s="104"/>
+      <c r="D95" s="104"/>
+      <c r="E95" s="104"/>
+      <c r="F95" s="104"/>
+      <c r="G95" s="104"/>
+      <c r="H95" s="104"/>
       <c r="I95" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="J95" s="91" t="s">
+      <c r="J95" s="105" t="s">
         <v>87</v>
       </c>
-      <c r="K95" s="91"/>
-      <c r="L95" s="91"/>
-      <c r="M95" s="91"/>
+      <c r="K95" s="105"/>
+      <c r="L95" s="105"/>
+      <c r="M95" s="105"/>
       <c r="N95" s="31" t="s">
         <v>87</v>
       </c>
@@ -6958,25 +6988,25 @@
       </c>
     </row>
     <row r="96" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A96" s="88" t="s">
+      <c r="A96" s="100" t="s">
         <v>92</v>
       </c>
-      <c r="B96" s="88"/>
-      <c r="C96" s="88"/>
-      <c r="D96" s="88"/>
-      <c r="E96" s="88"/>
-      <c r="F96" s="88"/>
-      <c r="G96" s="88"/>
-      <c r="H96" s="88"/>
+      <c r="B96" s="100"/>
+      <c r="C96" s="100"/>
+      <c r="D96" s="100"/>
+      <c r="E96" s="100"/>
+      <c r="F96" s="100"/>
+      <c r="G96" s="100"/>
+      <c r="H96" s="100"/>
       <c r="I96" s="34">
         <v>0</v>
       </c>
-      <c r="J96" s="100">
+      <c r="J96" s="103">
         <v>0</v>
       </c>
-      <c r="K96" s="100"/>
-      <c r="L96" s="100"/>
-      <c r="M96" s="100"/>
+      <c r="K96" s="103"/>
+      <c r="L96" s="103"/>
+      <c r="M96" s="103"/>
       <c r="N96" s="34">
         <v>0</v>
       </c>
@@ -6997,17 +7027,17 @@
       </c>
     </row>
     <row r="97" spans="1:19">
-      <c r="A97" s="98" t="s">
+      <c r="A97" s="81" t="s">
         <v>134</v>
       </c>
-      <c r="B97" s="98"/>
-      <c r="C97" s="98"/>
-      <c r="D97" s="98"/>
-      <c r="E97" s="98"/>
-      <c r="F97" s="98"/>
-      <c r="G97" s="98"/>
-      <c r="H97" s="98"/>
-      <c r="I97" s="85" t="s">
+      <c r="B97" s="81"/>
+      <c r="C97" s="81"/>
+      <c r="D97" s="81"/>
+      <c r="E97" s="81"/>
+      <c r="F97" s="81"/>
+      <c r="G97" s="81"/>
+      <c r="H97" s="81"/>
+      <c r="I97" s="80" t="s">
         <v>135</v>
       </c>
       <c r="J97" s="4"/>
@@ -7022,15 +7052,15 @@
       <c r="S97" s="4"/>
     </row>
     <row r="98" spans="1:19">
-      <c r="A98" s="98"/>
-      <c r="B98" s="98"/>
-      <c r="C98" s="98"/>
-      <c r="D98" s="98"/>
-      <c r="E98" s="98"/>
-      <c r="F98" s="98"/>
-      <c r="G98" s="98"/>
-      <c r="H98" s="98"/>
-      <c r="I98" s="85"/>
+      <c r="A98" s="81"/>
+      <c r="B98" s="81"/>
+      <c r="C98" s="81"/>
+      <c r="D98" s="81"/>
+      <c r="E98" s="81"/>
+      <c r="F98" s="81"/>
+      <c r="G98" s="81"/>
+      <c r="H98" s="81"/>
+      <c r="I98" s="80"/>
       <c r="J98" s="4"/>
       <c r="K98" s="4"/>
       <c r="L98" s="4"/>
@@ -7042,23 +7072,23 @@
       <c r="R98" s="4"/>
       <c r="S98" s="4"/>
     </row>
-    <row r="99" spans="1:19">
-      <c r="A99" s="99" t="s">
+    <row r="99" spans="1:19" ht="16.5">
+      <c r="A99" s="110" t="s">
         <v>136</v>
       </c>
-      <c r="B99" s="99"/>
-      <c r="C99" s="99"/>
-      <c r="D99" s="99"/>
-      <c r="E99" s="99"/>
-      <c r="F99" s="99"/>
-      <c r="G99" s="99"/>
-      <c r="H99" s="99"/>
-      <c r="I99" s="99"/>
-      <c r="J99" s="99"/>
-      <c r="K99" s="99"/>
-      <c r="L99" s="99"/>
-      <c r="M99" s="99"/>
-      <c r="N99" s="99"/>
+      <c r="B99" s="110"/>
+      <c r="C99" s="110"/>
+      <c r="D99" s="110"/>
+      <c r="E99" s="110"/>
+      <c r="F99" s="110"/>
+      <c r="G99" s="110"/>
+      <c r="H99" s="110"/>
+      <c r="I99" s="110"/>
+      <c r="J99" s="110"/>
+      <c r="K99" s="110"/>
+      <c r="L99" s="110"/>
+      <c r="M99" s="110"/>
+      <c r="N99" s="110"/>
       <c r="O99" s="4"/>
       <c r="P99" s="4"/>
       <c r="Q99" s="4"/>
@@ -7066,14 +7096,14 @@
       <c r="S99" s="4"/>
     </row>
     <row r="100" spans="1:19" ht="33.75">
-      <c r="A100" s="87"/>
-      <c r="B100" s="87"/>
-      <c r="C100" s="87"/>
-      <c r="D100" s="87"/>
-      <c r="E100" s="87"/>
-      <c r="F100" s="87"/>
-      <c r="G100" s="87"/>
-      <c r="H100" s="87"/>
+      <c r="A100" s="118"/>
+      <c r="B100" s="118"/>
+      <c r="C100" s="118"/>
+      <c r="D100" s="118"/>
+      <c r="E100" s="118"/>
+      <c r="F100" s="118"/>
+      <c r="G100" s="118"/>
+      <c r="H100" s="118"/>
       <c r="I100" s="15" t="s">
         <v>137</v>
       </c>
@@ -7090,15 +7120,15 @@
       <c r="R100" s="4"/>
       <c r="S100" s="4"/>
     </row>
-    <row r="101" spans="1:19">
-      <c r="A101" s="88"/>
-      <c r="B101" s="88"/>
-      <c r="C101" s="88"/>
-      <c r="D101" s="88"/>
-      <c r="E101" s="88"/>
-      <c r="F101" s="88"/>
-      <c r="G101" s="88"/>
-      <c r="H101" s="88"/>
+    <row r="101" spans="1:19" ht="16.5">
+      <c r="A101" s="100"/>
+      <c r="B101" s="100"/>
+      <c r="C101" s="100"/>
+      <c r="D101" s="100"/>
+      <c r="E101" s="100"/>
+      <c r="F101" s="100"/>
+      <c r="G101" s="100"/>
+      <c r="H101" s="100"/>
       <c r="I101" s="4"/>
       <c r="J101" s="4"/>
       <c r="K101" s="4"/>
@@ -7112,180 +7142,180 @@
       <c r="S101" s="4"/>
     </row>
     <row r="102" spans="1:19">
-      <c r="A102" s="80"/>
-      <c r="B102" s="80"/>
-      <c r="C102" s="80"/>
-      <c r="D102" s="80"/>
-      <c r="E102" s="80"/>
-      <c r="F102" s="80"/>
-      <c r="G102" s="80"/>
-      <c r="H102" s="80"/>
-      <c r="I102" s="80"/>
-      <c r="J102" s="80"/>
-      <c r="K102" s="80"/>
-      <c r="L102" s="80"/>
-      <c r="M102" s="80"/>
-      <c r="N102" s="80"/>
-      <c r="O102" s="80"/>
-      <c r="P102" s="80"/>
-      <c r="Q102" s="80"/>
-      <c r="R102" s="80"/>
-      <c r="S102" s="80"/>
+      <c r="A102" s="99"/>
+      <c r="B102" s="99"/>
+      <c r="C102" s="99"/>
+      <c r="D102" s="99"/>
+      <c r="E102" s="99"/>
+      <c r="F102" s="99"/>
+      <c r="G102" s="99"/>
+      <c r="H102" s="99"/>
+      <c r="I102" s="99"/>
+      <c r="J102" s="99"/>
+      <c r="K102" s="99"/>
+      <c r="L102" s="99"/>
+      <c r="M102" s="99"/>
+      <c r="N102" s="99"/>
+      <c r="O102" s="99"/>
+      <c r="P102" s="99"/>
+      <c r="Q102" s="99"/>
+      <c r="R102" s="99"/>
+      <c r="S102" s="99"/>
     </row>
     <row r="103" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A103" s="81" t="s">
+      <c r="A103" s="116" t="s">
         <v>139</v>
       </c>
-      <c r="B103" s="81"/>
-      <c r="C103" s="81"/>
-      <c r="D103" s="81"/>
-      <c r="E103" s="81"/>
-      <c r="F103" s="81"/>
-      <c r="G103" s="81"/>
-      <c r="H103" s="81"/>
-      <c r="I103" s="81"/>
-      <c r="J103" s="81"/>
-      <c r="K103" s="81"/>
-      <c r="L103" s="81"/>
-      <c r="M103" s="81"/>
-      <c r="N103" s="81"/>
-      <c r="O103" s="81"/>
-      <c r="P103" s="81"/>
-      <c r="Q103" s="81"/>
-      <c r="R103" s="81"/>
-      <c r="S103" s="81"/>
-    </row>
-    <row r="104" spans="1:19">
-      <c r="A104" s="81"/>
-      <c r="B104" s="81"/>
-      <c r="C104" s="81"/>
-      <c r="D104" s="81"/>
-      <c r="E104" s="81"/>
-      <c r="F104" s="81"/>
-      <c r="G104" s="81"/>
-      <c r="H104" s="81"/>
-      <c r="I104" s="81"/>
-      <c r="J104" s="81"/>
-      <c r="K104" s="81"/>
-      <c r="L104" s="81"/>
-      <c r="M104" s="81"/>
-      <c r="N104" s="81"/>
-      <c r="O104" s="81"/>
-      <c r="P104" s="81"/>
-      <c r="Q104" s="81"/>
-      <c r="R104" s="81"/>
-      <c r="S104" s="81"/>
+      <c r="B103" s="116"/>
+      <c r="C103" s="116"/>
+      <c r="D103" s="116"/>
+      <c r="E103" s="116"/>
+      <c r="F103" s="116"/>
+      <c r="G103" s="116"/>
+      <c r="H103" s="116"/>
+      <c r="I103" s="116"/>
+      <c r="J103" s="116"/>
+      <c r="K103" s="116"/>
+      <c r="L103" s="116"/>
+      <c r="M103" s="116"/>
+      <c r="N103" s="116"/>
+      <c r="O103" s="116"/>
+      <c r="P103" s="116"/>
+      <c r="Q103" s="116"/>
+      <c r="R103" s="116"/>
+      <c r="S103" s="116"/>
+    </row>
+    <row r="104" spans="1:19" ht="16.5">
+      <c r="A104" s="116"/>
+      <c r="B104" s="116"/>
+      <c r="C104" s="116"/>
+      <c r="D104" s="116"/>
+      <c r="E104" s="116"/>
+      <c r="F104" s="116"/>
+      <c r="G104" s="116"/>
+      <c r="H104" s="116"/>
+      <c r="I104" s="116"/>
+      <c r="J104" s="116"/>
+      <c r="K104" s="116"/>
+      <c r="L104" s="116"/>
+      <c r="M104" s="116"/>
+      <c r="N104" s="116"/>
+      <c r="O104" s="116"/>
+      <c r="P104" s="116"/>
+      <c r="Q104" s="116"/>
+      <c r="R104" s="116"/>
+      <c r="S104" s="116"/>
     </row>
     <row r="105" spans="1:19">
-      <c r="A105" s="82" t="s">
+      <c r="A105" s="117" t="s">
         <v>140</v>
       </c>
-      <c r="B105" s="82"/>
-      <c r="C105" s="82"/>
-      <c r="D105" s="82"/>
-      <c r="E105" s="82"/>
-      <c r="F105" s="82"/>
-      <c r="G105" s="82"/>
-      <c r="H105" s="82"/>
-      <c r="I105" s="82"/>
-      <c r="J105" s="82"/>
-      <c r="K105" s="82"/>
-      <c r="L105" s="82"/>
-      <c r="M105" s="82"/>
-      <c r="N105" s="82"/>
-      <c r="O105" s="82"/>
-      <c r="P105" s="82"/>
-      <c r="Q105" s="82"/>
-      <c r="R105" s="82"/>
-      <c r="S105" s="82"/>
+      <c r="B105" s="117"/>
+      <c r="C105" s="117"/>
+      <c r="D105" s="117"/>
+      <c r="E105" s="117"/>
+      <c r="F105" s="117"/>
+      <c r="G105" s="117"/>
+      <c r="H105" s="117"/>
+      <c r="I105" s="117"/>
+      <c r="J105" s="117"/>
+      <c r="K105" s="117"/>
+      <c r="L105" s="117"/>
+      <c r="M105" s="117"/>
+      <c r="N105" s="117"/>
+      <c r="O105" s="117"/>
+      <c r="P105" s="117"/>
+      <c r="Q105" s="117"/>
+      <c r="R105" s="117"/>
+      <c r="S105" s="117"/>
     </row>
     <row r="106" spans="1:19">
-      <c r="A106" s="79"/>
-      <c r="B106" s="79"/>
-      <c r="C106" s="79"/>
-      <c r="D106" s="79"/>
-      <c r="E106" s="79"/>
-      <c r="F106" s="79"/>
-      <c r="G106" s="79"/>
-      <c r="H106" s="79"/>
-      <c r="I106" s="79"/>
-      <c r="J106" s="79"/>
-      <c r="K106" s="79"/>
-      <c r="L106" s="79"/>
-      <c r="M106" s="79"/>
-      <c r="N106" s="79"/>
-      <c r="O106" s="79"/>
-      <c r="P106" s="79"/>
-      <c r="Q106" s="79"/>
-      <c r="R106" s="79"/>
-      <c r="S106" s="79"/>
+      <c r="A106" s="115"/>
+      <c r="B106" s="115"/>
+      <c r="C106" s="115"/>
+      <c r="D106" s="115"/>
+      <c r="E106" s="115"/>
+      <c r="F106" s="115"/>
+      <c r="G106" s="115"/>
+      <c r="H106" s="115"/>
+      <c r="I106" s="115"/>
+      <c r="J106" s="115"/>
+      <c r="K106" s="115"/>
+      <c r="L106" s="115"/>
+      <c r="M106" s="115"/>
+      <c r="N106" s="115"/>
+      <c r="O106" s="115"/>
+      <c r="P106" s="115"/>
+      <c r="Q106" s="115"/>
+      <c r="R106" s="115"/>
+      <c r="S106" s="115"/>
     </row>
     <row r="107" spans="1:19">
-      <c r="A107" s="83" t="s">
+      <c r="A107" s="114" t="s">
         <v>141</v>
       </c>
-      <c r="B107" s="83"/>
-      <c r="C107" s="83"/>
-      <c r="D107" s="83"/>
-      <c r="E107" s="83"/>
-      <c r="F107" s="83"/>
-      <c r="G107" s="83"/>
-      <c r="H107" s="83"/>
-      <c r="I107" s="83"/>
-      <c r="J107" s="83"/>
-      <c r="K107" s="83"/>
-      <c r="L107" s="83"/>
-      <c r="M107" s="83"/>
-      <c r="N107" s="83"/>
-      <c r="O107" s="83"/>
-      <c r="P107" s="83"/>
-      <c r="Q107" s="83"/>
-      <c r="R107" s="83"/>
-      <c r="S107" s="83"/>
+      <c r="B107" s="114"/>
+      <c r="C107" s="114"/>
+      <c r="D107" s="114"/>
+      <c r="E107" s="114"/>
+      <c r="F107" s="114"/>
+      <c r="G107" s="114"/>
+      <c r="H107" s="114"/>
+      <c r="I107" s="114"/>
+      <c r="J107" s="114"/>
+      <c r="K107" s="114"/>
+      <c r="L107" s="114"/>
+      <c r="M107" s="114"/>
+      <c r="N107" s="114"/>
+      <c r="O107" s="114"/>
+      <c r="P107" s="114"/>
+      <c r="Q107" s="114"/>
+      <c r="R107" s="114"/>
+      <c r="S107" s="114"/>
     </row>
     <row r="108" spans="1:19">
-      <c r="A108" s="83" t="s">
+      <c r="A108" s="114" t="s">
         <v>142</v>
       </c>
-      <c r="B108" s="83"/>
-      <c r="C108" s="83"/>
-      <c r="D108" s="83"/>
-      <c r="E108" s="83"/>
-      <c r="F108" s="83"/>
-      <c r="G108" s="83"/>
-      <c r="H108" s="83"/>
-      <c r="I108" s="83"/>
-      <c r="J108" s="83"/>
-      <c r="K108" s="83"/>
-      <c r="L108" s="83"/>
-      <c r="M108" s="83"/>
-      <c r="N108" s="83"/>
-      <c r="O108" s="83"/>
-      <c r="P108" s="83"/>
-      <c r="Q108" s="83"/>
-      <c r="R108" s="83"/>
-      <c r="S108" s="83"/>
+      <c r="B108" s="114"/>
+      <c r="C108" s="114"/>
+      <c r="D108" s="114"/>
+      <c r="E108" s="114"/>
+      <c r="F108" s="114"/>
+      <c r="G108" s="114"/>
+      <c r="H108" s="114"/>
+      <c r="I108" s="114"/>
+      <c r="J108" s="114"/>
+      <c r="K108" s="114"/>
+      <c r="L108" s="114"/>
+      <c r="M108" s="114"/>
+      <c r="N108" s="114"/>
+      <c r="O108" s="114"/>
+      <c r="P108" s="114"/>
+      <c r="Q108" s="114"/>
+      <c r="R108" s="114"/>
+      <c r="S108" s="114"/>
     </row>
     <row r="109" spans="1:19">
-      <c r="A109" s="79"/>
-      <c r="B109" s="79"/>
-      <c r="C109" s="79"/>
-      <c r="D109" s="79"/>
-      <c r="E109" s="79"/>
-      <c r="F109" s="79"/>
-      <c r="G109" s="79"/>
-      <c r="H109" s="79"/>
-      <c r="I109" s="79"/>
-      <c r="J109" s="79"/>
-      <c r="K109" s="79"/>
-      <c r="L109" s="79"/>
-      <c r="M109" s="79"/>
-      <c r="N109" s="79"/>
-      <c r="O109" s="79"/>
-      <c r="P109" s="79"/>
-      <c r="Q109" s="79"/>
-      <c r="R109" s="79"/>
-      <c r="S109" s="79"/>
+      <c r="A109" s="115"/>
+      <c r="B109" s="115"/>
+      <c r="C109" s="115"/>
+      <c r="D109" s="115"/>
+      <c r="E109" s="115"/>
+      <c r="F109" s="115"/>
+      <c r="G109" s="115"/>
+      <c r="H109" s="115"/>
+      <c r="I109" s="115"/>
+      <c r="J109" s="115"/>
+      <c r="K109" s="115"/>
+      <c r="L109" s="115"/>
+      <c r="M109" s="115"/>
+      <c r="N109" s="115"/>
+      <c r="O109" s="115"/>
+      <c r="P109" s="115"/>
+      <c r="Q109" s="115"/>
+      <c r="R109" s="115"/>
+      <c r="S109" s="115"/>
     </row>
     <row r="111" spans="1:19" ht="23.25">
       <c r="A111" s="50" t="s">
@@ -7295,7 +7325,7 @@
     <row r="112" spans="1:19">
       <c r="A112" s="51"/>
     </row>
-    <row r="113" spans="1:1">
+    <row r="113" spans="1:1" ht="16.5">
       <c r="A113" s="52" t="s">
         <v>6</v>
       </c>
@@ -7303,7 +7333,7 @@
     <row r="114" spans="1:1">
       <c r="A114" s="51"/>
     </row>
-    <row r="115" spans="1:1">
+    <row r="115" spans="1:1" ht="16.5">
       <c r="A115" s="52" t="s">
         <v>144</v>
       </c>
@@ -7311,12 +7341,12 @@
     <row r="116" spans="1:1">
       <c r="A116" s="51"/>
     </row>
-    <row r="117" spans="1:1">
+    <row r="117" spans="1:1" ht="16.5">
       <c r="A117" s="52" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" spans="1:1" ht="16.5">
       <c r="A118" s="52" t="s">
         <v>145</v>
       </c>
@@ -7327,12 +7357,12 @@
     <row r="120" spans="1:1">
       <c r="A120" s="51"/>
     </row>
-    <row r="121" spans="1:1">
+    <row r="121" spans="1:1" ht="16.5">
       <c r="A121" s="52" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="122" spans="1:1">
+    <row r="122" spans="1:1" ht="16.5">
       <c r="A122" s="52" t="s">
         <v>7</v>
       </c>
@@ -7340,7 +7370,7 @@
     <row r="123" spans="1:1">
       <c r="A123" s="51"/>
     </row>
-    <row r="124" spans="1:1">
+    <row r="124" spans="1:1" ht="16.5">
       <c r="A124" s="52" t="s">
         <v>8</v>
       </c>
@@ -7348,27 +7378,27 @@
     <row r="125" spans="1:1">
       <c r="A125" s="51"/>
     </row>
-    <row r="126" spans="1:1">
+    <row r="126" spans="1:1" ht="16.5">
       <c r="A126" s="52" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
+    <row r="127" spans="1:1" ht="16.5">
       <c r="A127" s="52" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="128" spans="1:1">
+    <row r="128" spans="1:1" ht="16.5">
       <c r="A128" s="52" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129" spans="1:1" ht="16.5">
       <c r="A129" s="52" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="130" spans="1:1">
+    <row r="130" spans="1:1" ht="16.5">
       <c r="A130" s="52" t="s">
         <v>151</v>
       </c>
@@ -7376,7 +7406,7 @@
     <row r="131" spans="1:1">
       <c r="A131" s="51"/>
     </row>
-    <row r="132" spans="1:1">
+    <row r="132" spans="1:1" ht="16.5">
       <c r="A132" s="52" t="s">
         <v>152</v>
       </c>
@@ -7387,322 +7417,322 @@
     <row r="134" spans="1:1">
       <c r="A134" s="51"/>
     </row>
-    <row r="135" spans="1:1">
+    <row r="135" spans="1:1" ht="16.5">
       <c r="A135" s="52" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="136" spans="1:1">
+    <row r="136" spans="1:1" ht="16.5">
       <c r="A136" s="52" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="137" spans="1:1">
+    <row r="137" spans="1:1" ht="16.5">
       <c r="A137" s="52" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="138" spans="1:1">
+    <row r="138" spans="1:1" ht="16.5">
       <c r="A138" s="52" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="139" spans="1:1">
+    <row r="139" spans="1:1" ht="16.5">
       <c r="A139" s="52" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="140" spans="1:1">
+    <row r="140" spans="1:1" ht="16.5">
       <c r="A140" s="52" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="141" spans="1:1">
+    <row r="141" spans="1:1" ht="16.5">
       <c r="A141" s="52" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="142" spans="1:1">
+    <row r="142" spans="1:1" ht="16.5">
       <c r="A142" s="52" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="143" spans="1:1">
+    <row r="143" spans="1:1" ht="16.5">
       <c r="A143" s="52" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="144" spans="1:1">
+    <row r="144" spans="1:1" ht="16.5">
       <c r="A144" s="52" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="145" spans="1:1">
+    <row r="145" spans="1:1" ht="16.5">
       <c r="A145" s="52" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="146" spans="1:1">
+    <row r="146" spans="1:1" ht="16.5">
       <c r="A146" s="52" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="147" spans="1:1">
+    <row r="147" spans="1:1" ht="16.5">
       <c r="A147" s="52" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="148" spans="1:1">
+    <row r="148" spans="1:1" ht="16.5">
       <c r="A148" s="52" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="149" spans="1:1">
+    <row r="149" spans="1:1" ht="16.5">
       <c r="A149" s="52" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="150" spans="1:1">
+    <row r="150" spans="1:1" ht="16.5">
       <c r="A150" s="52" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="151" spans="1:1">
+    <row r="151" spans="1:1" ht="16.5">
       <c r="A151" s="52" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="152" spans="1:1">
+    <row r="152" spans="1:1" ht="16.5">
       <c r="A152" s="52" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="153" spans="1:1">
+    <row r="153" spans="1:1" ht="16.5">
       <c r="A153" s="52" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="154" spans="1:1">
+    <row r="154" spans="1:1" ht="16.5">
       <c r="A154" s="52" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="155" spans="1:1">
+    <row r="155" spans="1:1" ht="16.5">
       <c r="A155" s="52" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="156" spans="1:1">
+    <row r="156" spans="1:1" ht="16.5">
       <c r="A156" s="52" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="157" spans="1:1">
+    <row r="157" spans="1:1" ht="16.5">
       <c r="A157" s="52" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="158" spans="1:1">
+    <row r="158" spans="1:1" ht="16.5">
       <c r="A158" s="52" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="159" spans="1:1">
+    <row r="159" spans="1:1" ht="16.5">
       <c r="A159" s="52" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="160" spans="1:1">
+    <row r="160" spans="1:1" ht="16.5">
       <c r="A160" s="52" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="161" spans="1:1">
+    <row r="161" spans="1:1" ht="16.5">
       <c r="A161" s="52" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="162" spans="1:1">
+    <row r="162" spans="1:1" ht="16.5">
       <c r="A162" s="52" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="163" spans="1:1">
+    <row r="163" spans="1:1" ht="16.5">
       <c r="A163" s="52" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="164" spans="1:1">
+    <row r="164" spans="1:1" ht="16.5">
       <c r="A164" s="52" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="165" spans="1:1">
+    <row r="165" spans="1:1" ht="16.5">
       <c r="A165" s="52" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="166" spans="1:1">
+    <row r="166" spans="1:1" ht="16.5">
       <c r="A166" s="52" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="167" spans="1:1">
+    <row r="167" spans="1:1" ht="16.5">
       <c r="A167" s="52" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="168" spans="1:1">
+    <row r="168" spans="1:1" ht="16.5">
       <c r="A168" s="52" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="169" spans="1:1">
+    <row r="169" spans="1:1" ht="16.5">
       <c r="A169" s="52" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="170" spans="1:1">
+    <row r="170" spans="1:1" ht="16.5">
       <c r="A170" s="52" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="171" spans="1:1">
+    <row r="171" spans="1:1" ht="16.5">
       <c r="A171" s="52" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="172" spans="1:1">
+    <row r="172" spans="1:1" ht="16.5">
       <c r="A172" s="52" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="173" spans="1:1">
+    <row r="173" spans="1:1" ht="16.5">
       <c r="A173" s="52" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="174" spans="1:1">
+    <row r="174" spans="1:1" ht="16.5">
       <c r="A174" s="52" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="175" spans="1:1">
+    <row r="175" spans="1:1" ht="16.5">
       <c r="A175" s="52" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="176" spans="1:1">
+    <row r="176" spans="1:1" ht="16.5">
       <c r="A176" s="52" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="177" spans="1:1">
+    <row r="177" spans="1:1" ht="16.5">
       <c r="A177" s="52" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="178" spans="1:1">
+    <row r="178" spans="1:1" ht="16.5">
       <c r="A178" s="52" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="179" spans="1:1">
+    <row r="179" spans="1:1" ht="16.5">
       <c r="A179" s="52" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="180" spans="1:1">
+    <row r="180" spans="1:1" ht="16.5">
       <c r="A180" s="52" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="181" spans="1:1">
+    <row r="181" spans="1:1" ht="16.5">
       <c r="A181" s="52" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="182" spans="1:1">
+    <row r="182" spans="1:1" ht="16.5">
       <c r="A182" s="52" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="183" spans="1:1">
+    <row r="183" spans="1:1" ht="16.5">
       <c r="A183" s="52" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="184" spans="1:1">
+    <row r="184" spans="1:1" ht="16.5">
       <c r="A184" s="52" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="185" spans="1:1">
+    <row r="185" spans="1:1" ht="16.5">
       <c r="A185" s="52" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="186" spans="1:1">
+    <row r="186" spans="1:1" ht="16.5">
       <c r="A186" s="52" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:1">
+    <row r="187" spans="1:1" ht="16.5">
       <c r="A187" s="52" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="188" spans="1:1">
+    <row r="188" spans="1:1" ht="16.5">
       <c r="A188" s="52" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="189" spans="1:1">
+    <row r="189" spans="1:1" ht="16.5">
       <c r="A189" s="52" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="190" spans="1:1">
+    <row r="190" spans="1:1" ht="16.5">
       <c r="A190" s="52" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="191" spans="1:1">
+    <row r="191" spans="1:1" ht="16.5">
       <c r="A191" s="52" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="192" spans="1:1">
+    <row r="192" spans="1:1" ht="16.5">
       <c r="A192" s="52" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="193" spans="1:1">
+    <row r="193" spans="1:1" ht="16.5">
       <c r="A193" s="52" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="194" spans="1:1">
+    <row r="194" spans="1:1" ht="16.5">
       <c r="A194" s="52" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="195" spans="1:1">
+    <row r="195" spans="1:1" ht="16.5">
       <c r="A195" s="52" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="196" spans="1:1">
+    <row r="196" spans="1:1" ht="16.5">
       <c r="A196" s="52" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="197" spans="1:1">
+    <row r="197" spans="1:1" ht="16.5">
       <c r="A197" s="52" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="198" spans="1:1">
+    <row r="198" spans="1:1" ht="16.5">
       <c r="A198" s="52" t="s">
         <v>153</v>
       </c>
@@ -7710,7 +7740,7 @@
     <row r="199" spans="1:1">
       <c r="A199" s="51"/>
     </row>
-    <row r="200" spans="1:1">
+    <row r="200" spans="1:1" ht="16.5">
       <c r="A200" s="52" t="s">
         <v>191</v>
       </c>
@@ -7718,7 +7748,7 @@
     <row r="201" spans="1:1">
       <c r="A201" s="51"/>
     </row>
-    <row r="202" spans="1:1">
+    <row r="202" spans="1:1" ht="16.5">
       <c r="A202" s="52" t="s">
         <v>192</v>
       </c>
@@ -7726,22 +7756,22 @@
     <row r="203" spans="1:1">
       <c r="A203" s="51"/>
     </row>
-    <row r="204" spans="1:1">
+    <row r="204" spans="1:1" ht="16.5">
       <c r="A204" s="52" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="205" spans="1:1">
+    <row r="205" spans="1:1" ht="16.5">
       <c r="A205" s="52" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="206" spans="1:1">
+    <row r="206" spans="1:1" ht="16.5">
       <c r="A206" s="52" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="207" spans="1:1">
+    <row r="207" spans="1:1" ht="16.5">
       <c r="A207" s="52" t="s">
         <v>159</v>
       </c>
@@ -7755,7 +7785,7 @@
     <row r="210" spans="1:1">
       <c r="A210" s="51"/>
     </row>
-    <row r="211" spans="1:1">
+    <row r="211" spans="1:1" ht="16.5">
       <c r="A211" s="52" t="s">
         <v>144</v>
       </c>
@@ -7763,17 +7793,17 @@
     <row r="212" spans="1:1">
       <c r="A212" s="51"/>
     </row>
-    <row r="213" spans="1:1">
+    <row r="213" spans="1:1" ht="16.5">
       <c r="A213" s="52" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="214" spans="1:1">
+    <row r="214" spans="1:1" ht="16.5">
       <c r="A214" s="52" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="215" spans="1:1">
+    <row r="215" spans="1:1" ht="16.5">
       <c r="A215" s="52" t="s">
         <v>198</v>
       </c>
@@ -7781,7 +7811,7 @@
     <row r="216" spans="1:1">
       <c r="A216" s="51"/>
     </row>
-    <row r="217" spans="1:1">
+    <row r="217" spans="1:1" ht="16.5">
       <c r="A217" s="52" t="s">
         <v>199</v>
       </c>
@@ -7792,22 +7822,22 @@
     <row r="219" spans="1:1">
       <c r="A219" s="51"/>
     </row>
-    <row r="220" spans="1:1">
+    <row r="220" spans="1:1" ht="16.5">
       <c r="A220" s="52" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="221" spans="1:1">
+    <row r="221" spans="1:1" ht="16.5">
       <c r="A221" s="52" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="222" spans="1:1">
+    <row r="222" spans="1:1" ht="16.5">
       <c r="A222" s="52" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="223" spans="1:1">
+    <row r="223" spans="1:1" ht="16.5">
       <c r="A223" s="52" t="s">
         <v>203</v>
       </c>
@@ -7815,85 +7845,105 @@
     <row r="224" spans="1:1">
       <c r="A224" s="51"/>
     </row>
-    <row r="225" spans="1:1">
+    <row r="225" spans="1:1" ht="16.5">
       <c r="A225" s="52" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="226" spans="1:1">
+    <row r="226" spans="1:1" ht="16.5">
       <c r="A226" s="52" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="227" spans="1:1">
+    <row r="227" spans="1:1" ht="16.5">
       <c r="A227" s="52" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="228" spans="1:1">
+    <row r="228" spans="1:1" ht="16.5">
       <c r="A228" s="52" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="229" spans="1:1">
+    <row r="229" spans="1:1" ht="16.5">
       <c r="A229" s="52" t="s">
         <v>208</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="148">
-    <mergeCell ref="A19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="A23:H23"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="A47:S47"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="K28:K38"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="A31:H31"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="N49:N50"/>
-    <mergeCell ref="O49:O50"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A35:H35"/>
-    <mergeCell ref="A36:H36"/>
-    <mergeCell ref="A37:H37"/>
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="A39:H39"/>
-    <mergeCell ref="A44:S44"/>
-    <mergeCell ref="A45:S45"/>
-    <mergeCell ref="A46:S46"/>
-    <mergeCell ref="A68:H68"/>
-    <mergeCell ref="J68:M68"/>
-    <mergeCell ref="A69:H70"/>
-    <mergeCell ref="J69:M69"/>
-    <mergeCell ref="J70:M70"/>
-    <mergeCell ref="N69:N70"/>
-    <mergeCell ref="A59:H59"/>
-    <mergeCell ref="J59:M59"/>
-    <mergeCell ref="A60:H60"/>
-    <mergeCell ref="J60:M60"/>
-    <mergeCell ref="A61:H61"/>
-    <mergeCell ref="J61:M61"/>
-    <mergeCell ref="A62:S62"/>
-    <mergeCell ref="A63:S63"/>
-    <mergeCell ref="N74:N75"/>
-    <mergeCell ref="O74:O75"/>
-    <mergeCell ref="A76:H76"/>
-    <mergeCell ref="J76:M76"/>
-    <mergeCell ref="O69:O70"/>
-    <mergeCell ref="A71:H71"/>
-    <mergeCell ref="J71:M71"/>
-    <mergeCell ref="A72:H72"/>
-    <mergeCell ref="J72:M72"/>
-    <mergeCell ref="A73:S73"/>
+    <mergeCell ref="A109:S109"/>
+    <mergeCell ref="A102:S102"/>
+    <mergeCell ref="A103:S103"/>
+    <mergeCell ref="A104:S104"/>
+    <mergeCell ref="A105:S105"/>
+    <mergeCell ref="A106:S106"/>
+    <mergeCell ref="A107:S107"/>
+    <mergeCell ref="A64:S64"/>
+    <mergeCell ref="A65:S65"/>
+    <mergeCell ref="A66:S66"/>
+    <mergeCell ref="A67:S67"/>
+    <mergeCell ref="A82:S82"/>
+    <mergeCell ref="A83:S83"/>
+    <mergeCell ref="A100:H100"/>
+    <mergeCell ref="J100:M100"/>
+    <mergeCell ref="A101:H101"/>
+    <mergeCell ref="J89:M90"/>
+    <mergeCell ref="N89:N90"/>
+    <mergeCell ref="O89:O90"/>
+    <mergeCell ref="P89:P90"/>
+    <mergeCell ref="A80:H80"/>
+    <mergeCell ref="J80:M80"/>
+    <mergeCell ref="A81:H81"/>
+    <mergeCell ref="J75:M75"/>
+    <mergeCell ref="A58:H58"/>
+    <mergeCell ref="J58:M58"/>
+    <mergeCell ref="A53:S53"/>
+    <mergeCell ref="A54:H55"/>
+    <mergeCell ref="J54:M54"/>
+    <mergeCell ref="J55:M55"/>
+    <mergeCell ref="N54:N55"/>
+    <mergeCell ref="O54:O55"/>
+    <mergeCell ref="A108:S108"/>
+    <mergeCell ref="J81:M81"/>
+    <mergeCell ref="A88:H88"/>
+    <mergeCell ref="J88:M88"/>
+    <mergeCell ref="A84:S84"/>
+    <mergeCell ref="A85:S85"/>
+    <mergeCell ref="A86:S86"/>
+    <mergeCell ref="A87:S87"/>
+    <mergeCell ref="A77:H77"/>
+    <mergeCell ref="J77:M77"/>
+    <mergeCell ref="A78:H78"/>
+    <mergeCell ref="J78:M78"/>
+    <mergeCell ref="A79:H79"/>
+    <mergeCell ref="J79:M79"/>
+    <mergeCell ref="A74:H75"/>
+    <mergeCell ref="J74:M74"/>
+    <mergeCell ref="A16:S16"/>
+    <mergeCell ref="A17:S17"/>
+    <mergeCell ref="A18:S18"/>
+    <mergeCell ref="A24:S24"/>
+    <mergeCell ref="A25:S25"/>
+    <mergeCell ref="A26:S26"/>
+    <mergeCell ref="A56:H56"/>
+    <mergeCell ref="J56:M56"/>
+    <mergeCell ref="A57:H57"/>
+    <mergeCell ref="J57:M57"/>
+    <mergeCell ref="A51:H51"/>
+    <mergeCell ref="J51:M51"/>
+    <mergeCell ref="A52:H52"/>
+    <mergeCell ref="J52:M52"/>
+    <mergeCell ref="I27:I39"/>
+    <mergeCell ref="A40:H41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="A48:H48"/>
+    <mergeCell ref="J48:M48"/>
+    <mergeCell ref="A49:H50"/>
+    <mergeCell ref="J49:M49"/>
+    <mergeCell ref="J50:M50"/>
+    <mergeCell ref="A42:S42"/>
+    <mergeCell ref="A43:S43"/>
     <mergeCell ref="A10:S10"/>
     <mergeCell ref="A11:S11"/>
     <mergeCell ref="A12:S12"/>
@@ -7918,78 +7968,58 @@
     <mergeCell ref="J93:M93"/>
     <mergeCell ref="A89:H90"/>
     <mergeCell ref="I89:I90"/>
-    <mergeCell ref="A16:S16"/>
-    <mergeCell ref="A17:S17"/>
-    <mergeCell ref="A18:S18"/>
-    <mergeCell ref="A24:S24"/>
-    <mergeCell ref="A25:S25"/>
-    <mergeCell ref="A26:S26"/>
-    <mergeCell ref="A56:H56"/>
-    <mergeCell ref="J56:M56"/>
-    <mergeCell ref="A57:H57"/>
-    <mergeCell ref="J57:M57"/>
-    <mergeCell ref="A51:H51"/>
-    <mergeCell ref="J51:M51"/>
-    <mergeCell ref="A52:H52"/>
-    <mergeCell ref="J52:M52"/>
-    <mergeCell ref="I27:I39"/>
-    <mergeCell ref="A40:H41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="A48:H48"/>
-    <mergeCell ref="J48:M48"/>
-    <mergeCell ref="A49:H50"/>
-    <mergeCell ref="J49:M49"/>
-    <mergeCell ref="J50:M50"/>
-    <mergeCell ref="A42:S42"/>
-    <mergeCell ref="A43:S43"/>
-    <mergeCell ref="A58:H58"/>
-    <mergeCell ref="J58:M58"/>
-    <mergeCell ref="A53:S53"/>
-    <mergeCell ref="A54:H55"/>
-    <mergeCell ref="J54:M54"/>
-    <mergeCell ref="J55:M55"/>
-    <mergeCell ref="N54:N55"/>
-    <mergeCell ref="O54:O55"/>
-    <mergeCell ref="A108:S108"/>
-    <mergeCell ref="J81:M81"/>
-    <mergeCell ref="A88:H88"/>
-    <mergeCell ref="J88:M88"/>
-    <mergeCell ref="A84:S84"/>
-    <mergeCell ref="A85:S85"/>
-    <mergeCell ref="A86:S86"/>
-    <mergeCell ref="A87:S87"/>
-    <mergeCell ref="A77:H77"/>
-    <mergeCell ref="J77:M77"/>
-    <mergeCell ref="A78:H78"/>
-    <mergeCell ref="J78:M78"/>
-    <mergeCell ref="A79:H79"/>
-    <mergeCell ref="J79:M79"/>
-    <mergeCell ref="A74:H75"/>
-    <mergeCell ref="J74:M74"/>
-    <mergeCell ref="A109:S109"/>
-    <mergeCell ref="A102:S102"/>
-    <mergeCell ref="A103:S103"/>
-    <mergeCell ref="A104:S104"/>
-    <mergeCell ref="A105:S105"/>
-    <mergeCell ref="A106:S106"/>
-    <mergeCell ref="A107:S107"/>
-    <mergeCell ref="A64:S64"/>
-    <mergeCell ref="A65:S65"/>
-    <mergeCell ref="A66:S66"/>
-    <mergeCell ref="A67:S67"/>
-    <mergeCell ref="A82:S82"/>
-    <mergeCell ref="A83:S83"/>
-    <mergeCell ref="A100:H100"/>
-    <mergeCell ref="J100:M100"/>
-    <mergeCell ref="A101:H101"/>
-    <mergeCell ref="J89:M90"/>
-    <mergeCell ref="N89:N90"/>
-    <mergeCell ref="O89:O90"/>
-    <mergeCell ref="P89:P90"/>
-    <mergeCell ref="A80:H80"/>
-    <mergeCell ref="J80:M80"/>
-    <mergeCell ref="A81:H81"/>
-    <mergeCell ref="J75:M75"/>
+    <mergeCell ref="N74:N75"/>
+    <mergeCell ref="O74:O75"/>
+    <mergeCell ref="A76:H76"/>
+    <mergeCell ref="J76:M76"/>
+    <mergeCell ref="O69:O70"/>
+    <mergeCell ref="A71:H71"/>
+    <mergeCell ref="J71:M71"/>
+    <mergeCell ref="A72:H72"/>
+    <mergeCell ref="J72:M72"/>
+    <mergeCell ref="A73:S73"/>
+    <mergeCell ref="A68:H68"/>
+    <mergeCell ref="J68:M68"/>
+    <mergeCell ref="A69:H70"/>
+    <mergeCell ref="J69:M69"/>
+    <mergeCell ref="J70:M70"/>
+    <mergeCell ref="N69:N70"/>
+    <mergeCell ref="A59:H59"/>
+    <mergeCell ref="J59:M59"/>
+    <mergeCell ref="A60:H60"/>
+    <mergeCell ref="J60:M60"/>
+    <mergeCell ref="A61:H61"/>
+    <mergeCell ref="J61:M61"/>
+    <mergeCell ref="A62:S62"/>
+    <mergeCell ref="A63:S63"/>
+    <mergeCell ref="A47:S47"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="K28:K38"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="A36:H36"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="A39:H39"/>
+    <mergeCell ref="A44:S44"/>
+    <mergeCell ref="A45:S45"/>
+    <mergeCell ref="A46:S46"/>
+    <mergeCell ref="A19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="J23:M23"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A18" r:id="rId1" location="all_apps_report" display="https://rpm.newrelic.com/accounts/1625133/sample_email?email=weekly_report - all_apps_report"/>
